--- a/database/calliope_generators.xlsx
+++ b/database/calliope_generators.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_power_system\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C4D7BC-1681-4CBE-B94B-176042AA66D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0163A7-5E05-46E7-A770-90C31D4D483A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
@@ -40,27 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
   <si>
     <t>bus</t>
   </si>
   <si>
     <t>carrier</t>
-  </si>
-  <si>
-    <t>p_nom</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>Hydro</t>
   </si>
   <si>
     <t>region</t>
@@ -119,13 +104,183 @@
   <si>
     <t>60-63</t>
   </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>0,11,12</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>14,15</t>
+  </si>
+  <si>
+    <t>16,17,18</t>
+  </si>
+  <si>
+    <t>19,20,21</t>
+  </si>
+  <si>
+    <t>36,37,38</t>
+  </si>
+  <si>
+    <t>22,23,24,28,29,33</t>
+  </si>
+  <si>
+    <t>32,34,35</t>
+  </si>
+  <si>
+    <t>39,40,41,42</t>
+  </si>
+  <si>
+    <t>43,44,45,46,47,48</t>
+  </si>
+  <si>
+    <t>49,50,51,52,53,54,55,56,57</t>
+  </si>
+  <si>
+    <t>58,</t>
+  </si>
+  <si>
+    <t>59,62</t>
+  </si>
+  <si>
+    <t>60,61,63</t>
+  </si>
+  <si>
+    <t>9,65,66,67</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>25,26,27,30,31</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>lifetime (year)</t>
+  </si>
+  <si>
+    <t>slwahid</t>
+  </si>
+  <si>
+    <t>om_cost (USD/MWh)</t>
+  </si>
+  <si>
+    <t>wind_ons</t>
+  </si>
+  <si>
+    <t>wind_offs</t>
+  </si>
+  <si>
+    <t>cap_cost (USD/MW)</t>
+  </si>
+  <si>
+    <t>lombok_energy_outlook</t>
+  </si>
+  <si>
+    <t>kgCO2eq/MWh</t>
+  </si>
+  <si>
+    <t>volker_quaschning</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -225,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -350,11 +505,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -387,9 +577,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -400,9 +587,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -413,9 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -502,7 +683,94 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -691,6 +959,11 @@
             <v>1.5</v>
           </cell>
         </row>
+        <row r="36">
+          <cell r="F36">
+            <v>0.06</v>
+          </cell>
+        </row>
         <row r="37">
           <cell r="F37">
             <v>1.72</v>
@@ -726,6 +999,16 @@
             <v>3.5</v>
           </cell>
         </row>
+        <row r="49">
+          <cell r="F49">
+            <v>0.28000000000000003</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50">
+            <v>0.04</v>
+          </cell>
+        </row>
         <row r="54">
           <cell r="F54">
             <v>90</v>
@@ -746,11 +1029,76 @@
             <v>7</v>
           </cell>
         </row>
+        <row r="63">
+          <cell r="F63">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="F70">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="F71">
+            <v>0.14000000000000001</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="F77">
+            <v>4.6900000000000004</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="F78">
+            <v>2</v>
+          </cell>
+        </row>
         <row r="81">
           <cell r="F81">
             <v>0.1</v>
           </cell>
         </row>
+        <row r="82">
+          <cell r="F82">
+            <v>0.23200000000000001</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="F83">
+            <v>0.48799999999999999</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="F84">
+            <v>0.505</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="F85">
+            <v>0.30599999999999999</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="F86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="F87">
+            <v>0.996</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="F88">
+            <v>3.3</v>
+          </cell>
+        </row>
         <row r="89">
           <cell r="F89">
             <v>9</v>
@@ -766,6 +1114,51 @@
             <v>9</v>
           </cell>
         </row>
+        <row r="92">
+          <cell r="F92">
+            <v>12.21</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="F93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="F94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="F95">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="F96">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="F97">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="F99">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="F100">
+            <v>0.21299999999999999</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="F101">
+            <v>0.218</v>
+          </cell>
+        </row>
         <row r="109">
           <cell r="F109">
             <v>0.2</v>
@@ -776,16 +1169,116 @@
             <v>0.32</v>
           </cell>
         </row>
+        <row r="118">
+          <cell r="F118">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="F119">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="F120">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="F123">
+            <v>0.66</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="F124">
+            <v>1.39</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="F125">
+            <v>3.99</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="F126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="F127">
+            <v>0.496</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="F129">
+            <v>0.23799999999999999</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="F130">
+            <v>0.60099999999999998</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="F131">
+            <v>0.56999999999999995</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="F132">
+            <v>0.216</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="F133">
+            <v>0.222</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="F134">
+            <v>12.484999999999999</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="F135">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="F136">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="F137">
+            <v>0.56999999999999995</v>
+          </cell>
+        </row>
         <row r="138">
           <cell r="F138">
             <v>45</v>
           </cell>
         </row>
+        <row r="139">
+          <cell r="F139">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="F140">
+            <v>54.2</v>
+          </cell>
+        </row>
         <row r="141">
           <cell r="F141">
             <v>30</v>
           </cell>
         </row>
+        <row r="142">
+          <cell r="F142">
+            <v>8.4</v>
+          </cell>
+        </row>
         <row r="143">
           <cell r="F143">
             <v>65</v>
@@ -806,6 +1299,26 @@
             <v>65</v>
           </cell>
         </row>
+        <row r="147">
+          <cell r="F147">
+            <v>0.42</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="F148">
+            <v>0.18</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="F149">
+            <v>8.5340000000000007</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="F150">
+            <v>6.6719999999999997</v>
+          </cell>
+        </row>
         <row r="151">
           <cell r="F151">
             <v>115</v>
@@ -821,6 +1334,11 @@
             <v>60</v>
           </cell>
         </row>
+        <row r="154">
+          <cell r="F154">
+            <v>1.88</v>
+          </cell>
+        </row>
         <row r="155">
           <cell r="F155">
             <v>15</v>
@@ -831,11 +1349,36 @@
             <v>2.4</v>
           </cell>
         </row>
+        <row r="157">
+          <cell r="F157">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="F158">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="F159">
+            <v>1.78</v>
+          </cell>
+        </row>
         <row r="160">
           <cell r="F160">
             <v>6</v>
           </cell>
         </row>
+        <row r="161">
+          <cell r="F161">
+            <v>2.62</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="F162">
+            <v>0.15</v>
+          </cell>
+        </row>
         <row r="163">
           <cell r="F163">
             <v>55</v>
@@ -846,9 +1389,214 @@
             <v>3.2</v>
           </cell>
         </row>
-        <row r="201">
-          <cell r="F201">
+        <row r="165">
+          <cell r="F165">
+            <v>1.0900000000000001</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="F166">
+            <v>0.46</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="F167">
+            <v>1.77</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="F168">
+            <v>2.6</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="F169">
+            <v>0.46</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="F170">
+            <v>0.33</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="F171">
+            <v>1.85</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="F172">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="F173">
+            <v>15.47</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="F174">
+            <v>5.0999999999999996</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="F175">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="F176">
+            <v>0.51</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="F177">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="F178">
+            <v>0.43</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="F179">
+            <v>1.67</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="F180">
+            <v>0.49</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="F181">
+            <v>1.43</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="F182">
+            <v>0.92</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="F183">
+            <v>0.28999999999999998</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="F184">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="F185">
+            <v>0.24</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="F186">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="F187">
+            <v>0.52800000000000002</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="F188">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="F189">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="F190">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="F191">
+            <v>0.53600000000000003</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="F192">
+            <v>0.53600000000000003</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="F193">
+            <v>2.4</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="F194">
+            <v>0.54</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="F195">
+            <v>2.66</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="F196">
+            <v>11.65</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="F197">
+            <v>10.848000000000001</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="F198">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="F199">
+            <v>2.66</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="F200">
+            <v>1.7</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="F202">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="F203">
+            <v>7.12</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="F204">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="F205">
             <v>14</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="F206">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="F207">
+            <v>2.5</v>
           </cell>
         </row>
         <row r="208">
@@ -856,11 +1604,46 @@
             <v>3</v>
           </cell>
         </row>
+        <row r="209">
+          <cell r="F209">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="F210">
+            <v>0.498</v>
+          </cell>
+        </row>
         <row r="211">
           <cell r="F211">
             <v>10</v>
           </cell>
         </row>
+        <row r="212">
+          <cell r="F212">
+            <v>1.5840000000000001</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="F213">
+            <v>0.96</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="F214">
+            <v>1.1000000000000001</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="F215">
+            <v>0.45</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="F216">
+            <v>0.46</v>
+          </cell>
+        </row>
         <row r="217">
           <cell r="F217">
             <v>2.4</v>
@@ -871,11 +1654,116 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="219">
+          <cell r="F219">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="F220">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="F221">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="F222">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="F223">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="F224">
+            <v>0.52800000000000002</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="F225">
+            <v>0.52800000000000002</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="F226">
+            <v>0.52800000000000002</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="F227">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="F228">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="F229">
+            <v>3</v>
+          </cell>
+        </row>
         <row r="230">
           <cell r="F230">
             <v>1</v>
           </cell>
         </row>
+        <row r="231">
+          <cell r="F231">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="F232">
+            <v>0.56000000000000005</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="F233">
+            <v>3.88</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="F234">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="F235">
+            <v>1.22</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="F236">
+            <v>1.3520000000000001</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="F237">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="F238">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="F239">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="F240">
+            <v>1.06</v>
+          </cell>
+        </row>
         <row r="241">
           <cell r="F241">
             <v>115.03400000000001</v>
@@ -886,6 +1774,76 @@
             <v>115.03400000000001</v>
           </cell>
         </row>
+        <row r="243">
+          <cell r="F243">
+            <v>2.1</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="F244">
+            <v>0.44</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="F245">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="F246">
+            <v>0.61599999999999999</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="F247">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="F248">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="F249">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="F250">
+            <v>2.66</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="F251">
+            <v>1.33</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="F252">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="F253">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="F254">
+            <v>0.52800000000000002</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="F255">
+            <v>17.45</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="F256">
+            <v>0.38</v>
+          </cell>
+        </row>
         <row r="257">
           <cell r="F257">
             <v>60</v>
@@ -896,11 +1854,106 @@
             <v>60</v>
           </cell>
         </row>
+        <row r="259">
+          <cell r="F259">
+            <v>0.38</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="F260">
+            <v>0.98099999999999998</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="F261">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="F262">
+            <v>1.1080000000000001</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="F263">
+            <v>2.19</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="F264">
+            <v>4.5</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="F265">
+            <v>2.0699999999999998</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="F266">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="F267">
+            <v>4.01</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="F268">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="F269">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="F270">
+            <v>0.44</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="F271">
+            <v>0.26</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="F272">
+            <v>0.44</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="F273">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="F274">
+            <v>0.3</v>
+          </cell>
+        </row>
         <row r="275">
           <cell r="F275">
             <v>8.81</v>
           </cell>
         </row>
+        <row r="276">
+          <cell r="F276">
+            <v>0.28000000000000003</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="F277">
+            <v>0.26</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="F278">
+            <v>0.12</v>
+          </cell>
+        </row>
         <row r="279">
           <cell r="F279">
             <v>0.48</v>
@@ -1136,6 +2189,26 @@
             <v>40</v>
           </cell>
         </row>
+        <row r="326">
+          <cell r="F326">
+            <v>20.079999999999998</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="F327">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="F328">
+            <v>6.8940000000000001</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="F329">
+            <v>3</v>
+          </cell>
+        </row>
         <row r="330">
           <cell r="F330">
             <v>46</v>
@@ -1161,6 +2234,31 @@
             <v>7.5</v>
           </cell>
         </row>
+        <row r="335">
+          <cell r="F335">
+            <v>40.03</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="F336">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="F337">
+            <v>0.72399999999999998</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="F338">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="F339">
+            <v>70</v>
+          </cell>
+        </row>
         <row r="340">
           <cell r="F340">
             <v>9.6</v>
@@ -1196,11 +2294,86 @@
             <v>7.5</v>
           </cell>
         </row>
+        <row r="347">
+          <cell r="F347">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="F348">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="F349">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="F350">
+            <v>5.8120000000000003</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="F351">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="F352">
+            <v>5.2</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="F353">
+            <v>24.61</v>
+          </cell>
+        </row>
         <row r="354">
           <cell r="F354">
             <v>2</v>
           </cell>
         </row>
+        <row r="355">
+          <cell r="F355">
+            <v>24.61</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="F356">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="F357">
+            <v>5.2</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="F358">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="F359">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="F360">
+            <v>0.18</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="F361">
+            <v>0.48</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="F362">
+            <v>0.4</v>
+          </cell>
+        </row>
         <row r="363">
           <cell r="F363">
             <v>4</v>
@@ -1216,6 +2389,26 @@
             <v>33</v>
           </cell>
         </row>
+        <row r="366">
+          <cell r="F366">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="F367">
+            <v>0.28000000000000003</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="F368">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="F369">
+            <v>20</v>
+          </cell>
+        </row>
         <row r="370">
           <cell r="F370">
             <v>100</v>
@@ -1256,6 +2449,11 @@
             <v>9.7799999999999994</v>
           </cell>
         </row>
+        <row r="378">
+          <cell r="F378">
+            <v>27.59</v>
+          </cell>
+        </row>
         <row r="379">
           <cell r="F379">
             <v>8</v>
@@ -1266,6 +2464,26 @@
             <v>34</v>
           </cell>
         </row>
+        <row r="381">
+          <cell r="F381">
+            <v>4.49</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="F382">
+            <v>0.92</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="F383">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="F384">
+            <v>1.9</v>
+          </cell>
+        </row>
         <row r="385">
           <cell r="F385">
             <v>9.1300000000000008</v>
@@ -1276,26 +2494,116 @@
             <v>9.5</v>
           </cell>
         </row>
+        <row r="387">
+          <cell r="F387">
+            <v>4.548</v>
+          </cell>
+        </row>
         <row r="388">
           <cell r="F388">
             <v>18</v>
           </cell>
         </row>
+        <row r="389">
+          <cell r="F389">
+            <v>0.48</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="F390">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="F391">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="F392">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="F393">
+            <v>1.64</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="F394">
+            <v>1</v>
+          </cell>
+        </row>
         <row r="395">
           <cell r="F395">
             <v>0.35</v>
           </cell>
         </row>
+        <row r="396">
+          <cell r="F396">
+            <v>0.62</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="F397">
+            <v>0.82</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="F398">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="F399">
+            <v>2.25</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="F400">
+            <v>1</v>
+          </cell>
+        </row>
         <row r="401">
           <cell r="F401">
             <v>0.26</v>
           </cell>
         </row>
+        <row r="402">
+          <cell r="F402">
+            <v>0.45500000000000002</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="F403">
+            <v>15.917999999999999</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="F404">
+            <v>3</v>
+          </cell>
+        </row>
         <row r="405">
           <cell r="F405">
             <v>21</v>
           </cell>
         </row>
+        <row r="406">
+          <cell r="F406">
+            <v>1.27</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="F407">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="F408">
+            <v>0.56999999999999995</v>
+          </cell>
+        </row>
         <row r="409">
           <cell r="F409">
             <v>0.2</v>
@@ -1336,6 +2644,11 @@
             <v>0.5</v>
           </cell>
         </row>
+        <row r="417">
+          <cell r="F417">
+            <v>0.1</v>
+          </cell>
+        </row>
         <row r="418">
           <cell r="F418">
             <v>10.64</v>
@@ -1371,11 +2684,21 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="425">
+          <cell r="F425">
+            <v>0.1</v>
+          </cell>
+        </row>
         <row r="426">
           <cell r="F426">
             <v>0.69499999999999995</v>
           </cell>
         </row>
+        <row r="427">
+          <cell r="F427">
+            <v>0.1</v>
+          </cell>
+        </row>
         <row r="428">
           <cell r="F428">
             <v>0.3</v>
@@ -1396,6 +2719,11 @@
             <v>0.6</v>
           </cell>
         </row>
+        <row r="432">
+          <cell r="F432">
+            <v>0.1</v>
+          </cell>
+        </row>
         <row r="433">
           <cell r="F433">
             <v>8.9120000000000008</v>
@@ -1436,6 +2764,11 @@
             <v>0.43</v>
           </cell>
         </row>
+        <row r="441">
+          <cell r="F441">
+            <v>0.1</v>
+          </cell>
+        </row>
         <row r="442">
           <cell r="F442">
             <v>15.263999999999999</v>
@@ -1526,6 +2859,11 @@
             <v>2.5</v>
           </cell>
         </row>
+        <row r="460">
+          <cell r="F460">
+            <v>0.2</v>
+          </cell>
+        </row>
         <row r="461">
           <cell r="F461">
             <v>1</v>
@@ -1541,516 +2879,9 @@
             <v>6.7119999999999997</v>
           </cell>
         </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="generators_kalimantan"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>4.0949999999999998</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Oil</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>0.16</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>18.399999999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>5.585</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>125</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>125</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>0.41199999999999998</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>3.375</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>0.77</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>50.4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>49.9</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>1.196</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>3.5</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>7.5</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>7.5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>1.05</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>0.69499999999999995</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>2.7549999999999999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>2.085</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>3.0089999999999999</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>1.0780000000000001</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>0.17</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>0.33700000000000002</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>0.82299999999999995</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>0.33100000000000002</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>1.5740000000000001</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>0.23200000000000001</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>0.246</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>1.4450000000000001</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>1.0289999999999999</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>0.748</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>0.75</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>0.44</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>0.156</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>0.23599999999999999</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>1.4379999999999999</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>0.16200000000000001</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>2.3450000000000002</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>4.7480000000000002</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>1.8959999999999999</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>0.57599999999999996</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>14.798999999999999</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>1.0840000000000001</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>7.98</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>0.36799999999999999</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>0.216</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>1.35</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>0.04</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>4.6900000000000004</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>0.996</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>3.3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>0.56999999999999995</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>0.28000000000000003</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>0.60099999999999998</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>0.30599999999999999</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>1.39</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>0.14000000000000001</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>0.216</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>0.21299999999999999</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>0.66</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>0.23200000000000001</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>12.21</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>0.56999999999999995</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>0.218</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>0.222</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>12.484999999999999</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>0.48799999999999999</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>0.505</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>0.36</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>3.99</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>0.496</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>0.23799999999999999</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97">
-            <v>0.57599999999999996</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99">
-            <v>1.72</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100">
-            <v>0.75</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101">
-            <v>1.5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="C102">
-            <v>0.22500000000000001</v>
+        <row r="464">
+          <cell r="F464">
+            <v>0.34</v>
           </cell>
         </row>
       </sheetData>
@@ -2355,14 +3186,3241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF83E7F3-B837-43E6-BF88-00ED77709958}">
+  <dimension ref="A1:AN47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AQ25" sqref="AQ25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.109375" style="120" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="5" max="13" width="8.88671875" style="120" customWidth="1"/>
+    <col min="14" max="23" width="8.88671875" customWidth="1"/>
+    <col min="32" max="40" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C1" s="128">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="128"/>
+      <c r="E1" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="131" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG1" s="130"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="130"/>
+      <c r="AJ1" s="130"/>
+      <c r="AK1" s="130"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="130"/>
+      <c r="AN1" s="130"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL2" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM2" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN2" s="109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="126">
+        <v>0.86423333300000005</v>
+      </c>
+      <c r="B3" s="126">
+        <v>108.9092</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="110">
+        <v>0</v>
+      </c>
+      <c r="F3" s="111">
+        <v>250</v>
+      </c>
+      <c r="G3" s="112">
+        <v>0</v>
+      </c>
+      <c r="H3" s="113">
+        <v>0</v>
+      </c>
+      <c r="I3" s="114">
+        <v>0</v>
+      </c>
+      <c r="J3" s="115">
+        <v>24.556999999999999</v>
+      </c>
+      <c r="K3" s="116">
+        <v>0</v>
+      </c>
+      <c r="L3" s="117">
+        <v>0</v>
+      </c>
+      <c r="M3" s="118">
+        <v>0</v>
+      </c>
+      <c r="N3" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O3" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P3" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q3" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R3" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S3" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T3" s="116">
+        <v>1</v>
+      </c>
+      <c r="U3" s="117">
+        <v>1</v>
+      </c>
+      <c r="V3" s="118">
+        <v>1</v>
+      </c>
+      <c r="W3" s="110">
+        <f t="shared" ref="W3:AE3" si="0">E3*N3</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="111">
+        <f t="shared" si="0"/>
+        <v>142.5</v>
+      </c>
+      <c r="Y3" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="115">
+        <f t="shared" si="0"/>
+        <v>9.0860899999999987</v>
+      </c>
+      <c r="AC3" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="117">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG3" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH3" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI3" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK3" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL3" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" s="126">
+        <v>4.5260000000000002E-2</v>
+      </c>
+      <c r="B4" s="126">
+        <v>109.23968000000001</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="110">
+        <f>'[1]Sheet 1'!$F$16</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="111">
+        <v>0</v>
+      </c>
+      <c r="G4" s="112">
+        <v>0</v>
+      </c>
+      <c r="H4" s="113">
+        <v>0</v>
+      </c>
+      <c r="I4" s="114">
+        <v>0</v>
+      </c>
+      <c r="J4" s="115">
+        <f>'[1]Sheet 1'!$F$11+'[1]Sheet 1'!$F$12+'[1]Sheet 1'!$F$13+'[1]Sheet 1'!$F$14+'[1]Sheet 1'!$F$15</f>
+        <v>134.64500000000001</v>
+      </c>
+      <c r="K4" s="116">
+        <v>0</v>
+      </c>
+      <c r="L4" s="117">
+        <v>0</v>
+      </c>
+      <c r="M4" s="118">
+        <v>0</v>
+      </c>
+      <c r="N4" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O4" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P4" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q4" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R4" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S4" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T4" s="116">
+        <v>1</v>
+      </c>
+      <c r="U4" s="117">
+        <v>1</v>
+      </c>
+      <c r="V4" s="118">
+        <v>1</v>
+      </c>
+      <c r="W4" s="110">
+        <f t="shared" ref="W4:W22" si="1">E4*N4</f>
+        <v>3.5</v>
+      </c>
+      <c r="X4" s="111">
+        <f t="shared" ref="X4:X22" si="2">F4*O4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="112">
+        <f t="shared" ref="Y4:Y22" si="3">G4*P4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="113">
+        <f t="shared" ref="Z4:Z22" si="4">H4*Q4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="114">
+        <f t="shared" ref="AA4:AA22" si="5">I4*R4</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="115">
+        <f t="shared" ref="AB4:AB22" si="6">J4*S4</f>
+        <v>49.818650000000005</v>
+      </c>
+      <c r="AC4" s="116">
+        <f t="shared" ref="AC4:AC22" si="7">K4*T4</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="117">
+        <f t="shared" ref="AD4:AD22" si="8">L4*U4</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="118">
+        <f t="shared" ref="AE4:AE22" si="9">M4*V4</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG4" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH4" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI4" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK4" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL4" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A5" s="126">
+        <v>1.1174249999999999</v>
+      </c>
+      <c r="B5" s="126">
+        <v>109.55835</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="110">
+        <v>0</v>
+      </c>
+      <c r="F5" s="111">
+        <f>'[1]Sheet 1'!$F$5+'[1]Sheet 1'!$F$6</f>
+        <v>110</v>
+      </c>
+      <c r="G5" s="112">
+        <v>0</v>
+      </c>
+      <c r="H5" s="113">
+        <v>0</v>
+      </c>
+      <c r="I5" s="114">
+        <f>'[1]Sheet 1'!$F$31+'[1]Sheet 1'!$F$32+'[1]Sheet 1'!$F$34+'[1]Sheet 1'!$F$55+'[1]Sheet 1'!$F$111</f>
+        <v>3.9650000000000003</v>
+      </c>
+      <c r="J5" s="115">
+        <f>'[1]Sheet 1'!$F$10+'[1]Sheet 1'!$F$17+'[1]Sheet 1'!$F$27+'[1]Sheet 1'!$F$28+'[1]Sheet 1'!$F$30+'[1]Sheet 1'!$F$37+'[1]Sheet 1'!$F$38</f>
+        <v>7.6409999999999991</v>
+      </c>
+      <c r="K5" s="116">
+        <v>0.08</v>
+      </c>
+      <c r="L5" s="117">
+        <v>0</v>
+      </c>
+      <c r="M5" s="118">
+        <v>0</v>
+      </c>
+      <c r="N5" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O5" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P5" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q5" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R5" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S5" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T5" s="116">
+        <v>1</v>
+      </c>
+      <c r="U5" s="117">
+        <v>1</v>
+      </c>
+      <c r="V5" s="118">
+        <v>1</v>
+      </c>
+      <c r="W5" s="110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="111">
+        <f t="shared" si="2"/>
+        <v>62.699999999999996</v>
+      </c>
+      <c r="Y5" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="114">
+        <f t="shared" si="5"/>
+        <v>3.76675</v>
+      </c>
+      <c r="AB5" s="115">
+        <f t="shared" si="6"/>
+        <v>2.8271699999999997</v>
+      </c>
+      <c r="AC5" s="116">
+        <f t="shared" si="7"/>
+        <v>0.08</v>
+      </c>
+      <c r="AD5" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG5" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH5" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI5" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK5" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL5" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" s="126">
+        <v>0.17745</v>
+      </c>
+      <c r="B6" s="126">
+        <v>110.0471</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="110">
+        <v>0</v>
+      </c>
+      <c r="F6" s="111">
+        <f>'[1]Sheet 1'!$F$89+'[1]Sheet 1'!$F$90+'[1]Sheet 1'!$F$91</f>
+        <v>27</v>
+      </c>
+      <c r="G6" s="112">
+        <v>0</v>
+      </c>
+      <c r="H6" s="113">
+        <v>0</v>
+      </c>
+      <c r="I6" s="114">
+        <f>'[1]Sheet 1'!$F$54</f>
+        <v>90</v>
+      </c>
+      <c r="J6" s="115">
+        <f>'[1]Sheet 1'!$F$49+'[1]Sheet 1'!$F$63+'[1]Sheet 1'!$F$69+'[1]Sheet 1'!$F$70+'[1]Sheet 1'!$F$71+'[1]Sheet 1'!$F$77+'[1]Sheet 1'!$F$78+'[1]Sheet 1'!$F$82+'[1]Sheet 1'!$F$83+'[1]Sheet 1'!$F$84+'[1]Sheet 1'!$F$85+'[1]Sheet 1'!$F$86+'[1]Sheet 1'!$F$87+'[1]Sheet 1'!$F$88+'[1]Sheet 1'!$F$92+'[1]Sheet 1'!$F$93+'[1]Sheet 1'!$F$94+'[1]Sheet 1'!$F$95+'[1]Sheet 1'!$F$96+'[1]Sheet 1'!$F$97+'[1]Sheet 1'!$F$99+'[1]Sheet 1'!$F$100+'[1]Sheet 1'!$F$101+'[1]Sheet 1'!$F$118+'[1]Sheet 1'!$F$119+'[1]Sheet 1'!$F$120+'[1]Sheet 1'!$F$123+'[1]Sheet 1'!$F$124+'[1]Sheet 1'!$F$125+'[1]Sheet 1'!$F$126+'[1]Sheet 1'!$F$127+'[1]Sheet 1'!$F$129+'[1]Sheet 1'!$F$130+'[1]Sheet 1'!$F$131+'[1]Sheet 1'!$F$132+'[1]Sheet 1'!$F$133+'[1]Sheet 1'!$F$134+'[1]Sheet 1'!$F$135+'[1]Sheet 1'!$F$136+'[1]Sheet 1'!$F$137</f>
+        <v>70.355999999999995</v>
+      </c>
+      <c r="K6" s="116">
+        <f>'[1]Sheet 1'!$F$50+'[1]Sheet 1'!$F$36</f>
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="117">
+        <v>0</v>
+      </c>
+      <c r="M6" s="118">
+        <v>0</v>
+      </c>
+      <c r="N6" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O6" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P6" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q6" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R6" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S6" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T6" s="116">
+        <v>1</v>
+      </c>
+      <c r="U6" s="117">
+        <v>1</v>
+      </c>
+      <c r="V6" s="118">
+        <v>1</v>
+      </c>
+      <c r="W6" s="110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="111">
+        <f t="shared" si="2"/>
+        <v>15.389999999999999</v>
+      </c>
+      <c r="Y6" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="114">
+        <f t="shared" si="5"/>
+        <v>85.5</v>
+      </c>
+      <c r="AB6" s="115">
+        <f t="shared" si="6"/>
+        <v>26.031719999999996</v>
+      </c>
+      <c r="AC6" s="116">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="AD6" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG6" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH6" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI6" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK6" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL6" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" s="126">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="B7" s="126">
+        <v>110.9554667</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="110">
+        <f>'[1]Sheet 1'!$F$25</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="111">
+        <v>0</v>
+      </c>
+      <c r="G7" s="112">
+        <f>'[1]Sheet 1'!$F$19</f>
+        <v>34</v>
+      </c>
+      <c r="H7" s="113">
+        <v>0</v>
+      </c>
+      <c r="I7" s="114">
+        <v>0</v>
+      </c>
+      <c r="J7" s="115">
+        <v>166.49600000000001</v>
+      </c>
+      <c r="K7" s="116">
+        <v>0</v>
+      </c>
+      <c r="L7" s="117">
+        <v>0</v>
+      </c>
+      <c r="M7" s="118">
+        <v>0</v>
+      </c>
+      <c r="N7" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O7" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P7" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q7" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R7" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S7" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T7" s="116">
+        <v>1</v>
+      </c>
+      <c r="U7" s="117">
+        <v>1</v>
+      </c>
+      <c r="V7" s="118">
+        <v>1</v>
+      </c>
+      <c r="W7" s="110">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="X7" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="112">
+        <f t="shared" si="3"/>
+        <v>12.58</v>
+      </c>
+      <c r="Z7" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="115">
+        <f t="shared" si="6"/>
+        <v>61.603520000000003</v>
+      </c>
+      <c r="AC7" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG7" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH7" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI7" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK7" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL7" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" s="126">
+        <v>-1.7742</v>
+      </c>
+      <c r="B8" s="126">
+        <v>110.0303</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="110">
+        <f>'[1]Sheet 1'!$F$44</f>
+        <v>3.5</v>
+      </c>
+      <c r="F8" s="111">
+        <f>'[1]Sheet 1'!$F$39+'[1]Sheet 1'!$F$40+'[1]Sheet 1'!$F$42+'[1]Sheet 1'!$F$43+'[1]Sheet 1'!$F$61+'[1]Sheet 1'!$F$62</f>
+        <v>49</v>
+      </c>
+      <c r="G8" s="112">
+        <v>0</v>
+      </c>
+      <c r="H8" s="113">
+        <v>0</v>
+      </c>
+      <c r="I8" s="114">
+        <f>'[1]Sheet 1'!$F$81+'[1]Sheet 1'!$F$109</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J8" s="115">
+        <v>97.691000000000003</v>
+      </c>
+      <c r="K8" s="116">
+        <v>0</v>
+      </c>
+      <c r="L8" s="117">
+        <v>0</v>
+      </c>
+      <c r="M8" s="118">
+        <v>0</v>
+      </c>
+      <c r="N8" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O8" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P8" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q8" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R8" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S8" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T8" s="116">
+        <v>1</v>
+      </c>
+      <c r="U8" s="117">
+        <v>1</v>
+      </c>
+      <c r="V8" s="118">
+        <v>1</v>
+      </c>
+      <c r="W8" s="110">
+        <f t="shared" si="1"/>
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="X8" s="111">
+        <f t="shared" si="2"/>
+        <v>27.929999999999996</v>
+      </c>
+      <c r="Y8" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="114">
+        <f t="shared" si="5"/>
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="AB8" s="115">
+        <f t="shared" si="6"/>
+        <v>36.145670000000003</v>
+      </c>
+      <c r="AC8" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG8" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH8" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI8" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK8" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL8" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" s="126">
+        <v>-2.6152000000000002</v>
+      </c>
+      <c r="B9" s="126">
+        <v>111.7037</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="110">
+        <f>'[1]Sheet 1'!$F$208+'[1]Sheet 1'!$F$211</f>
+        <v>13</v>
+      </c>
+      <c r="F9" s="111">
+        <f>'[1]Sheet 1'!$F$201</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="112">
+        <v>0</v>
+      </c>
+      <c r="H9" s="113">
+        <v>0</v>
+      </c>
+      <c r="I9" s="114">
+        <v>0</v>
+      </c>
+      <c r="J9" s="115">
+        <f>'[1]Sheet 1'!$F$182+'[1]Sheet 1'!$F$183+'[1]Sheet 1'!$F$184+'[1]Sheet 1'!$F$185+'[1]Sheet 1'!$F$186+'[1]Sheet 1'!$F$187+'[1]Sheet 1'!$F$188+'[1]Sheet 1'!$F$189+'[1]Sheet 1'!$F$190+'[1]Sheet 1'!$F$191+'[1]Sheet 1'!$F$192+'[1]Sheet 1'!$F$194+'[1]Sheet 1'!$F$195+'[1]Sheet 1'!$F$196+'[1]Sheet 1'!$F$197+'[1]Sheet 1'!$F$198+'[1]Sheet 1'!$F$199+'[1]Sheet 1'!$F$200+'[1]Sheet 1'!$F$202+'[1]Sheet 1'!$F$203+'[1]Sheet 1'!$F$204+'[1]Sheet 1'!$F$205+'[1]Sheet 1'!$F$206+'[1]Sheet 1'!$F$207+'[1]Sheet 1'!$F$209+'[1]Sheet 1'!$F$210</f>
+        <v>79.385999999999996</v>
+      </c>
+      <c r="K9" s="116">
+        <v>0</v>
+      </c>
+      <c r="L9" s="117">
+        <v>0</v>
+      </c>
+      <c r="M9" s="118">
+        <v>0</v>
+      </c>
+      <c r="N9" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O9" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P9" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q9" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R9" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S9" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T9" s="116">
+        <v>1</v>
+      </c>
+      <c r="U9" s="117">
+        <v>1</v>
+      </c>
+      <c r="V9" s="118">
+        <v>1</v>
+      </c>
+      <c r="W9" s="110">
+        <f t="shared" si="1"/>
+        <v>4.55</v>
+      </c>
+      <c r="X9" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="115">
+        <f t="shared" si="6"/>
+        <v>29.372819999999997</v>
+      </c>
+      <c r="AC9" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG9" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH9" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI9" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK9" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL9" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" s="126">
+        <v>-2.6220500000000002</v>
+      </c>
+      <c r="B10" s="126">
+        <v>112.91540000000001</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="110">
+        <f>'[1]Sheet 1'!$F$217+'[1]Sheet 1'!$F$218+'[1]Sheet 1'!$F$230</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F10" s="111">
+        <v>0</v>
+      </c>
+      <c r="G10" s="112">
+        <v>0</v>
+      </c>
+      <c r="H10" s="113">
+        <v>0</v>
+      </c>
+      <c r="I10" s="114">
+        <v>0</v>
+      </c>
+      <c r="J10" s="115">
+        <f>'[1]Sheet 1'!$F$212+'[1]Sheet 1'!$F$213+'[1]Sheet 1'!$F$214+'[1]Sheet 1'!$F$215+'[1]Sheet 1'!$F$216+'[1]Sheet 1'!$F$219+'[1]Sheet 1'!$F$220+'[1]Sheet 1'!$F$221+'[1]Sheet 1'!$F$222+'[1]Sheet 1'!$F$223+'[1]Sheet 1'!$F$224+'[1]Sheet 1'!$F$225+'[1]Sheet 1'!$F$226+'[1]Sheet 1'!$F$227+'[1]Sheet 1'!$F$228+'[1]Sheet 1'!$F$231+'[1]Sheet 1'!$F$232</f>
+        <v>17.068000000000001</v>
+      </c>
+      <c r="K10" s="116">
+        <v>0</v>
+      </c>
+      <c r="L10" s="117">
+        <v>0</v>
+      </c>
+      <c r="M10" s="118">
+        <v>0</v>
+      </c>
+      <c r="N10" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O10" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P10" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q10" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R10" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S10" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T10" s="116">
+        <v>1</v>
+      </c>
+      <c r="U10" s="117">
+        <v>1</v>
+      </c>
+      <c r="V10" s="118">
+        <v>1</v>
+      </c>
+      <c r="W10" s="110">
+        <f t="shared" si="1"/>
+        <v>1.54</v>
+      </c>
+      <c r="X10" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="115">
+        <f t="shared" si="6"/>
+        <v>6.3151600000000006</v>
+      </c>
+      <c r="AC10" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG10" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH10" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI10" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK10" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL10" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" s="126">
+        <v>-2.1166</v>
+      </c>
+      <c r="B11" s="126">
+        <v>113.7459333</v>
+      </c>
+      <c r="C11" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="110">
+        <v>0</v>
+      </c>
+      <c r="F11" s="111">
+        <f>'[1]Sheet 1'!$F$241+'[1]Sheet 1'!$F$242</f>
+        <v>230.06800000000001</v>
+      </c>
+      <c r="G11" s="112">
+        <v>0</v>
+      </c>
+      <c r="H11" s="113">
+        <v>0</v>
+      </c>
+      <c r="I11" s="114">
+        <v>0</v>
+      </c>
+      <c r="J11" s="115">
+        <f>'[1]Sheet 1'!$F$193+'[1]Sheet 1'!$F$229+'[1]Sheet 1'!$F$233+'[1]Sheet 1'!$F$234+'[1]Sheet 1'!$F$235+'[1]Sheet 1'!$F$236+'[1]Sheet 1'!$F$237+'[1]Sheet 1'!$F$238+'[1]Sheet 1'!$F$239+'[1]Sheet 1'!$F$240+'[1]Sheet 1'!$F$243+'[1]Sheet 1'!$F$244+'[1]Sheet 1'!$F$245+'[1]Sheet 1'!$F$246+'[1]Sheet 1'!$F$247+'[1]Sheet 1'!$F$248+'[1]Sheet 1'!$F$249+'[1]Sheet 1'!$F$250+'[1]Sheet 1'!$F$251+'[1]Sheet 1'!$F$252+'[1]Sheet 1'!$F$253+'[1]Sheet 1'!$F$254+'[1]Sheet 1'!$F$255+'[1]Sheet 1'!$F$256</f>
+        <v>58.905999999999999</v>
+      </c>
+      <c r="K11" s="116">
+        <v>0</v>
+      </c>
+      <c r="L11" s="117">
+        <v>0</v>
+      </c>
+      <c r="M11" s="118">
+        <v>0</v>
+      </c>
+      <c r="N11" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O11" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P11" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q11" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R11" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S11" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T11" s="116">
+        <v>1</v>
+      </c>
+      <c r="U11" s="117">
+        <v>1</v>
+      </c>
+      <c r="V11" s="118">
+        <v>1</v>
+      </c>
+      <c r="W11" s="110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="111">
+        <f t="shared" si="2"/>
+        <v>131.13875999999999</v>
+      </c>
+      <c r="Y11" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="115">
+        <f t="shared" si="6"/>
+        <v>21.79522</v>
+      </c>
+      <c r="AC11" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG11" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH11" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI11" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK11" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL11" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" s="126">
+        <v>-2.8550333330000002</v>
+      </c>
+      <c r="B12" s="126">
+        <v>114.2789667</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="110">
+        <v>0</v>
+      </c>
+      <c r="F12" s="111">
+        <f>'[1]Sheet 1'!$F$257+'[1]Sheet 1'!$F$258</f>
+        <v>120</v>
+      </c>
+      <c r="G12" s="112">
+        <v>0</v>
+      </c>
+      <c r="H12" s="113">
+        <v>0</v>
+      </c>
+      <c r="I12" s="114">
+        <v>0</v>
+      </c>
+      <c r="J12" s="115">
+        <f>'[1]Sheet 1'!$F$259+'[1]Sheet 1'!$F$260+'[1]Sheet 1'!$F$261+'[1]Sheet 1'!$F$262+'[1]Sheet 1'!$F$263+'[1]Sheet 1'!$F$264+'[1]Sheet 1'!$F$265+'[1]Sheet 1'!$F$266+'[1]Sheet 1'!$F$267+'[1]Sheet 1'!$F$268+'[1]Sheet 1'!$F$269+'[1]Sheet 1'!$F$270+'[1]Sheet 1'!$F$271+'[1]Sheet 1'!$F$272+'[1]Sheet 1'!$F$273+'[1]Sheet 1'!$F$274+'[1]Sheet 1'!$F$276+'[1]Sheet 1'!$F$277+'[1]Sheet 1'!$F$278</f>
+        <v>25.499000000000002</v>
+      </c>
+      <c r="K12" s="116">
+        <v>0</v>
+      </c>
+      <c r="L12" s="117">
+        <v>0</v>
+      </c>
+      <c r="M12" s="118">
+        <v>0</v>
+      </c>
+      <c r="N12" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O12" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P12" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q12" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R12" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S12" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T12" s="116">
+        <v>1</v>
+      </c>
+      <c r="U12" s="117">
+        <v>1</v>
+      </c>
+      <c r="V12" s="118">
+        <v>1</v>
+      </c>
+      <c r="W12" s="110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="111">
+        <f t="shared" si="2"/>
+        <v>68.399999999999991</v>
+      </c>
+      <c r="Y12" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="115">
+        <f t="shared" si="6"/>
+        <v>9.4346300000000003</v>
+      </c>
+      <c r="AC12" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG12" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH12" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI12" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK12" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL12" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A13" s="126">
+        <v>-0.74419999999999997</v>
+      </c>
+      <c r="B13" s="126">
+        <v>115.00215</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="110">
+        <v>0</v>
+      </c>
+      <c r="F13" s="111">
+        <f>'[1]Sheet 1'!$F$284</f>
+        <v>7</v>
+      </c>
+      <c r="G13" s="112">
+        <f>'[1]Sheet 1'!$F$285+'[1]Sheet 1'!$F$286+'[1]Sheet 1'!$F$287+'[1]Sheet 1'!$F$288</f>
+        <v>156.304</v>
+      </c>
+      <c r="H13" s="113">
+        <v>0</v>
+      </c>
+      <c r="I13" s="114">
+        <v>0</v>
+      </c>
+      <c r="J13" s="115">
+        <f>'[1]Sheet 1'!$F$275+'[1]Sheet 1'!$F$279+'[1]Sheet 1'!$F$280+'[1]Sheet 1'!$F$281+'[1]Sheet 1'!$F$282+'[1]Sheet 1'!$F$283+'[1]Sheet 1'!$F$289</f>
+        <v>11.56</v>
+      </c>
+      <c r="K13" s="116">
+        <v>0</v>
+      </c>
+      <c r="L13" s="117">
+        <v>0</v>
+      </c>
+      <c r="M13" s="118">
+        <v>0</v>
+      </c>
+      <c r="N13" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O13" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P13" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q13" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R13" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S13" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T13" s="116">
+        <v>1</v>
+      </c>
+      <c r="U13" s="117">
+        <v>1</v>
+      </c>
+      <c r="V13" s="118">
+        <v>1</v>
+      </c>
+      <c r="W13" s="110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="111">
+        <f t="shared" si="2"/>
+        <v>3.9899999999999998</v>
+      </c>
+      <c r="Y13" s="112">
+        <f t="shared" si="3"/>
+        <v>57.832479999999997</v>
+      </c>
+      <c r="Z13" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="115">
+        <f t="shared" si="6"/>
+        <v>4.2772000000000006</v>
+      </c>
+      <c r="AC13" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG13" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH13" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI13" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK13" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL13" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" s="126">
+        <v>-3.4291333329999998</v>
+      </c>
+      <c r="B14" s="126">
+        <v>114.7738222</v>
+      </c>
+      <c r="C14" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="119" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="110">
+        <f>'[1]Sheet 1'!$F$156</f>
+        <v>2.4</v>
+      </c>
+      <c r="F14" s="111">
+        <f>'[1]Sheet 1'!$F$138+'[1]Sheet 1'!$F$163+'[1]Sheet 1'!$F$164</f>
+        <v>103.2</v>
+      </c>
+      <c r="G14" s="112">
+        <v>0</v>
+      </c>
+      <c r="H14" s="113">
+        <v>0</v>
+      </c>
+      <c r="I14" s="114">
+        <f>'[1]Sheet 1'!$F$141</f>
+        <v>30</v>
+      </c>
+      <c r="J14" s="115">
+        <f>'[1]Sheet 1'!$F$139+'[1]Sheet 1'!$F$140+'[1]Sheet 1'!$F$173+'[1]Sheet 1'!$F$174+'[1]Sheet 1'!$F$175+'[1]Sheet 1'!$F$176+'[1]Sheet 1'!$F$178</f>
+        <v>97.710000000000008</v>
+      </c>
+      <c r="K14" s="116">
+        <v>0</v>
+      </c>
+      <c r="L14" s="117">
+        <v>0</v>
+      </c>
+      <c r="M14" s="118">
+        <v>0</v>
+      </c>
+      <c r="N14" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O14" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P14" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q14" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R14" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S14" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T14" s="116">
+        <v>1</v>
+      </c>
+      <c r="U14" s="117">
+        <v>1</v>
+      </c>
+      <c r="V14" s="118">
+        <v>1</v>
+      </c>
+      <c r="W14" s="110">
+        <f t="shared" si="1"/>
+        <v>0.84</v>
+      </c>
+      <c r="X14" s="111">
+        <f t="shared" si="2"/>
+        <v>58.823999999999998</v>
+      </c>
+      <c r="Y14" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="114">
+        <f t="shared" si="5"/>
+        <v>28.5</v>
+      </c>
+      <c r="AB14" s="115">
+        <f t="shared" si="6"/>
+        <v>36.152700000000003</v>
+      </c>
+      <c r="AC14" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG14" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH14" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI14" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK14" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL14" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" s="126">
+        <v>-2.26065</v>
+      </c>
+      <c r="B15" s="126">
+        <v>115.26295</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="110">
+        <v>0</v>
+      </c>
+      <c r="F15" s="111">
+        <f>'[1]Sheet 1'!$F$151+'[1]Sheet 1'!$F$152+'[1]Sheet 1'!$F$153</f>
+        <v>290</v>
+      </c>
+      <c r="G15" s="112">
+        <v>0</v>
+      </c>
+      <c r="H15" s="113">
+        <v>0</v>
+      </c>
+      <c r="I15" s="114">
+        <v>0</v>
+      </c>
+      <c r="J15" s="115">
+        <f>'[1]Sheet 1'!$F$149+'[1]Sheet 1'!$F$150+'[1]Sheet 1'!$F$154+'[1]Sheet 1'!$F$165+'[1]Sheet 1'!$F$167+'[1]Sheet 1'!$F$169+'[1]Sheet 1'!$F$171+'[1]Sheet 1'!$F$180+'[1]Sheet 1'!$F$181+'[1]Sheet 1'!$F$158+'[1]Sheet 1'!$F$168</f>
+        <v>26.776</v>
+      </c>
+      <c r="K15" s="116">
+        <v>0</v>
+      </c>
+      <c r="L15" s="117">
+        <v>0</v>
+      </c>
+      <c r="M15" s="118">
+        <v>0</v>
+      </c>
+      <c r="N15" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O15" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P15" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q15" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R15" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S15" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T15" s="116">
+        <v>1</v>
+      </c>
+      <c r="U15" s="117">
+        <v>1</v>
+      </c>
+      <c r="V15" s="118">
+        <v>1</v>
+      </c>
+      <c r="W15" s="110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="111">
+        <f t="shared" si="2"/>
+        <v>165.29999999999998</v>
+      </c>
+      <c r="Y15" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="115">
+        <f t="shared" si="6"/>
+        <v>9.907119999999999</v>
+      </c>
+      <c r="AC15" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG15" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH15" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI15" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK15" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL15" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A16" s="126">
+        <v>-3.5974499999999998</v>
+      </c>
+      <c r="B16" s="126">
+        <v>115.7526</v>
+      </c>
+      <c r="C16" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="110">
+        <v>0</v>
+      </c>
+      <c r="F16" s="111">
+        <f>'[1]Sheet 1'!$F$143+'[1]Sheet 1'!$F$144+'[1]Sheet 1'!$F$145+'[1]Sheet 1'!$F$146+'[1]Sheet 1'!$F$160+'[1]Sheet 1'!$F$155</f>
+        <v>281</v>
+      </c>
+      <c r="G16" s="112">
+        <v>0</v>
+      </c>
+      <c r="H16" s="113">
+        <v>0</v>
+      </c>
+      <c r="I16" s="114">
+        <v>0</v>
+      </c>
+      <c r="J16" s="115">
+        <f>'[1]Sheet 1'!$F$142+'[1]Sheet 1'!$F$147+'[1]Sheet 1'!$F$148+'[1]Sheet 1'!$F$157+'[1]Sheet 1'!$F$159+'[1]Sheet 1'!$F$161+'[1]Sheet 1'!$F$162+'[1]Sheet 1'!$F$166+'[1]Sheet 1'!$F$170+'[1]Sheet 1'!$F$172+'[1]Sheet 1'!$F$177+'[1]Sheet 1'!$F$179</f>
+        <v>18.670000000000002</v>
+      </c>
+      <c r="K16" s="116">
+        <v>0</v>
+      </c>
+      <c r="L16" s="117">
+        <v>0</v>
+      </c>
+      <c r="M16" s="118">
+        <v>0</v>
+      </c>
+      <c r="N16" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O16" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P16" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q16" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R16" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S16" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T16" s="116">
+        <v>1</v>
+      </c>
+      <c r="U16" s="117">
+        <v>1</v>
+      </c>
+      <c r="V16" s="118">
+        <v>1</v>
+      </c>
+      <c r="W16" s="110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="111">
+        <f t="shared" si="2"/>
+        <v>160.16999999999999</v>
+      </c>
+      <c r="Y16" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="115">
+        <f t="shared" si="6"/>
+        <v>6.9079000000000006</v>
+      </c>
+      <c r="AC16" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG16" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH16" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI16" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK16" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL16" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A17" s="126">
+        <v>-1.761425</v>
+      </c>
+      <c r="B17" s="126">
+        <v>116.11315</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="110">
+        <v>0</v>
+      </c>
+      <c r="F17" s="111">
+        <v>0</v>
+      </c>
+      <c r="G17" s="112">
+        <v>0</v>
+      </c>
+      <c r="H17" s="113">
+        <v>0</v>
+      </c>
+      <c r="I17" s="114">
+        <v>0</v>
+      </c>
+      <c r="J17" s="115">
+        <f>'[1]Sheet 1'!$F$290+'[1]Sheet 1'!$F$291+'[1]Sheet 1'!$F$292+'[1]Sheet 1'!$F$293+'[1]Sheet 1'!$F$294+'[1]Sheet 1'!$F$295+'[1]Sheet 1'!$F$296+'[1]Sheet 1'!$F$297+'[1]Sheet 1'!$F$298+'[1]Sheet 1'!$F$299+'[1]Sheet 1'!$F$300+'[1]Sheet 1'!$F$301+'[1]Sheet 1'!$F$302+'[1]Sheet 1'!$F$303+'[1]Sheet 1'!$F$304</f>
+        <v>22.73</v>
+      </c>
+      <c r="K17" s="116">
+        <v>0</v>
+      </c>
+      <c r="L17" s="117">
+        <v>0</v>
+      </c>
+      <c r="M17" s="118">
+        <v>0</v>
+      </c>
+      <c r="N17" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O17" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P17" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q17" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R17" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S17" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T17" s="116">
+        <v>1</v>
+      </c>
+      <c r="U17" s="117">
+        <v>1</v>
+      </c>
+      <c r="V17" s="118">
+        <v>1</v>
+      </c>
+      <c r="W17" s="110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="115">
+        <f t="shared" si="6"/>
+        <v>8.4100999999999999</v>
+      </c>
+      <c r="AC17" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG17" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH17" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI17" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK17" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL17" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A18" s="126">
+        <v>-1.190416667</v>
+      </c>
+      <c r="B18" s="126">
+        <v>116.87775000000001</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="110">
+        <v>0</v>
+      </c>
+      <c r="F18" s="111">
+        <f>'[1]Sheet 1'!$F$310+'[1]Sheet 1'!$F$311+'[1]Sheet 1'!$F$312+'[1]Sheet 1'!$F$313+'[1]Sheet 1'!$F$315</f>
+        <v>265</v>
+      </c>
+      <c r="G18" s="112">
+        <f>'[1]Sheet 1'!$F$305+'[1]Sheet 1'!$F$306+'[1]Sheet 1'!$F$307+'[1]Sheet 1'!$F$308+'[1]Sheet 1'!$F$330+'[1]Sheet 1'!$F$331+'[1]Sheet 1'!$F$332</f>
+        <v>125.55</v>
+      </c>
+      <c r="H18" s="113">
+        <v>0</v>
+      </c>
+      <c r="I18" s="114">
+        <v>0</v>
+      </c>
+      <c r="J18" s="115">
+        <f>'[1]Sheet 1'!$F$309+'[1]Sheet 1'!$F$314+'[1]Sheet 1'!$F$316+'[1]Sheet 1'!$F$317+'[1]Sheet 1'!$F$318+'[1]Sheet 1'!$F$319+'[1]Sheet 1'!$F$320+'[1]Sheet 1'!$F$321+'[1]Sheet 1'!$F$322+'[1]Sheet 1'!$F$323+'[1]Sheet 1'!$F$324+'[1]Sheet 1'!$F$325+'[1]Sheet 1'!$F$326+'[1]Sheet 1'!$F$327+'[1]Sheet 1'!$F$328+'[1]Sheet 1'!$F$329</f>
+        <v>117.694</v>
+      </c>
+      <c r="K18" s="116">
+        <v>0</v>
+      </c>
+      <c r="L18" s="117">
+        <v>0</v>
+      </c>
+      <c r="M18" s="118">
+        <v>0</v>
+      </c>
+      <c r="N18" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O18" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P18" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q18" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R18" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S18" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T18" s="116">
+        <v>1</v>
+      </c>
+      <c r="U18" s="117">
+        <v>1</v>
+      </c>
+      <c r="V18" s="118">
+        <v>1</v>
+      </c>
+      <c r="W18" s="110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="111">
+        <f t="shared" si="2"/>
+        <v>151.04999999999998</v>
+      </c>
+      <c r="Y18" s="112">
+        <f t="shared" si="3"/>
+        <v>46.453499999999998</v>
+      </c>
+      <c r="Z18" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="115">
+        <f t="shared" si="6"/>
+        <v>43.546779999999998</v>
+      </c>
+      <c r="AC18" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG18" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH18" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI18" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK18" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL18" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A19" s="126">
+        <v>-0.48473333299999999</v>
+      </c>
+      <c r="B19" s="126">
+        <v>117.0814444</v>
+      </c>
+      <c r="C19" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="110">
+        <f>'[1]Sheet 1'!$F$354</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="111">
+        <f>'[1]Sheet 1'!$F$333+'[1]Sheet 1'!$F$334+'[1]Sheet 1'!$F$341+'[1]Sheet 1'!$F$342+'[1]Sheet 1'!$F$343+'[1]Sheet 1'!$F$344+'[1]Sheet 1'!$F$345+'[1]Sheet 1'!$F$346+'[1]Sheet 1'!$F$363+'[1]Sheet 1'!$F$364+'[1]Sheet 1'!$F$365</f>
+        <v>422.5</v>
+      </c>
+      <c r="G19" s="112">
+        <f>'[1]Sheet 1'!$F$340</f>
+        <v>9.6</v>
+      </c>
+      <c r="H19" s="113">
+        <v>0</v>
+      </c>
+      <c r="I19" s="114">
+        <v>0</v>
+      </c>
+      <c r="J19" s="115">
+        <f>'[1]Sheet 1'!$F$335+'[1]Sheet 1'!$F$336+'[1]Sheet 1'!$F$337+'[1]Sheet 1'!$F$338+'[1]Sheet 1'!$F$339+'[1]Sheet 1'!$F$347+'[1]Sheet 1'!$F$348+'[1]Sheet 1'!$F$349+'[1]Sheet 1'!$F$350+'[1]Sheet 1'!$F$351+'[1]Sheet 1'!$F$352+'[1]Sheet 1'!$F$353+'[1]Sheet 1'!$F$355+'[1]Sheet 1'!$F$356+'[1]Sheet 1'!$F$357+'[1]Sheet 1'!$F$358+'[1]Sheet 1'!$F$359+'[1]Sheet 1'!$F$360+'[1]Sheet 1'!$F$361+'[1]Sheet 1'!$F$362+'[1]Sheet 1'!$F$366+'[1]Sheet 1'!$F$367+'[1]Sheet 1'!$F$368+'[1]Sheet 1'!$F$369</f>
+        <v>398.80600000000004</v>
+      </c>
+      <c r="K19" s="116">
+        <v>0</v>
+      </c>
+      <c r="L19" s="117">
+        <v>0</v>
+      </c>
+      <c r="M19" s="118">
+        <v>0</v>
+      </c>
+      <c r="N19" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O19" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P19" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q19" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R19" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S19" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T19" s="116">
+        <v>1</v>
+      </c>
+      <c r="U19" s="117">
+        <v>1</v>
+      </c>
+      <c r="V19" s="118">
+        <v>1</v>
+      </c>
+      <c r="W19" s="110">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="X19" s="111">
+        <f t="shared" si="2"/>
+        <v>240.82499999999999</v>
+      </c>
+      <c r="Y19" s="112">
+        <f t="shared" si="3"/>
+        <v>3.552</v>
+      </c>
+      <c r="Z19" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="115">
+        <f t="shared" si="6"/>
+        <v>147.55822000000001</v>
+      </c>
+      <c r="AC19" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG19" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH19" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI19" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK19" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL19" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A20" s="126">
+        <v>0.31574999999999998</v>
+      </c>
+      <c r="B20" s="126">
+        <v>117.50215</v>
+      </c>
+      <c r="C20" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="110">
+        <v>0</v>
+      </c>
+      <c r="F20" s="111">
+        <f>'[1]Sheet 1'!$F$370+'[1]Sheet 1'!$F$371+'[1]Sheet 1'!$F$380+'[1]Sheet 1'!$F$385+'[1]Sheet 1'!$F$386</f>
+        <v>277.63</v>
+      </c>
+      <c r="G20" s="112">
+        <f>'[1]Sheet 1'!$F$372+'[1]Sheet 1'!$F$373+'[1]Sheet 1'!$F$374+'[1]Sheet 1'!$F$375+'[1]Sheet 1'!$F$376+'[1]Sheet 1'!$F$377+'[1]Sheet 1'!$F$379</f>
+        <v>61.06</v>
+      </c>
+      <c r="H20" s="113">
+        <v>0</v>
+      </c>
+      <c r="I20" s="114">
+        <v>0</v>
+      </c>
+      <c r="J20" s="115">
+        <f>'[1]Sheet 1'!$F$378+'[1]Sheet 1'!$F$381+'[1]Sheet 1'!$F$382+'[1]Sheet 1'!$F$383+'[1]Sheet 1'!$F$384</f>
+        <v>35.119999999999997</v>
+      </c>
+      <c r="K20" s="116">
+        <v>0</v>
+      </c>
+      <c r="L20" s="117">
+        <v>0</v>
+      </c>
+      <c r="M20" s="118">
+        <v>0</v>
+      </c>
+      <c r="N20" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O20" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P20" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q20" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R20" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S20" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T20" s="116">
+        <v>1</v>
+      </c>
+      <c r="U20" s="117">
+        <v>1</v>
+      </c>
+      <c r="V20" s="118">
+        <v>1</v>
+      </c>
+      <c r="W20" s="110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="111">
+        <f t="shared" si="2"/>
+        <v>158.24909999999997</v>
+      </c>
+      <c r="Y20" s="112">
+        <f t="shared" si="3"/>
+        <v>22.592200000000002</v>
+      </c>
+      <c r="Z20" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="115">
+        <f t="shared" si="6"/>
+        <v>12.994399999999999</v>
+      </c>
+      <c r="AC20" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG20" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH20" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI20" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK20" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL20" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A21" s="126">
+        <v>1.0532999999999999</v>
+      </c>
+      <c r="B21" s="126">
+        <v>116.92149999999999</v>
+      </c>
+      <c r="C21" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="110">
+        <f>'[1]Sheet 1'!$F$395+'[1]Sheet 1'!$F$401+'[1]Sheet 1'!$F$409</f>
+        <v>0.81</v>
+      </c>
+      <c r="F21" s="111">
+        <f>+'[1]Sheet 1'!$F$388+'[1]Sheet 1'!$F$405</f>
+        <v>39</v>
+      </c>
+      <c r="G21" s="112">
+        <v>0</v>
+      </c>
+      <c r="H21" s="113">
+        <v>0</v>
+      </c>
+      <c r="I21" s="114">
+        <v>0</v>
+      </c>
+      <c r="J21" s="115">
+        <f>'[1]Sheet 1'!$F$387+'[1]Sheet 1'!$F$389+'[1]Sheet 1'!$F$390+'[1]Sheet 1'!$F$391+'[1]Sheet 1'!$F$392+'[1]Sheet 1'!$F$393+'[1]Sheet 1'!$F$394+'[1]Sheet 1'!$F$396+'[1]Sheet 1'!$F$397+'[1]Sheet 1'!$F$398+'[1]Sheet 1'!$F$399+'[1]Sheet 1'!$F$400+'[1]Sheet 1'!$F$402+'[1]Sheet 1'!$F$403+'[1]Sheet 1'!$F$404+'[1]Sheet 1'!$F$406+'[1]Sheet 1'!$F$407+'[1]Sheet 1'!$F$408</f>
+        <v>38.461000000000006</v>
+      </c>
+      <c r="K21" s="116">
+        <v>0</v>
+      </c>
+      <c r="L21" s="117">
+        <v>0</v>
+      </c>
+      <c r="M21" s="118">
+        <v>0</v>
+      </c>
+      <c r="N21" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O21" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P21" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q21" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R21" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S21" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T21" s="116">
+        <v>1</v>
+      </c>
+      <c r="U21" s="117">
+        <v>1</v>
+      </c>
+      <c r="V21" s="118">
+        <v>1</v>
+      </c>
+      <c r="W21" s="110">
+        <f t="shared" si="1"/>
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="X21" s="111">
+        <f t="shared" si="2"/>
+        <v>22.229999999999997</v>
+      </c>
+      <c r="Y21" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="115">
+        <f t="shared" si="6"/>
+        <v>14.230570000000002</v>
+      </c>
+      <c r="AC21" s="116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG21" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH21" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI21" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK21" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL21" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A22" s="126">
+        <v>3.2987666670000002</v>
+      </c>
+      <c r="B22" s="126">
+        <v>116.9458333</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="110">
+        <v>0</v>
+      </c>
+      <c r="F22" s="111">
+        <f>'[1]Sheet 1'!$F$438+'[1]Sheet 1'!$F$451</f>
+        <v>14.5</v>
+      </c>
+      <c r="G22" s="112">
+        <f>'[1]Sheet 1'!$F$433+'[1]Sheet 1'!$F$434+'[1]Sheet 1'!$F$444+'[1]Sheet 1'!$F$445+'[1]Sheet 1'!$F$446+'[1]Sheet 1'!$F$447+'[1]Sheet 1'!$F$448+'[1]Sheet 1'!$F$439+'[1]Sheet 1'!$F$449+'[1]Sheet 1'!$F$450+'[1]Sheet 1'!$F$454+'[1]Sheet 1'!$F$455+'[1]Sheet 1'!$F$456+'[1]Sheet 1'!$F$457+'[1]Sheet 1'!$F$458+'[1]Sheet 1'!$F$459+'[1]Sheet 1'!$F$462</f>
+        <v>123.72399999999999</v>
+      </c>
+      <c r="H22" s="113">
+        <v>0</v>
+      </c>
+      <c r="I22" s="114">
+        <f>'[1]Sheet 1'!$F$412+'[1]Sheet 1'!$F$413</f>
+        <v>0.24</v>
+      </c>
+      <c r="J22" s="115">
+        <f>'[1]Sheet 1'!$F$410+'[1]Sheet 1'!$F$411+'[1]Sheet 1'!$F$414+'[1]Sheet 1'!$F$415+'[1]Sheet 1'!$F$416+'[1]Sheet 1'!$F$418+'[1]Sheet 1'!$F$419+'[1]Sheet 1'!$F$420+'[1]Sheet 1'!$F$421+'[1]Sheet 1'!$F$422+'[1]Sheet 1'!$F$423+'[1]Sheet 1'!$F$424+'[1]Sheet 1'!$F$426+'[1]Sheet 1'!$F$428+'[1]Sheet 1'!$F$429+'[1]Sheet 1'!$F$430+'[1]Sheet 1'!$F$431+'[1]Sheet 1'!$F$435+'[1]Sheet 1'!$F$436+'[1]Sheet 1'!$F$437+'[1]Sheet 1'!$F$440+'[1]Sheet 1'!$F$442+'[1]Sheet 1'!$F$443+'[1]Sheet 1'!$F$452+'[1]Sheet 1'!$F$453+'[1]Sheet 1'!$F$461+'[1]Sheet 1'!$F$463</f>
+        <v>122.749</v>
+      </c>
+      <c r="K22" s="116">
+        <f>'[1]Sheet 1'!$F$417+'[1]Sheet 1'!$F$425+'[1]Sheet 1'!$F$427+'[1]Sheet 1'!$F$432+'[1]Sheet 1'!$F$441+'[1]Sheet 1'!$F$460+'[1]Sheet 1'!$F$464</f>
+        <v>1.04</v>
+      </c>
+      <c r="L22" s="117">
+        <v>0</v>
+      </c>
+      <c r="M22" s="118">
+        <v>0</v>
+      </c>
+      <c r="N22" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="O22" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P22" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="Q22" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="R22" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="S22" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="T22" s="116">
+        <v>1</v>
+      </c>
+      <c r="U22" s="117">
+        <v>1</v>
+      </c>
+      <c r="V22" s="118">
+        <v>1</v>
+      </c>
+      <c r="W22" s="110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="111">
+        <f t="shared" si="2"/>
+        <v>8.2649999999999988</v>
+      </c>
+      <c r="Y22" s="112">
+        <f t="shared" si="3"/>
+        <v>45.777879999999996</v>
+      </c>
+      <c r="Z22" s="113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="114">
+        <f t="shared" si="5"/>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="AB22" s="115">
+        <f t="shared" si="6"/>
+        <v>45.41713</v>
+      </c>
+      <c r="AC22" s="116">
+        <f t="shared" si="7"/>
+        <v>1.04</v>
+      </c>
+      <c r="AD22" s="117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AG22" s="111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH22" s="112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI22" s="113">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="AK22" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="AL22" s="116">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="117">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C23" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="125">
+        <f>SUM(E23:M23)</f>
+        <v>4735.4920000000002</v>
+      </c>
+      <c r="E23" s="123">
+        <f>SUM(E3:E22)</f>
+        <v>41.11</v>
+      </c>
+      <c r="F23" s="123">
+        <f t="shared" ref="F23:M23" si="10">SUM(F3:F22)</f>
+        <v>2485.8980000000001</v>
+      </c>
+      <c r="G23" s="123">
+        <f t="shared" si="10"/>
+        <v>510.238</v>
+      </c>
+      <c r="H23" s="123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="123">
+        <f t="shared" si="10"/>
+        <v>124.505</v>
+      </c>
+      <c r="J23" s="123">
+        <f t="shared" si="10"/>
+        <v>1572.5209999999997</v>
+      </c>
+      <c r="K23" s="123">
+        <f t="shared" si="10"/>
+        <v>1.22</v>
+      </c>
+      <c r="L23" s="123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="127">
+        <f>SUM(W3:W22)</f>
+        <v>14.388499999999997</v>
+      </c>
+      <c r="X23" s="127">
+        <f t="shared" ref="X23:AE23" si="11">SUM(X3:X22)</f>
+        <v>1416.9618599999999</v>
+      </c>
+      <c r="Y23" s="127">
+        <f t="shared" si="11"/>
+        <v>188.78806000000003</v>
+      </c>
+      <c r="Z23" s="127">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="127">
+        <f t="shared" si="11"/>
+        <v>118.27974999999999</v>
+      </c>
+      <c r="AB23" s="127">
+        <f t="shared" si="11"/>
+        <v>581.8327700000001</v>
+      </c>
+      <c r="AC23" s="127">
+        <f t="shared" si="11"/>
+        <v>1.22</v>
+      </c>
+      <c r="AD23" s="127">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="127">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D24" s="141">
+        <f>SUM(W23:AE23)</f>
+        <v>2321.4709399999997</v>
+      </c>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="123"/>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="123"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="123"/>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E46" s="123"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="123"/>
+      <c r="M46" s="123"/>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="123"/>
+      <c r="L47" s="123"/>
+      <c r="M47" s="123"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:AE1"/>
+    <mergeCell ref="AF1:AN1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A63535-D95A-4D36-8C1E-9289FDA2D070}">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="N21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V29" sqref="V29"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2379,223 +6437,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
+      <c r="E1" s="130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
     </row>
     <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="K2" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="N2" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="U2" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="78" t="s">
+      <c r="AA2" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="74" t="s">
+      <c r="AE2" s="80" t="s">
         <v>9</v>
-      </c>
-      <c r="O2" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" s="83" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="26">
-        <v>1</v>
-      </c>
-      <c r="E3" s="86">
+      <c r="D3" s="132">
+        <v>1</v>
+      </c>
+      <c r="E3" s="83">
         <f>'[1]Sheet 1'!$F$16</f>
         <v>10</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <f>'[1]Sheet 1'!$F$3+'[1]Sheet 1'!$F$4+'[1]Sheet 1'!$F$5+'[1]Sheet 1'!$F$6</f>
         <v>360</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30">
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29">
         <f>'[1]Sheet 1'!$F$31+'[1]Sheet 1'!$F$32+'[1]Sheet 1'!$F$34+'[1]Sheet 1'!$F$55+'[1]Sheet 1'!$F$111</f>
         <v>3.9650000000000003</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="30">
         <f>'[1]Sheet 1'!$F$2+'[1]Sheet 1'!$F$7+'[1]Sheet 1'!$F$8+'[1]Sheet 1'!$F$9+'[1]Sheet 1'!$F$10+'[1]Sheet 1'!$F$11+'[1]Sheet 1'!$F$12+'[1]Sheet 1'!$F$13+'[1]Sheet 1'!$F$14+'[1]Sheet 1'!$F$15+'[1]Sheet 1'!$F$17+'[1]Sheet 1'!$F$27+'[1]Sheet 1'!$F$28+'[1]Sheet 1'!$F$30+'[1]Sheet 1'!$F$37+'[1]Sheet 1'!$F$38</f>
         <v>166.84299999999999</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="94">
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="91">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="33">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q3" s="34">
-        <v>1</v>
-      </c>
-      <c r="R3" s="34">
+      <c r="Q3" s="33">
+        <v>1</v>
+      </c>
+      <c r="R3" s="33">
         <v>0.33</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="33">
         <v>0.25</v>
       </c>
-      <c r="T3" s="34">
-        <v>1</v>
-      </c>
-      <c r="U3" s="34">
-        <v>1</v>
-      </c>
-      <c r="V3" s="73">
-        <v>1</v>
-      </c>
-      <c r="W3" s="35">
+      <c r="T3" s="33">
+        <v>1</v>
+      </c>
+      <c r="U3" s="33">
+        <v>1</v>
+      </c>
+      <c r="V3" s="70">
+        <v>1</v>
+      </c>
+      <c r="W3" s="34">
         <f>E3*N3</f>
         <v>2.9</v>
       </c>
-      <c r="X3" s="35">
+      <c r="X3" s="34">
         <f t="shared" ref="X3:AE3" si="0">F3*O3</f>
         <v>104.39999999999999</v>
       </c>
-      <c r="Y3" s="35">
+      <c r="Y3" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="Z3" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="35">
+      <c r="AA3" s="34">
         <f t="shared" si="0"/>
         <v>1.3084500000000001</v>
       </c>
-      <c r="AB3" s="35">
+      <c r="AB3" s="34">
         <f t="shared" si="0"/>
         <v>41.710749999999997</v>
       </c>
-      <c r="AC3" s="35">
+      <c r="AC3" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD3" s="35">
+      <c r="AD3" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE3" s="36">
+      <c r="AE3" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2604,287 +6662,287 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="47"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="45"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="47"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="45"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="47"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="45"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="47"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="45"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="47"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="45"/>
     </row>
     <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="3">
         <v>11</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="58"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="55"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="132">
         <v>2</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="83">
         <f>'[1]Sheet 1'!$F$44</f>
         <v>3.5</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <f>'[1]Sheet 1'!$F$39+'[1]Sheet 1'!$F$40+'[1]Sheet 1'!$F$42+'[1]Sheet 1'!$F$43+'[1]Sheet 1'!$F$61+'[1]Sheet 1'!$F$62+'[1]Sheet 1'!$F$89+'[1]Sheet 1'!$F$90+'[1]Sheet 1'!$F$91</f>
         <v>76</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30">
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29">
         <f>'[1]Sheet 1'!$F$54+'[1]Sheet 1'!$F$81+'[1]Sheet 1'!$F$109</f>
         <v>90.3</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="30">
         <v>168.04699999999997</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="94">
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="91">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="33">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q10" s="34">
-        <v>1</v>
-      </c>
-      <c r="R10" s="34">
+      <c r="Q10" s="33">
+        <v>1</v>
+      </c>
+      <c r="R10" s="33">
         <v>0.33</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="33">
         <v>0.25</v>
       </c>
-      <c r="T10" s="34">
-        <v>1</v>
-      </c>
-      <c r="U10" s="34">
-        <v>1</v>
-      </c>
-      <c r="V10" s="73">
-        <v>1</v>
-      </c>
-      <c r="W10" s="35">
+      <c r="T10" s="33">
+        <v>1</v>
+      </c>
+      <c r="U10" s="33">
+        <v>1</v>
+      </c>
+      <c r="V10" s="70">
+        <v>1</v>
+      </c>
+      <c r="W10" s="34">
         <f t="shared" ref="W10:W12" si="1">E10*N10</f>
         <v>1.0149999999999999</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10" s="34">
         <f t="shared" ref="X10:X12" si="2">F10*O10</f>
         <v>22.04</v>
       </c>
-      <c r="Y10" s="35">
+      <c r="Y10" s="34">
         <f t="shared" ref="Y10:Y12" si="3">G10*P10</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="35">
+      <c r="Z10" s="34">
         <f t="shared" ref="Z10:Z12" si="4">H10*Q10</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="35">
+      <c r="AA10" s="34">
         <f t="shared" ref="AA10:AA12" si="5">I10*R10</f>
         <v>29.798999999999999</v>
       </c>
-      <c r="AB10" s="35">
+      <c r="AB10" s="34">
         <f t="shared" ref="AB10:AB12" si="6">J10*S10</f>
         <v>42.011749999999992</v>
       </c>
-      <c r="AC10" s="35">
+      <c r="AC10" s="34">
         <f t="shared" ref="AC10:AC12" si="7">K10*T10</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="35">
+      <c r="AD10" s="34">
         <f t="shared" ref="AD10:AD12" si="8">L10*U10</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="36">
+      <c r="AE10" s="35">
         <f t="shared" ref="AE10:AE12" si="9">M10*V10</f>
         <v>0</v>
       </c>
@@ -2893,122 +6951,122 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="58"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="55"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="132">
         <v>3</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="83">
         <f>'[1]Sheet 1'!$F$25</f>
         <v>5</v>
       </c>
-      <c r="F12" s="27">
-        <v>0</v>
-      </c>
-      <c r="G12" s="28">
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
         <f>'[1]Sheet 1'!$F$19</f>
         <v>34</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31">
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30">
         <f>'[1]Sheet 1'!$F$18+'[1]Sheet 1'!$F$20+'[1]Sheet 1'!$F$21+'[1]Sheet 1'!$F$22+'[1]Sheet 1'!$F$23+'[1]Sheet 1'!$F$24+'[1]Sheet 1'!$F$26</f>
         <v>166.49600000000001</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="94">
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="91">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="33">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q12" s="34">
-        <v>1</v>
-      </c>
-      <c r="R12" s="34">
+      <c r="Q12" s="33">
+        <v>1</v>
+      </c>
+      <c r="R12" s="33">
         <v>0.33</v>
       </c>
-      <c r="S12" s="34">
+      <c r="S12" s="33">
         <v>0.25</v>
       </c>
-      <c r="T12" s="34">
-        <v>1</v>
-      </c>
-      <c r="U12" s="34">
-        <v>1</v>
-      </c>
-      <c r="V12" s="73">
-        <v>1</v>
-      </c>
-      <c r="W12" s="35">
+      <c r="T12" s="33">
+        <v>1</v>
+      </c>
+      <c r="U12" s="33">
+        <v>1</v>
+      </c>
+      <c r="V12" s="70">
+        <v>1</v>
+      </c>
+      <c r="W12" s="34">
         <f t="shared" si="1"/>
         <v>1.45</v>
       </c>
-      <c r="X12" s="35">
+      <c r="X12" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="35">
+      <c r="Y12" s="34">
         <f t="shared" si="3"/>
         <v>19.040000000000003</v>
       </c>
-      <c r="Z12" s="35">
+      <c r="Z12" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="35">
+      <c r="AA12" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="35">
+      <c r="AB12" s="34">
         <f t="shared" si="6"/>
         <v>41.624000000000002</v>
       </c>
-      <c r="AC12" s="35">
+      <c r="AC12" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="35">
+      <c r="AD12" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="36">
+      <c r="AE12" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -3017,67 +7075,67 @@
       <c r="C13" s="1">
         <v>7</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="59"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="56"/>
     </row>
     <row r="14" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="60"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="57"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -3089,86 +7147,86 @@
       <c r="C15" s="6">
         <v>13</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="132">
         <v>4</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="83">
         <f>'[1]Sheet 1'!$F$208+'[1]Sheet 1'!$F$211+'[1]Sheet 1'!$F$217+'[1]Sheet 1'!$F$218+'[1]Sheet 1'!$F$230</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <f>'[1]Sheet 1'!$F$201</f>
-        <v>14</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30">
         <v>96.453999999999994</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="94">
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="91">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="33">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q15" s="34">
-        <v>1</v>
-      </c>
-      <c r="R15" s="34">
+      <c r="Q15" s="33">
+        <v>1</v>
+      </c>
+      <c r="R15" s="33">
         <v>0.33</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="33">
         <v>0.25</v>
       </c>
-      <c r="T15" s="34">
-        <v>1</v>
-      </c>
-      <c r="U15" s="34">
-        <v>1</v>
-      </c>
-      <c r="V15" s="73">
-        <v>1</v>
-      </c>
-      <c r="W15" s="35">
+      <c r="T15" s="33">
+        <v>1</v>
+      </c>
+      <c r="U15" s="33">
+        <v>1</v>
+      </c>
+      <c r="V15" s="70">
+        <v>1</v>
+      </c>
+      <c r="W15" s="34">
         <f t="shared" ref="W15" si="10">E15*N15</f>
         <v>5.0459999999999994</v>
       </c>
-      <c r="X15" s="35">
+      <c r="X15" s="34">
         <f t="shared" ref="X15" si="11">F15*O15</f>
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="Y15" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="34">
         <f t="shared" ref="Y15" si="12">G15*P15</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="35">
+      <c r="Z15" s="34">
         <f t="shared" ref="Z15" si="13">H15*Q15</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="35">
+      <c r="AA15" s="34">
         <f t="shared" ref="AA15" si="14">I15*R15</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="35">
+      <c r="AB15" s="34">
         <f t="shared" ref="AB15" si="15">J15*S15</f>
         <v>24.113499999999998</v>
       </c>
-      <c r="AC15" s="35">
+      <c r="AC15" s="34">
         <f t="shared" ref="AC15" si="16">K15*T15</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="35">
+      <c r="AD15" s="34">
         <f t="shared" ref="AD15" si="17">L15*U15</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="36">
+      <c r="AE15" s="35">
         <f t="shared" ref="AE15" si="18">M15*V15</f>
         <v>0</v>
       </c>
@@ -3177,67 +7235,67 @@
       <c r="C16" s="6">
         <v>14</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="59"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="56"/>
     </row>
     <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="6">
         <v>15</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="60"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="57"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -3249,83 +7307,83 @@
       <c r="C18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="132">
         <v>5</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="27">
+      <c r="E18" s="83"/>
+      <c r="F18" s="26">
         <f>'[1]Sheet 1'!$F$241+'[1]Sheet 1'!$F$242+'[1]Sheet 1'!$F$257+'[1]Sheet 1'!$F$258</f>
         <v>350.06799999999998</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31">
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30">
         <v>84.405000000000015</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="94">
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="91">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="33">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q18" s="34">
-        <v>1</v>
-      </c>
-      <c r="R18" s="34">
+      <c r="Q18" s="33">
+        <v>1</v>
+      </c>
+      <c r="R18" s="33">
         <v>0.33</v>
       </c>
-      <c r="S18" s="34">
+      <c r="S18" s="33">
         <v>0.25</v>
       </c>
-      <c r="T18" s="34">
-        <v>1</v>
-      </c>
-      <c r="U18" s="34">
-        <v>1</v>
-      </c>
-      <c r="V18" s="73">
-        <v>1</v>
-      </c>
-      <c r="W18" s="35">
+      <c r="T18" s="33">
+        <v>1</v>
+      </c>
+      <c r="U18" s="33">
+        <v>1</v>
+      </c>
+      <c r="V18" s="70">
+        <v>1</v>
+      </c>
+      <c r="W18" s="34">
         <f t="shared" ref="W18" si="19">E18*N18</f>
         <v>0</v>
       </c>
-      <c r="X18" s="35">
+      <c r="X18" s="34">
         <f t="shared" ref="X18" si="20">F18*O18</f>
         <v>101.51971999999999</v>
       </c>
-      <c r="Y18" s="35">
+      <c r="Y18" s="34">
         <f t="shared" ref="Y18" si="21">G18*P18</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="35">
+      <c r="Z18" s="34">
         <f t="shared" ref="Z18" si="22">H18*Q18</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="35">
+      <c r="AA18" s="34">
         <f t="shared" ref="AA18" si="23">I18*R18</f>
         <v>0</v>
       </c>
-      <c r="AB18" s="35">
+      <c r="AB18" s="34">
         <f t="shared" ref="AB18" si="24">J18*S18</f>
         <v>21.101250000000004</v>
       </c>
-      <c r="AC18" s="35">
+      <c r="AC18" s="34">
         <f t="shared" ref="AC18" si="25">K18*T18</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="35">
+      <c r="AD18" s="34">
         <f t="shared" ref="AD18" si="26">L18*U18</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="36">
+      <c r="AE18" s="35">
         <f t="shared" ref="AE18" si="27">M18*V18</f>
         <v>0</v>
       </c>
@@ -3334,166 +7392,166 @@
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="59"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="56"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C20" s="7">
         <v>18</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="59"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="56"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C21" s="7">
         <v>19</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="59"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="56"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C22" s="7">
         <v>20</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="59"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="56"/>
     </row>
     <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="7">
         <v>21</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="60"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="57"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -3505,87 +7563,87 @@
       <c r="C24" s="8">
         <v>36</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="132">
         <v>7</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="27">
+      <c r="E24" s="83"/>
+      <c r="F24" s="26">
         <f>'[1]Sheet 1'!$F$284</f>
         <v>7</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <f>'[1]Sheet 1'!$F$285+'[1]Sheet 1'!$F$286+'[1]Sheet 1'!$F$287+'[1]Sheet 1'!$F$288</f>
         <v>156.304</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31">
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30">
         <f>'[1]Sheet 1'!$F$275+'[1]Sheet 1'!$F$279+'[1]Sheet 1'!$F$280+'[1]Sheet 1'!$F$281+'[1]Sheet 1'!$F$282+'[1]Sheet 1'!$F$283+'[1]Sheet 1'!$F$289</f>
         <v>11.56</v>
       </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="94">
+      <c r="K24" s="31"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="91">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O24" s="34">
+      <c r="O24" s="33">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P24" s="34">
+      <c r="P24" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q24" s="34">
-        <v>1</v>
-      </c>
-      <c r="R24" s="34">
+      <c r="Q24" s="33">
+        <v>1</v>
+      </c>
+      <c r="R24" s="33">
         <v>0.33</v>
       </c>
-      <c r="S24" s="34">
+      <c r="S24" s="33">
         <v>0.25</v>
       </c>
-      <c r="T24" s="34">
-        <v>1</v>
-      </c>
-      <c r="U24" s="34">
-        <v>1</v>
-      </c>
-      <c r="V24" s="73">
-        <v>1</v>
-      </c>
-      <c r="W24" s="35">
+      <c r="T24" s="33">
+        <v>1</v>
+      </c>
+      <c r="U24" s="33">
+        <v>1</v>
+      </c>
+      <c r="V24" s="70">
+        <v>1</v>
+      </c>
+      <c r="W24" s="34">
         <f t="shared" ref="W24" si="28">E24*N24</f>
         <v>0</v>
       </c>
-      <c r="X24" s="35">
+      <c r="X24" s="34">
         <f t="shared" ref="X24" si="29">F24*O24</f>
         <v>2.0299999999999998</v>
       </c>
-      <c r="Y24" s="35">
+      <c r="Y24" s="34">
         <f t="shared" ref="Y24" si="30">G24*P24</f>
         <v>87.530240000000006</v>
       </c>
-      <c r="Z24" s="35">
+      <c r="Z24" s="34">
         <f t="shared" ref="Z24" si="31">H24*Q24</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="35">
+      <c r="AA24" s="34">
         <f t="shared" ref="AA24" si="32">I24*R24</f>
         <v>0</v>
       </c>
-      <c r="AB24" s="35">
+      <c r="AB24" s="34">
         <f t="shared" ref="AB24" si="33">J24*S24</f>
         <v>2.89</v>
       </c>
-      <c r="AC24" s="35">
+      <c r="AC24" s="34">
         <f t="shared" ref="AC24" si="34">K24*T24</f>
         <v>0</v>
       </c>
-      <c r="AD24" s="35">
+      <c r="AD24" s="34">
         <f t="shared" ref="AD24" si="35">L24*U24</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="36">
+      <c r="AE24" s="35">
         <f t="shared" ref="AE24" si="36">M24*V24</f>
         <v>0</v>
       </c>
@@ -3594,155 +7652,155 @@
       <c r="C25" s="8">
         <v>37</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="59"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="56"/>
     </row>
     <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="8">
         <v>38</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="60"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="57"/>
     </row>
     <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="61">
+        <v>17</v>
+      </c>
+      <c r="D27" s="58">
         <v>6</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="89">
         <f>'[1]Sheet 1'!$F$156</f>
         <v>2.4</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="60">
         <f>'[1]Sheet 1'!$F$138+'[1]Sheet 1'!$F$143+'[1]Sheet 1'!$F$144+'[1]Sheet 1'!$F$145+'[1]Sheet 1'!$F$146+'[1]Sheet 1'!$F$151+'[1]Sheet 1'!$F$152+'[1]Sheet 1'!$F$153+'[1]Sheet 1'!$F$155+'[1]Sheet 1'!$F$160+'[1]Sheet 1'!$F$163+'[1]Sheet 1'!$F$164</f>
         <v>674.2</v>
       </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66">
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="63">
         <f>'[1]Sheet 1'!$F$141</f>
         <v>30</v>
       </c>
-      <c r="J27" s="67">
+      <c r="J27" s="64">
         <v>143.15600000000001</v>
       </c>
-      <c r="K27" s="68"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="94">
+      <c r="K27" s="65"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="91">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="33">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q27" s="34">
-        <v>1</v>
-      </c>
-      <c r="R27" s="34">
+      <c r="Q27" s="33">
+        <v>1</v>
+      </c>
+      <c r="R27" s="33">
         <v>0.33</v>
       </c>
-      <c r="S27" s="34">
+      <c r="S27" s="33">
         <v>0.25</v>
       </c>
-      <c r="T27" s="34">
-        <v>1</v>
-      </c>
-      <c r="U27" s="34">
-        <v>1</v>
-      </c>
-      <c r="V27" s="73">
-        <v>1</v>
-      </c>
-      <c r="W27" s="35">
+      <c r="T27" s="33">
+        <v>1</v>
+      </c>
+      <c r="U27" s="33">
+        <v>1</v>
+      </c>
+      <c r="V27" s="70">
+        <v>1</v>
+      </c>
+      <c r="W27" s="34">
         <f t="shared" ref="W27:W28" si="37">E27*N27</f>
         <v>0.69599999999999995</v>
       </c>
-      <c r="X27" s="35">
+      <c r="X27" s="34">
         <f t="shared" ref="X27:X28" si="38">F27*O27</f>
         <v>195.518</v>
       </c>
-      <c r="Y27" s="35">
+      <c r="Y27" s="34">
         <f t="shared" ref="Y27:Y28" si="39">G27*P27</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="35">
+      <c r="Z27" s="34">
         <f t="shared" ref="Z27:Z28" si="40">H27*Q27</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="35">
+      <c r="AA27" s="34">
         <f t="shared" ref="AA27:AA28" si="41">I27*R27</f>
         <v>9.9</v>
       </c>
-      <c r="AB27" s="35">
+      <c r="AB27" s="34">
         <f t="shared" ref="AB27:AB28" si="42">J27*S27</f>
         <v>35.789000000000001</v>
       </c>
-      <c r="AC27" s="35">
+      <c r="AC27" s="34">
         <f t="shared" ref="AC27:AC28" si="43">K27*T27</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="35">
+      <c r="AD27" s="34">
         <f t="shared" ref="AD27:AD28" si="44">L27*U27</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="36">
+      <c r="AE27" s="35">
         <f t="shared" ref="AE27:AE28" si="45">M27*V27</f>
         <v>0</v>
       </c>
@@ -3754,248 +7812,248 @@
       <c r="B28">
         <v>-1.3733555559999999</v>
       </c>
-      <c r="C28" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="26">
+      <c r="C28" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="132">
         <v>8</v>
       </c>
-      <c r="E28" s="86"/>
-      <c r="F28" s="27">
+      <c r="E28" s="83"/>
+      <c r="F28" s="26">
         <f>'[1]Sheet 1'!$F$310+'[1]Sheet 1'!$F$311+'[1]Sheet 1'!$F$312+'[1]Sheet 1'!$F$313+'[1]Sheet 1'!$F$315</f>
         <v>265</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <f>'[1]Sheet 1'!$F$305+'[1]Sheet 1'!$F$306+'[1]Sheet 1'!$F$307+'[1]Sheet 1'!$F$308</f>
         <v>4</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31">
+      <c r="H28" s="28"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30">
         <f>'[1]Sheet 1'!$F$290+'[1]Sheet 1'!$F$291+'[1]Sheet 1'!$F$292+'[1]Sheet 1'!$F$293+'[1]Sheet 1'!$F$294+'[1]Sheet 1'!$F$295+'[1]Sheet 1'!$F$296+'[1]Sheet 1'!$F$297+'[1]Sheet 1'!$F$298+'[1]Sheet 1'!$F$299+'[1]Sheet 1'!$F$300+'[1]Sheet 1'!$F$301+'[1]Sheet 1'!$F$302+'[1]Sheet 1'!$F$303+'[1]Sheet 1'!$F$304+'[1]Sheet 1'!$F$309+'[1]Sheet 1'!$F$314+'[1]Sheet 1'!$F$316+'[1]Sheet 1'!$F$317+'[1]Sheet 1'!$F$318+'[1]Sheet 1'!$F$319+'[1]Sheet 1'!$F$320+'[1]Sheet 1'!$F$321+'[1]Sheet 1'!$F$322+'[1]Sheet 1'!$F$323+'[1]Sheet 1'!$F$324+'[1]Sheet 1'!$F$325</f>
         <v>110.05</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="94">
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="91">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O28" s="33">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P28" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q28" s="34">
-        <v>1</v>
-      </c>
-      <c r="R28" s="34">
+      <c r="Q28" s="33">
+        <v>1</v>
+      </c>
+      <c r="R28" s="33">
         <v>0.33</v>
       </c>
-      <c r="S28" s="34">
+      <c r="S28" s="33">
         <v>0.25</v>
       </c>
-      <c r="T28" s="34">
-        <v>1</v>
-      </c>
-      <c r="U28" s="34">
-        <v>1</v>
-      </c>
-      <c r="V28" s="73">
-        <v>1</v>
-      </c>
-      <c r="W28" s="35">
+      <c r="T28" s="33">
+        <v>1</v>
+      </c>
+      <c r="U28" s="33">
+        <v>1</v>
+      </c>
+      <c r="V28" s="70">
+        <v>1</v>
+      </c>
+      <c r="W28" s="34">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X28" s="35">
+      <c r="X28" s="34">
         <f t="shared" si="38"/>
         <v>76.849999999999994</v>
       </c>
-      <c r="Y28" s="35">
+      <c r="Y28" s="34">
         <f t="shared" si="39"/>
         <v>2.2400000000000002</v>
       </c>
-      <c r="Z28" s="35">
+      <c r="Z28" s="34">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="35">
+      <c r="AA28" s="34">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="35">
+      <c r="AB28" s="34">
         <f t="shared" si="42"/>
         <v>27.512499999999999</v>
       </c>
-      <c r="AC28" s="35">
+      <c r="AC28" s="34">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="35">
+      <c r="AD28" s="34">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="36">
+      <c r="AE28" s="35">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C29" s="17"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="59"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="56"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C30" s="17"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="59"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="56"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C31" s="17"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="59"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="56"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C32" s="17"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="59"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="56"/>
     </row>
     <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="17"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="60"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="57"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -4004,339 +8062,339 @@
       <c r="B34">
         <v>-0.22314999999999999</v>
       </c>
-      <c r="C34" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="26">
+      <c r="C34" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="132">
         <v>9</v>
       </c>
-      <c r="E34" s="86">
+      <c r="E34" s="83">
         <f>'[1]Sheet 1'!$F$354+'[1]Sheet 1'!$F$395+'[1]Sheet 1'!$F$401+'[1]Sheet 1'!$F$409</f>
         <v>2.8100000000000005</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="26">
         <f>'[1]Sheet 1'!$F$333+'[1]Sheet 1'!$F$334+'[1]Sheet 1'!$F$341+'[1]Sheet 1'!$F$342+'[1]Sheet 1'!$F$343+'[1]Sheet 1'!$F$344+'[1]Sheet 1'!$F$345+'[1]Sheet 1'!$F$346+'[1]Sheet 1'!$F$363+'[1]Sheet 1'!$F$364+'[1]Sheet 1'!$F$365+'[1]Sheet 1'!$F$370+'[1]Sheet 1'!$F$371+'[1]Sheet 1'!$F$380+'[1]Sheet 1'!$F$385+'[1]Sheet 1'!$F$386+'[1]Sheet 1'!$F$388+'[1]Sheet 1'!$F$405</f>
         <v>739.13</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="27">
         <f>'[1]Sheet 1'!$F$330+'[1]Sheet 1'!$F$331+'[1]Sheet 1'!$F$332+'[1]Sheet 1'!$F$340+'[1]Sheet 1'!$F$372+'[1]Sheet 1'!$F$373+'[1]Sheet 1'!$F$374+'[1]Sheet 1'!$F$375+'[1]Sheet 1'!$F$376+'[1]Sheet 1'!$F$377+'[1]Sheet 1'!$F$379</f>
         <v>192.21</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="31">
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="30">
         <v>502.76099999999997</v>
       </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="94">
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="91">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O34" s="34">
+      <c r="O34" s="33">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P34" s="34">
+      <c r="P34" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q34" s="34">
-        <v>1</v>
-      </c>
-      <c r="R34" s="34">
+      <c r="Q34" s="33">
+        <v>1</v>
+      </c>
+      <c r="R34" s="33">
         <v>0.33</v>
       </c>
-      <c r="S34" s="34">
+      <c r="S34" s="33">
         <v>0.25</v>
       </c>
-      <c r="T34" s="34">
-        <v>1</v>
-      </c>
-      <c r="U34" s="34">
-        <v>1</v>
-      </c>
-      <c r="V34" s="73">
-        <v>1</v>
-      </c>
-      <c r="W34" s="35">
+      <c r="T34" s="33">
+        <v>1</v>
+      </c>
+      <c r="U34" s="33">
+        <v>1</v>
+      </c>
+      <c r="V34" s="70">
+        <v>1</v>
+      </c>
+      <c r="W34" s="34">
         <f t="shared" ref="W34" si="46">E34*N34</f>
         <v>0.81490000000000007</v>
       </c>
-      <c r="X34" s="35">
+      <c r="X34" s="34">
         <f t="shared" ref="X34" si="47">F34*O34</f>
         <v>214.34769999999997</v>
       </c>
-      <c r="Y34" s="35">
+      <c r="Y34" s="34">
         <f t="shared" ref="Y34" si="48">G34*P34</f>
         <v>107.63760000000002</v>
       </c>
-      <c r="Z34" s="35">
+      <c r="Z34" s="34">
         <f t="shared" ref="Z34" si="49">H34*Q34</f>
         <v>0</v>
       </c>
-      <c r="AA34" s="35">
+      <c r="AA34" s="34">
         <f t="shared" ref="AA34" si="50">I34*R34</f>
         <v>0</v>
       </c>
-      <c r="AB34" s="35">
+      <c r="AB34" s="34">
         <f t="shared" ref="AB34" si="51">J34*S34</f>
         <v>125.69024999999999</v>
       </c>
-      <c r="AC34" s="35">
+      <c r="AC34" s="34">
         <f t="shared" ref="AC34" si="52">K34*T34</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="35">
+      <c r="AD34" s="34">
         <f t="shared" ref="AD34" si="53">L34*U34</f>
         <v>0</v>
       </c>
-      <c r="AE34" s="36">
+      <c r="AE34" s="35">
         <f t="shared" ref="AE34" si="54">M34*V34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C35" s="25"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="45"/>
-      <c r="AD35" s="45"/>
-      <c r="AE35" s="59"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="56"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C36" s="25"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="59"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="56"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C37" s="25"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="59"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="56"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C38" s="25"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="59"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="56"/>
     </row>
     <row r="39" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="25"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="60"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="57"/>
     </row>
     <row r="40" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="61">
+      <c r="C40" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="58">
         <v>10</v>
       </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="63">
+      <c r="E40" s="59"/>
+      <c r="F40" s="60">
         <f>'[1]Sheet 1'!$F$438+'[1]Sheet 1'!$F$451</f>
         <v>14.5</v>
       </c>
-      <c r="G40" s="64">
+      <c r="G40" s="61">
         <f>'[1]Sheet 1'!$F$433+'[1]Sheet 1'!$F$434+'[1]Sheet 1'!$F$439+'[1]Sheet 1'!$F$444+'[1]Sheet 1'!$F$445+'[1]Sheet 1'!$F$446+'[1]Sheet 1'!$F$447+'[1]Sheet 1'!$F$448+'[1]Sheet 1'!$F$449+'[1]Sheet 1'!$F$450+'[1]Sheet 1'!$F$454+'[1]Sheet 1'!$F$455+'[1]Sheet 1'!$F$456+'[1]Sheet 1'!$F$457+'[1]Sheet 1'!$F$458+'[1]Sheet 1'!$F$459+'[1]Sheet 1'!$F$462</f>
         <v>123.72399999999999</v>
       </c>
-      <c r="H40" s="65"/>
-      <c r="I40" s="66">
+      <c r="H40" s="62"/>
+      <c r="I40" s="63">
         <f>'[1]Sheet 1'!$F$412+'[1]Sheet 1'!$F$413</f>
         <v>0.24</v>
       </c>
-      <c r="J40" s="67">
+      <c r="J40" s="64">
         <f>'[1]Sheet 1'!$F$410+'[1]Sheet 1'!$F$411+'[1]Sheet 1'!$F$414+'[1]Sheet 1'!$F$415+'[1]Sheet 1'!$F$416+'[1]Sheet 1'!$F$418+'[1]Sheet 1'!$F$419+'[1]Sheet 1'!$F$420+'[1]Sheet 1'!$F$421+'[1]Sheet 1'!$F$422+'[1]Sheet 1'!$F$423+'[1]Sheet 1'!$F$424+'[1]Sheet 1'!$F$426+'[1]Sheet 1'!$F$428+'[1]Sheet 1'!$F$429+'[1]Sheet 1'!$F$430+'[1]Sheet 1'!$F$431+'[1]Sheet 1'!$F$435+'[1]Sheet 1'!$F$436+'[1]Sheet 1'!$F$437+'[1]Sheet 1'!$F$440+'[1]Sheet 1'!$F$442+'[1]Sheet 1'!$F$443+'[1]Sheet 1'!$F$452+'[1]Sheet 1'!$F$453+'[1]Sheet 1'!$F$461+'[1]Sheet 1'!$F$463</f>
         <v>122.749</v>
       </c>
-      <c r="K40" s="68"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="97">
+      <c r="K40" s="65"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="94">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O40" s="71">
+      <c r="O40" s="68">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P40" s="71">
+      <c r="P40" s="68">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q40" s="71">
-        <v>1</v>
-      </c>
-      <c r="R40" s="71">
+      <c r="Q40" s="68">
+        <v>1</v>
+      </c>
+      <c r="R40" s="68">
         <v>0.33</v>
       </c>
-      <c r="S40" s="71">
+      <c r="S40" s="68">
         <v>0.25</v>
       </c>
-      <c r="T40" s="71">
-        <v>1</v>
-      </c>
-      <c r="U40" s="71">
-        <v>1</v>
-      </c>
-      <c r="V40" s="72">
-        <v>1</v>
-      </c>
-      <c r="W40" s="101">
+      <c r="T40" s="68">
+        <v>1</v>
+      </c>
+      <c r="U40" s="68">
+        <v>1</v>
+      </c>
+      <c r="V40" s="69">
+        <v>1</v>
+      </c>
+      <c r="W40" s="98">
         <f t="shared" ref="W40" si="55">E40*N40</f>
         <v>0</v>
       </c>
-      <c r="X40" s="101">
+      <c r="X40" s="98">
         <f t="shared" ref="X40" si="56">F40*O40</f>
         <v>4.2050000000000001</v>
       </c>
-      <c r="Y40" s="101">
+      <c r="Y40" s="98">
         <f t="shared" ref="Y40" si="57">G40*P40</f>
         <v>69.285439999999994</v>
       </c>
-      <c r="Z40" s="101">
+      <c r="Z40" s="98">
         <f t="shared" ref="Z40" si="58">H40*Q40</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="101">
+      <c r="AA40" s="98">
         <f t="shared" ref="AA40" si="59">I40*R40</f>
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB40" s="101">
+      <c r="AB40" s="98">
         <f t="shared" ref="AB40" si="60">J40*S40</f>
         <v>30.687249999999999</v>
       </c>
-      <c r="AC40" s="101">
+      <c r="AC40" s="98">
         <f t="shared" ref="AC40" si="61">K40*T40</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="101">
+      <c r="AD40" s="98">
         <f t="shared" ref="AD40" si="62">L40*U40</f>
         <v>0</v>
       </c>
-      <c r="AE40" s="102">
+      <c r="AE40" s="99">
         <f t="shared" ref="AE40" si="63">M40*V40</f>
         <v>0</v>
       </c>
@@ -4943,412 +9001,449 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3A0967-938E-4AEF-B084-DA659F2B9109}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="138" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="138" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="120"/>
+      <c r="B2" s="136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="139">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="139">
+        <v>3</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120">
+        <f>0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="120"/>
+      <c r="B3" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="139">
+        <v>1.65</v>
+      </c>
+      <c r="D3" s="139">
+        <v>0.13</v>
+      </c>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120">
+        <v>849</v>
+      </c>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
+      <c r="B4" s="136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="139">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="139">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E4" s="120"/>
+      <c r="F4" s="120">
+        <v>433</v>
+      </c>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="120"/>
+      <c r="B5" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="139">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="139">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120">
+        <v>38</v>
+      </c>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="120"/>
+      <c r="B6" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="139">
+        <v>1.9</v>
+      </c>
+      <c r="D6" s="139">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120">
+        <v>6</v>
+      </c>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
+      <c r="B7" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C7" s="139">
+        <v>1.2</v>
+      </c>
+      <c r="D7" s="139">
+        <v>3</v>
+      </c>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120">
+        <v>600</v>
+      </c>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="120"/>
+      <c r="B8" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="C8" s="139">
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="139">
+        <v>0.37</v>
+      </c>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120">
+        <v>7</v>
+      </c>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="120"/>
+      <c r="B9" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
+      <c r="B10" s="136" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="139">
+        <v>1.88</v>
+      </c>
+      <c r="D10" s="139">
+        <v>0</v>
+      </c>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120">
+        <v>8</v>
+      </c>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="120"/>
+      <c r="B11" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="139">
+        <v>4</v>
+      </c>
+      <c r="D11" s="139">
+        <v>0</v>
+      </c>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f>[2]generators_kalimantan!D2</f>
-        <v>Oil</v>
-      </c>
-      <c r="C2" s="3">
-        <f>[2]generators_kalimantan!C2</f>
-        <v>4.0949999999999998</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <f>C4+C5</f>
-        <v>250</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>C2+C3+C6+C8</f>
-        <v>133.297</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <f>SUM([2]generators_kalimantan!C3:C5)</f>
-        <v>24.145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <f>[2]generators_kalimantan!C6</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
-        <f>[2]generators_kalimantan!C7</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <f>[2]generators_kalimantan!C8</f>
-        <v>0.41199999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <f>[2]generators_kalimantan!C9</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <f>SUM([2]generators_kalimantan!C10:C13)</f>
-        <v>104.645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3">
-        <f>SUM([2]generators_kalimantan!C95:C96)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <f>SUM([2]generators_kalimantan!C97:C100)</f>
-        <v>3.5460000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3">
-        <f>SUM([2]generators_kalimantan!C101:C102)</f>
-        <v>1.7250000000000001</v>
-      </c>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <f>[2]generators_kalimantan!C14</f>
-        <v>50.4</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <f>C14</f>
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>C12+C13+C15</f>
-        <v>135.49600000000001</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
+      <c r="A12" s="120"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <f>SUM([2]generators_kalimantan!C15:C16)</f>
-        <v>83.9</v>
-      </c>
+      <c r="A13" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <f>[2]generators_kalimantan!C17</f>
-        <v>5</v>
-      </c>
+      <c r="A14" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <f>[2]generators_kalimantan!C18</f>
-        <v>1.196</v>
-      </c>
+      <c r="A15" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <f>[2]generators_kalimantan!C19</f>
-        <v>3.5</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <f>C16</f>
-        <v>3.5</v>
-      </c>
-      <c r="F16">
-        <f>C17+C20+C9</f>
-        <v>186</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f>C19+C22+C11</f>
-        <v>92.024999999999991</v>
-      </c>
-      <c r="J16">
-        <f>C18+C21+C10</f>
-        <v>112.093</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <f>SUM([2]generators_kalimantan!C20:C25)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2">
-        <f>SUM([2]generators_kalimantan!C26:C58)</f>
-        <v>56.191000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2">
-        <f>SUM([2]generators_kalimantan!C59:C60)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <f>SUM([2]generators_kalimantan!C62:C64)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2">
-        <f>SUM([2]generators_kalimantan!C65:C92)</f>
-        <v>52.356000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2">
-        <f>SUM([2]generators_kalimantan!C93)</f>
-        <v>90</v>
-      </c>
+      <c r="A16" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="120"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="120"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="120"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="120"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/calliope_generators.xlsx
+++ b/database/calliope_generators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_power_system\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0163A7-5E05-46E7-A770-90C31D4D483A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C328CC-C960-46FF-893D-7D3489E4A6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>bus</t>
   </si>
@@ -263,15 +264,49 @@
   <si>
     <t>factor</t>
   </si>
+  <si>
+    <t>RUPTL 2021-30</t>
+  </si>
+  <si>
+    <t>ruptl 2021</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>south,central</t>
+  </si>
+  <si>
+    <t>east,north</t>
+  </si>
+  <si>
+    <t>LCOE Capacity full report</t>
+  </si>
+  <si>
+    <t>assumption factor</t>
+  </si>
+  <si>
+    <t>total cap</t>
+  </si>
+  <si>
+    <t>demand ratio</t>
+  </si>
+  <si>
+    <t>electrification ratio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +322,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Abadi Extra Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +425,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,10 +602,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -733,28 +795,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -773,8 +814,44 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -796,6 +873,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>178592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323467</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>15715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885FE5DC-A8D9-46C0-9155-88C8684496A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4822030"/>
+          <a:ext cx="9530808" cy="4119563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2885,6 +3011,60 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="pypsa"/>
+      <sheetName val="calliope_1"/>
+      <sheetName val="calliope_2"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="-jr28gpurfjy0ufw0"/>
+      <sheetName val="-jr28gpurfjy0ufw0 (2)"/>
+      <sheetName val="-jr28gpurfjy0ufw0 (3)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="L2">
+            <v>352.95152055845813</v>
+          </cell>
+          <cell r="M2">
+            <v>213.5804325130739</v>
+          </cell>
+          <cell r="N2">
+            <v>325.86064954249946</v>
+          </cell>
+          <cell r="O2">
+            <v>429.07122508811278</v>
+          </cell>
+          <cell r="P2">
+            <v>79.958862020278815</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>370.10844748858648</v>
+          </cell>
+          <cell r="E11">
+            <v>565.6632420091338</v>
+          </cell>
+          <cell r="F11">
+            <v>531.15514126215476</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3187,75 +3367,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF83E7F3-B837-43E6-BF88-00ED77709958}">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ25" sqref="AQ25"/>
+      <selection pane="bottomRight" activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.109375" style="120" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="8.88671875" style="120" customWidth="1"/>
     <col min="14" max="23" width="8.88671875" customWidth="1"/>
-    <col min="32" max="40" width="0" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="8.88671875" customWidth="1"/>
+    <col min="33" max="50" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="C1" s="128">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="C1" s="143">
         <v>2021</v>
       </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="s">
+      <c r="D1" s="143"/>
+      <c r="E1" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="130" t="s">
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="145" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="142" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="142"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="142"/>
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="131" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="130"/>
-      <c r="AI1" s="130"/>
-      <c r="AJ1" s="130"/>
-      <c r="AK1" s="130"/>
-      <c r="AL1" s="130"/>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="142"/>
+      <c r="AT1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="142"/>
+      <c r="AW1" s="142"/>
+      <c r="AX1" s="142"/>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3349,35 +3542,65 @@
       <c r="AE2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="101" t="s">
+      <c r="AF2" s="140" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="102" t="s">
+      <c r="AH2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="103" t="s">
+      <c r="AI2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="AI2" s="104" t="s">
+      <c r="AJ2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="105" t="s">
+      <c r="AK2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="106" t="s">
+      <c r="AL2" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="107" t="s">
+      <c r="AM2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="108" t="s">
+      <c r="AN2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="109" t="s">
+      <c r="AO2" s="109" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AP2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS2" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT2" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU2" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV2" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW2" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX2" s="109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" s="126">
         <v>0.86423333300000005</v>
       </c>
@@ -3418,22 +3641,22 @@
         <v>0</v>
       </c>
       <c r="N3" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O3" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P3" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q3" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R3" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S3" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T3" s="116">
         <v>1</v>
@@ -3450,7 +3673,7 @@
       </c>
       <c r="X3" s="111">
         <f t="shared" si="0"/>
-        <v>142.5</v>
+        <v>117.5</v>
       </c>
       <c r="Y3" s="112">
         <f t="shared" si="0"/>
@@ -3466,7 +3689,7 @@
       </c>
       <c r="AB3" s="115">
         <f t="shared" si="0"/>
-        <v>9.0860899999999987</v>
+        <v>1.71899</v>
       </c>
       <c r="AC3" s="116">
         <f t="shared" si="0"/>
@@ -3480,35 +3703,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF3" s="110">
+      <c r="AF3" s="141"/>
+      <c r="AG3" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG3" s="111">
+      <c r="AH3" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH3" s="112">
+      <c r="AI3" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI3" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="114">
+      <c r="AJ3" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK3" s="115">
+      <c r="AL3" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL3" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM3" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ3" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR3" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS3" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT3" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU3" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV3" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="126">
         <v>4.5260000000000002E-2</v>
       </c>
@@ -3551,22 +3802,22 @@
         <v>0</v>
       </c>
       <c r="N4" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O4" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P4" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q4" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R4" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S4" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T4" s="116">
         <v>1</v>
@@ -3579,7 +3830,7 @@
       </c>
       <c r="W4" s="110">
         <f t="shared" ref="W4:W22" si="1">E4*N4</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X4" s="111">
         <f t="shared" ref="X4:X22" si="2">F4*O4</f>
@@ -3599,7 +3850,7 @@
       </c>
       <c r="AB4" s="115">
         <f t="shared" ref="AB4:AB22" si="6">J4*S4</f>
-        <v>49.818650000000005</v>
+        <v>9.4251500000000021</v>
       </c>
       <c r="AC4" s="116">
         <f t="shared" ref="AC4:AC22" si="7">K4*T4</f>
@@ -3613,35 +3864,63 @@
         <f t="shared" ref="AE4:AE22" si="9">M4*V4</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="110">
+      <c r="AF4" s="141"/>
+      <c r="AG4" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG4" s="111">
+      <c r="AH4" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH4" s="112">
+      <c r="AI4" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI4" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="114">
+      <c r="AJ4" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK4" s="115">
+      <c r="AL4" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL4" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM4" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ4" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR4" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS4" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT4" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU4" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV4" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="126">
         <v>1.1174249999999999</v>
       </c>
@@ -3685,22 +3964,22 @@
         <v>0</v>
       </c>
       <c r="N5" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O5" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P5" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q5" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R5" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S5" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T5" s="116">
         <v>1</v>
@@ -3717,7 +3996,7 @@
       </c>
       <c r="X5" s="111">
         <f t="shared" si="2"/>
-        <v>62.699999999999996</v>
+        <v>51.699999999999996</v>
       </c>
       <c r="Y5" s="112">
         <f t="shared" si="3"/>
@@ -3729,11 +4008,11 @@
       </c>
       <c r="AA5" s="114">
         <f t="shared" si="5"/>
-        <v>3.76675</v>
+        <v>2.5772500000000003</v>
       </c>
       <c r="AB5" s="115">
         <f t="shared" si="6"/>
-        <v>2.8271699999999997</v>
+        <v>0.53486999999999996</v>
       </c>
       <c r="AC5" s="116">
         <f t="shared" si="7"/>
@@ -3747,35 +4026,65 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="110">
+      <c r="AF5" s="141">
+        <v>90</v>
+      </c>
+      <c r="AG5" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG5" s="111">
+      <c r="AH5" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH5" s="112">
+      <c r="AI5" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI5" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="114">
+      <c r="AJ5" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK5" s="115">
+      <c r="AL5" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL5" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM5" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ5" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR5" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS5" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT5" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU5" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV5" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="126">
         <v>0.17745</v>
       </c>
@@ -3802,8 +4111,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="114">
-        <f>'[1]Sheet 1'!$F$54</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J6" s="115">
         <f>'[1]Sheet 1'!$F$49+'[1]Sheet 1'!$F$63+'[1]Sheet 1'!$F$69+'[1]Sheet 1'!$F$70+'[1]Sheet 1'!$F$71+'[1]Sheet 1'!$F$77+'[1]Sheet 1'!$F$78+'[1]Sheet 1'!$F$82+'[1]Sheet 1'!$F$83+'[1]Sheet 1'!$F$84+'[1]Sheet 1'!$F$85+'[1]Sheet 1'!$F$86+'[1]Sheet 1'!$F$87+'[1]Sheet 1'!$F$88+'[1]Sheet 1'!$F$92+'[1]Sheet 1'!$F$93+'[1]Sheet 1'!$F$94+'[1]Sheet 1'!$F$95+'[1]Sheet 1'!$F$96+'[1]Sheet 1'!$F$97+'[1]Sheet 1'!$F$99+'[1]Sheet 1'!$F$100+'[1]Sheet 1'!$F$101+'[1]Sheet 1'!$F$118+'[1]Sheet 1'!$F$119+'[1]Sheet 1'!$F$120+'[1]Sheet 1'!$F$123+'[1]Sheet 1'!$F$124+'[1]Sheet 1'!$F$125+'[1]Sheet 1'!$F$126+'[1]Sheet 1'!$F$127+'[1]Sheet 1'!$F$129+'[1]Sheet 1'!$F$130+'[1]Sheet 1'!$F$131+'[1]Sheet 1'!$F$132+'[1]Sheet 1'!$F$133+'[1]Sheet 1'!$F$134+'[1]Sheet 1'!$F$135+'[1]Sheet 1'!$F$136+'[1]Sheet 1'!$F$137</f>
@@ -3820,22 +4128,22 @@
         <v>0</v>
       </c>
       <c r="N6" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O6" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P6" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q6" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R6" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S6" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T6" s="116">
         <v>1</v>
@@ -3852,7 +4160,7 @@
       </c>
       <c r="X6" s="111">
         <f t="shared" si="2"/>
-        <v>15.389999999999999</v>
+        <v>12.69</v>
       </c>
       <c r="Y6" s="112">
         <f t="shared" si="3"/>
@@ -3863,12 +4171,11 @@
         <v>0</v>
       </c>
       <c r="AA6" s="114">
-        <f t="shared" si="5"/>
-        <v>85.5</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="115">
         <f t="shared" si="6"/>
-        <v>26.031719999999996</v>
+        <v>4.9249200000000002</v>
       </c>
       <c r="AC6" s="116">
         <f t="shared" si="7"/>
@@ -3882,35 +4189,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="110">
+      <c r="AF6" s="141"/>
+      <c r="AG6" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG6" s="111">
+      <c r="AH6" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH6" s="112">
+      <c r="AI6" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI6" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="114">
+      <c r="AJ6" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK6" s="115">
+      <c r="AL6" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL6" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM6" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ6" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR6" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS6" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT6" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU6" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV6" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="126">
         <v>6.3899999999999998E-2</v>
       </c>
@@ -3953,22 +4288,22 @@
         <v>0</v>
       </c>
       <c r="N7" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O7" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P7" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q7" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R7" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S7" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T7" s="116">
         <v>1</v>
@@ -3981,7 +4316,7 @@
       </c>
       <c r="W7" s="110">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="X7" s="111">
         <f t="shared" si="2"/>
@@ -3989,7 +4324,7 @@
       </c>
       <c r="Y7" s="112">
         <f t="shared" si="3"/>
-        <v>12.58</v>
+        <v>18.700000000000003</v>
       </c>
       <c r="Z7" s="113">
         <f t="shared" si="4"/>
@@ -4001,7 +4336,7 @@
       </c>
       <c r="AB7" s="115">
         <f t="shared" si="6"/>
-        <v>61.603520000000003</v>
+        <v>11.654720000000001</v>
       </c>
       <c r="AC7" s="116">
         <f t="shared" si="7"/>
@@ -4015,35 +4350,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="110">
+      <c r="AF7" s="141"/>
+      <c r="AG7" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG7" s="111">
+      <c r="AH7" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH7" s="112">
+      <c r="AI7" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI7" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="114">
+      <c r="AJ7" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK7" s="115">
+      <c r="AL7" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL7" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM7" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ7" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR7" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS7" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT7" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU7" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV7" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="126">
         <v>-1.7742</v>
       </c>
@@ -4087,22 +4450,22 @@
         <v>0</v>
       </c>
       <c r="N8" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O8" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P8" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q8" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R8" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S8" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T8" s="116">
         <v>1</v>
@@ -4115,11 +4478,11 @@
       </c>
       <c r="W8" s="110">
         <f t="shared" si="1"/>
-        <v>1.2249999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X8" s="111">
         <f t="shared" si="2"/>
-        <v>27.929999999999996</v>
+        <v>23.029999999999998</v>
       </c>
       <c r="Y8" s="112">
         <f t="shared" si="3"/>
@@ -4131,11 +4494,11 @@
       </c>
       <c r="AA8" s="114">
         <f t="shared" si="5"/>
-        <v>0.28500000000000003</v>
+        <v>0.19500000000000003</v>
       </c>
       <c r="AB8" s="115">
         <f t="shared" si="6"/>
-        <v>36.145670000000003</v>
+        <v>6.8383700000000012</v>
       </c>
       <c r="AC8" s="116">
         <f t="shared" si="7"/>
@@ -4149,35 +4512,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="110">
+      <c r="AF8" s="141"/>
+      <c r="AG8" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG8" s="111">
+      <c r="AH8" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH8" s="112">
+      <c r="AI8" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI8" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="114">
+      <c r="AJ8" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK8" s="115">
+      <c r="AL8" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL8" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM8" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ8" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR8" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS8" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT8" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU8" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV8" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="126">
         <v>-2.6152000000000002</v>
       </c>
@@ -4221,22 +4612,22 @@
         <v>0</v>
       </c>
       <c r="N9" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O9" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P9" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q9" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R9" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S9" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T9" s="116">
         <v>1</v>
@@ -4249,7 +4640,7 @@
       </c>
       <c r="W9" s="110">
         <f t="shared" si="1"/>
-        <v>4.55</v>
+        <v>3.9</v>
       </c>
       <c r="X9" s="111">
         <f t="shared" si="2"/>
@@ -4269,7 +4660,7 @@
       </c>
       <c r="AB9" s="115">
         <f t="shared" si="6"/>
-        <v>29.372819999999997</v>
+        <v>5.5570200000000005</v>
       </c>
       <c r="AC9" s="116">
         <f t="shared" si="7"/>
@@ -4283,35 +4674,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="110">
+      <c r="AF9" s="141"/>
+      <c r="AG9" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG9" s="111">
+      <c r="AH9" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH9" s="112">
+      <c r="AI9" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI9" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="114">
+      <c r="AJ9" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK9" s="115">
+      <c r="AL9" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL9" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM9" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ9" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR9" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS9" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT9" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU9" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV9" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="126">
         <v>-2.6220500000000002</v>
       </c>
@@ -4354,22 +4773,22 @@
         <v>0</v>
       </c>
       <c r="N10" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O10" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P10" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q10" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R10" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S10" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T10" s="116">
         <v>1</v>
@@ -4382,7 +4801,7 @@
       </c>
       <c r="W10" s="110">
         <f t="shared" si="1"/>
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="X10" s="111">
         <f t="shared" si="2"/>
@@ -4402,7 +4821,7 @@
       </c>
       <c r="AB10" s="115">
         <f t="shared" si="6"/>
-        <v>6.3151600000000006</v>
+        <v>1.1947600000000003</v>
       </c>
       <c r="AC10" s="116">
         <f t="shared" si="7"/>
@@ -4416,35 +4835,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="110">
+      <c r="AF10" s="141"/>
+      <c r="AG10" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG10" s="111">
+      <c r="AH10" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH10" s="112">
+      <c r="AI10" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI10" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="114">
+      <c r="AJ10" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK10" s="115">
+      <c r="AL10" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL10" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM10" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ10" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR10" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS10" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT10" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU10" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV10" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="126">
         <v>-2.1166</v>
       </c>
@@ -4487,22 +4934,22 @@
         <v>0</v>
       </c>
       <c r="N11" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O11" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P11" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q11" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R11" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S11" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T11" s="116">
         <v>1</v>
@@ -4519,7 +4966,7 @@
       </c>
       <c r="X11" s="111">
         <f t="shared" si="2"/>
-        <v>131.13875999999999</v>
+        <v>108.13196000000001</v>
       </c>
       <c r="Y11" s="112">
         <f t="shared" si="3"/>
@@ -4535,7 +4982,7 @@
       </c>
       <c r="AB11" s="115">
         <f t="shared" si="6"/>
-        <v>21.79522</v>
+        <v>4.1234200000000003</v>
       </c>
       <c r="AC11" s="116">
         <f t="shared" si="7"/>
@@ -4549,35 +4996,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="110">
+      <c r="AF11" s="141"/>
+      <c r="AG11" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG11" s="111">
+      <c r="AH11" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH11" s="112">
+      <c r="AI11" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI11" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="114">
+      <c r="AJ11" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK11" s="115">
+      <c r="AL11" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL11" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM11" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ11" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR11" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS11" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT11" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU11" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV11" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="126">
         <v>-2.8550333330000002</v>
       </c>
@@ -4620,22 +5095,22 @@
         <v>0</v>
       </c>
       <c r="N12" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O12" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P12" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q12" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R12" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S12" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T12" s="116">
         <v>1</v>
@@ -4652,7 +5127,7 @@
       </c>
       <c r="X12" s="111">
         <f t="shared" si="2"/>
-        <v>68.399999999999991</v>
+        <v>56.4</v>
       </c>
       <c r="Y12" s="112">
         <f t="shared" si="3"/>
@@ -4668,7 +5143,7 @@
       </c>
       <c r="AB12" s="115">
         <f t="shared" si="6"/>
-        <v>9.4346300000000003</v>
+        <v>1.7849300000000003</v>
       </c>
       <c r="AC12" s="116">
         <f t="shared" si="7"/>
@@ -4682,35 +5157,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="110">
+      <c r="AF12" s="141"/>
+      <c r="AG12" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG12" s="111">
+      <c r="AH12" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH12" s="112">
+      <c r="AI12" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI12" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="114">
+      <c r="AJ12" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK12" s="115">
+      <c r="AL12" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL12" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM12" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ12" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR12" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS12" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT12" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU12" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV12" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="126">
         <v>-0.74419999999999997</v>
       </c>
@@ -4754,22 +5257,22 @@
         <v>0</v>
       </c>
       <c r="N13" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O13" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P13" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q13" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R13" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S13" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T13" s="116">
         <v>1</v>
@@ -4786,11 +5289,11 @@
       </c>
       <c r="X13" s="111">
         <f t="shared" si="2"/>
-        <v>3.9899999999999998</v>
+        <v>3.29</v>
       </c>
       <c r="Y13" s="112">
         <f t="shared" si="3"/>
-        <v>57.832479999999997</v>
+        <v>85.967200000000005</v>
       </c>
       <c r="Z13" s="113">
         <f t="shared" si="4"/>
@@ -4802,7 +5305,7 @@
       </c>
       <c r="AB13" s="115">
         <f t="shared" si="6"/>
-        <v>4.2772000000000006</v>
+        <v>0.80920000000000014</v>
       </c>
       <c r="AC13" s="116">
         <f t="shared" si="7"/>
@@ -4816,35 +5319,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="110">
+      <c r="AF13" s="141"/>
+      <c r="AG13" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG13" s="111">
+      <c r="AH13" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH13" s="112">
+      <c r="AI13" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI13" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="114">
+      <c r="AJ13" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK13" s="115">
+      <c r="AL13" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL13" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM13" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ13" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR13" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS13" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT13" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU13" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV13" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="126">
         <v>-3.4291333329999998</v>
       </c>
@@ -4889,22 +5420,22 @@
         <v>0</v>
       </c>
       <c r="N14" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O14" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P14" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q14" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R14" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S14" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T14" s="116">
         <v>1</v>
@@ -4917,11 +5448,11 @@
       </c>
       <c r="W14" s="110">
         <f t="shared" si="1"/>
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="X14" s="111">
         <f t="shared" si="2"/>
-        <v>58.823999999999998</v>
+        <v>48.503999999999998</v>
       </c>
       <c r="Y14" s="112">
         <f t="shared" si="3"/>
@@ -4933,11 +5464,11 @@
       </c>
       <c r="AA14" s="114">
         <f t="shared" si="5"/>
-        <v>28.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB14" s="115">
         <f t="shared" si="6"/>
-        <v>36.152700000000003</v>
+        <v>6.8397000000000014</v>
       </c>
       <c r="AC14" s="116">
         <f t="shared" si="7"/>
@@ -4951,35 +5482,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="110">
+      <c r="AF14" s="141"/>
+      <c r="AG14" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG14" s="111">
+      <c r="AH14" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH14" s="112">
+      <c r="AI14" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI14" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="114">
+      <c r="AJ14" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK14" s="115">
+      <c r="AL14" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL14" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM14" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ14" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR14" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS14" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT14" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU14" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV14" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="126">
         <v>-2.26065</v>
       </c>
@@ -5022,22 +5581,22 @@
         <v>0</v>
       </c>
       <c r="N15" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O15" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P15" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q15" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R15" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S15" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T15" s="116">
         <v>1</v>
@@ -5054,7 +5613,7 @@
       </c>
       <c r="X15" s="111">
         <f t="shared" si="2"/>
-        <v>165.29999999999998</v>
+        <v>136.29999999999998</v>
       </c>
       <c r="Y15" s="112">
         <f t="shared" si="3"/>
@@ -5070,7 +5629,7 @@
       </c>
       <c r="AB15" s="115">
         <f t="shared" si="6"/>
-        <v>9.907119999999999</v>
+        <v>1.8743200000000002</v>
       </c>
       <c r="AC15" s="116">
         <f t="shared" si="7"/>
@@ -5084,35 +5643,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="110">
+      <c r="AF15" s="141"/>
+      <c r="AG15" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG15" s="111">
+      <c r="AH15" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH15" s="112">
+      <c r="AI15" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI15" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="114">
+      <c r="AJ15" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK15" s="115">
+      <c r="AL15" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL15" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM15" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ15" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR15" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS15" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT15" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU15" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV15" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="126">
         <v>-3.5974499999999998</v>
       </c>
@@ -5155,22 +5742,22 @@
         <v>0</v>
       </c>
       <c r="N16" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O16" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P16" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q16" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R16" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S16" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T16" s="116">
         <v>1</v>
@@ -5187,7 +5774,7 @@
       </c>
       <c r="X16" s="111">
         <f t="shared" si="2"/>
-        <v>160.16999999999999</v>
+        <v>132.07</v>
       </c>
       <c r="Y16" s="112">
         <f t="shared" si="3"/>
@@ -5203,7 +5790,7 @@
       </c>
       <c r="AB16" s="115">
         <f t="shared" si="6"/>
-        <v>6.9079000000000006</v>
+        <v>1.3069000000000002</v>
       </c>
       <c r="AC16" s="116">
         <f t="shared" si="7"/>
@@ -5217,35 +5804,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="110">
+      <c r="AF16" s="141"/>
+      <c r="AG16" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG16" s="111">
+      <c r="AH16" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH16" s="112">
+      <c r="AI16" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI16" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="114">
+      <c r="AJ16" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK16" s="115">
+      <c r="AL16" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL16" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM16" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ16" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR16" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS16" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT16" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU16" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV16" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="126">
         <v>-1.761425</v>
       </c>
@@ -5287,22 +5902,22 @@
         <v>0</v>
       </c>
       <c r="N17" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O17" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P17" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q17" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R17" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S17" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T17" s="116">
         <v>1</v>
@@ -5335,7 +5950,7 @@
       </c>
       <c r="AB17" s="115">
         <f t="shared" si="6"/>
-        <v>8.4100999999999999</v>
+        <v>1.5911000000000002</v>
       </c>
       <c r="AC17" s="116">
         <f t="shared" si="7"/>
@@ -5349,35 +5964,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="110">
+      <c r="AF17" s="141"/>
+      <c r="AG17" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG17" s="111">
+      <c r="AH17" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH17" s="112">
+      <c r="AI17" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI17" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="114">
+      <c r="AJ17" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK17" s="115">
+      <c r="AL17" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL17" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM17" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ17" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR17" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS17" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT17" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU17" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV17" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" s="126">
         <v>-1.190416667</v>
       </c>
@@ -5421,22 +6064,22 @@
         <v>0</v>
       </c>
       <c r="N18" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O18" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P18" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q18" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R18" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S18" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T18" s="116">
         <v>1</v>
@@ -5453,11 +6096,11 @@
       </c>
       <c r="X18" s="111">
         <f t="shared" si="2"/>
-        <v>151.04999999999998</v>
+        <v>124.55</v>
       </c>
       <c r="Y18" s="112">
         <f t="shared" si="3"/>
-        <v>46.453499999999998</v>
+        <v>69.052500000000009</v>
       </c>
       <c r="Z18" s="113">
         <f t="shared" si="4"/>
@@ -5469,7 +6112,7 @@
       </c>
       <c r="AB18" s="115">
         <f t="shared" si="6"/>
-        <v>43.546779999999998</v>
+        <v>8.2385800000000007</v>
       </c>
       <c r="AC18" s="116">
         <f t="shared" si="7"/>
@@ -5483,35 +6126,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="110">
+      <c r="AF18" s="141"/>
+      <c r="AG18" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG18" s="111">
+      <c r="AH18" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH18" s="112">
+      <c r="AI18" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI18" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="114">
+      <c r="AJ18" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK18" s="115">
+      <c r="AL18" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL18" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM18" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ18" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR18" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS18" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT18" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU18" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV18" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" s="126">
         <v>-0.48473333299999999</v>
       </c>
@@ -5556,22 +6227,22 @@
         <v>0</v>
       </c>
       <c r="N19" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O19" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P19" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q19" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R19" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S19" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T19" s="116">
         <v>1</v>
@@ -5584,15 +6255,15 @@
       </c>
       <c r="W19" s="110">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="X19" s="111">
         <f t="shared" si="2"/>
-        <v>240.82499999999999</v>
+        <v>198.57499999999999</v>
       </c>
       <c r="Y19" s="112">
         <f t="shared" si="3"/>
-        <v>3.552</v>
+        <v>5.28</v>
       </c>
       <c r="Z19" s="113">
         <f t="shared" si="4"/>
@@ -5604,7 +6275,7 @@
       </c>
       <c r="AB19" s="115">
         <f t="shared" si="6"/>
-        <v>147.55822000000001</v>
+        <v>27.916420000000006</v>
       </c>
       <c r="AC19" s="116">
         <f t="shared" si="7"/>
@@ -5618,35 +6289,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="110">
+      <c r="AF19" s="141"/>
+      <c r="AG19" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG19" s="111">
+      <c r="AH19" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH19" s="112">
+      <c r="AI19" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI19" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="114">
+      <c r="AJ19" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK19" s="115">
+      <c r="AL19" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL19" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM19" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ19" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR19" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS19" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT19" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU19" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV19" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" s="126">
         <v>0.31574999999999998</v>
       </c>
@@ -5690,22 +6389,22 @@
         <v>0</v>
       </c>
       <c r="N20" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O20" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P20" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q20" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R20" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S20" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T20" s="116">
         <v>1</v>
@@ -5722,11 +6421,11 @@
       </c>
       <c r="X20" s="111">
         <f t="shared" si="2"/>
-        <v>158.24909999999997</v>
+        <v>130.48609999999999</v>
       </c>
       <c r="Y20" s="112">
         <f t="shared" si="3"/>
-        <v>22.592200000000002</v>
+        <v>33.583000000000006</v>
       </c>
       <c r="Z20" s="113">
         <f t="shared" si="4"/>
@@ -5738,7 +6437,7 @@
       </c>
       <c r="AB20" s="115">
         <f t="shared" si="6"/>
-        <v>12.994399999999999</v>
+        <v>2.4584000000000001</v>
       </c>
       <c r="AC20" s="116">
         <f t="shared" si="7"/>
@@ -5752,35 +6451,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="110">
+      <c r="AF20" s="141"/>
+      <c r="AG20" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG20" s="111">
+      <c r="AH20" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH20" s="112">
+      <c r="AI20" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI20" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="114">
+      <c r="AJ20" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK20" s="115">
+      <c r="AL20" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL20" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM20" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ20" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR20" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS20" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT20" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU20" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV20" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" s="126">
         <v>1.0532999999999999</v>
       </c>
@@ -5824,22 +6551,22 @@
         <v>0</v>
       </c>
       <c r="N21" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O21" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P21" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q21" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R21" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S21" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T21" s="116">
         <v>1</v>
@@ -5852,11 +6579,11 @@
       </c>
       <c r="W21" s="110">
         <f t="shared" si="1"/>
-        <v>0.28349999999999997</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="X21" s="111">
         <f t="shared" si="2"/>
-        <v>22.229999999999997</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="Y21" s="112">
         <f t="shared" si="3"/>
@@ -5872,7 +6599,7 @@
       </c>
       <c r="AB21" s="115">
         <f t="shared" si="6"/>
-        <v>14.230570000000002</v>
+        <v>2.6922700000000006</v>
       </c>
       <c r="AC21" s="116">
         <f t="shared" si="7"/>
@@ -5886,35 +6613,63 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="110">
+      <c r="AF21" s="141"/>
+      <c r="AG21" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG21" s="111">
+      <c r="AH21" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH21" s="112">
+      <c r="AI21" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI21" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="114">
+      <c r="AJ21" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK21" s="115">
+      <c r="AL21" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL21" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM21" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ21" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR21" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS21" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT21" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU21" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV21" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" s="126">
         <v>3.2987666670000002</v>
       </c>
@@ -5960,22 +6715,22 @@
         <v>0</v>
       </c>
       <c r="N22" s="110">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O22" s="111">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P22" s="112">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q22" s="113">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="R22" s="114">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="S22" s="115">
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T22" s="116">
         <v>1</v>
@@ -5992,11 +6747,11 @@
       </c>
       <c r="X22" s="111">
         <f t="shared" si="2"/>
-        <v>8.2649999999999988</v>
+        <v>6.8149999999999995</v>
       </c>
       <c r="Y22" s="112">
         <f t="shared" si="3"/>
-        <v>45.777879999999996</v>
+        <v>68.048199999999994</v>
       </c>
       <c r="Z22" s="113">
         <f t="shared" si="4"/>
@@ -6004,11 +6759,11 @@
       </c>
       <c r="AA22" s="114">
         <f t="shared" si="5"/>
-        <v>0.22799999999999998</v>
+        <v>0.156</v>
       </c>
       <c r="AB22" s="115">
         <f t="shared" si="6"/>
-        <v>45.41713</v>
+        <v>8.5924300000000002</v>
       </c>
       <c r="AC22" s="116">
         <f t="shared" si="7"/>
@@ -6022,41 +6777,69 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="110">
+      <c r="AF22" s="141"/>
+      <c r="AG22" s="110">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG22" s="111">
+      <c r="AH22" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH22" s="112">
+      <c r="AI22" s="112">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AI22" s="113">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="114">
+      <c r="AJ22" s="113">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="114">
         <v>0.33</v>
       </c>
-      <c r="AK22" s="115">
+      <c r="AL22" s="115">
         <v>0.25</v>
       </c>
-      <c r="AL22" s="116">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="117">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM22" s="116">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="117">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="118">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="AQ22" s="111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR22" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="AS22" s="113">
+        <v>0.73</v>
+      </c>
+      <c r="AT22" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="AU22" s="115">
+        <v>0.37</v>
+      </c>
+      <c r="AV22" s="116">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="117">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="C23" s="124" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="125">
         <f>SUM(E23:M23)</f>
-        <v>4735.4920000000002</v>
+        <v>4645.4920000000002</v>
       </c>
       <c r="E23" s="123">
         <f>SUM(E3:E22)</f>
@@ -6076,7 +6859,7 @@
       </c>
       <c r="I23" s="123">
         <f t="shared" si="10"/>
-        <v>124.505</v>
+        <v>34.505000000000003</v>
       </c>
       <c r="J23" s="123">
         <f t="shared" si="10"/>
@@ -6096,15 +6879,15 @@
       </c>
       <c r="W23" s="127">
         <f>SUM(W3:W22)</f>
-        <v>14.388499999999997</v>
+        <v>12.333</v>
       </c>
       <c r="X23" s="127">
         <f t="shared" ref="X23:AE23" si="11">SUM(X3:X22)</f>
-        <v>1416.9618599999999</v>
+        <v>1168.3720600000001</v>
       </c>
       <c r="Y23" s="127">
         <f t="shared" si="11"/>
-        <v>188.78806000000003</v>
+        <v>280.6309</v>
       </c>
       <c r="Z23" s="127">
         <f t="shared" si="11"/>
@@ -6112,11 +6895,11 @@
       </c>
       <c r="AA23" s="127">
         <f t="shared" si="11"/>
-        <v>118.27974999999999</v>
+        <v>22.428249999999998</v>
       </c>
       <c r="AB23" s="127">
         <f t="shared" si="11"/>
-        <v>581.8327700000001</v>
+        <v>110.07647</v>
       </c>
       <c r="AC23" s="127">
         <f t="shared" si="11"/>
@@ -6130,11 +6913,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="D24" s="141">
-        <f>SUM(W23:AE23)</f>
-        <v>2321.4709399999997</v>
+      <c r="AF23" s="127">
+        <f t="shared" ref="AF23" si="12">SUM(AF3:AF22)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="D24" s="134">
+        <f>SUM(W23:AE23)+AF5</f>
+        <v>1685.0606800000003</v>
       </c>
       <c r="E24" s="123"/>
       <c r="F24" s="123"/>
@@ -6145,8 +6932,75 @@
       <c r="K24" s="123"/>
       <c r="L24" s="123"/>
       <c r="M24" s="123"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="V24" s="127">
+        <f>SUM(W24:AF24)</f>
+        <v>100</v>
+      </c>
+      <c r="W24" s="136">
+        <f>W23/$D$24*100</f>
+        <v>0.73190242620817658</v>
+      </c>
+      <c r="X24" s="136">
+        <f t="shared" ref="X24:AF24" si="13">X23/$D$24*100</f>
+        <v>69.337091172289405</v>
+      </c>
+      <c r="Y24" s="136">
+        <f t="shared" si="13"/>
+        <v>16.654053075406161</v>
+      </c>
+      <c r="Z24" s="136">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="136">
+        <f t="shared" si="13"/>
+        <v>1.3310054804673261</v>
+      </c>
+      <c r="AB24" s="136">
+        <f t="shared" si="13"/>
+        <v>6.5324929426280347</v>
+      </c>
+      <c r="AC24" s="136">
+        <f t="shared" si="13"/>
+        <v>7.2400953537174684E-2</v>
+      </c>
+      <c r="AD24" s="136">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="136">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="136">
+        <f t="shared" si="13"/>
+        <v>5.3410539494637064</v>
+      </c>
+      <c r="AG24" s="120"/>
+      <c r="AH24" s="120"/>
+      <c r="AI24" s="120"/>
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="120"/>
+      <c r="AL24" s="120"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="120"/>
+      <c r="AO24" s="120"/>
+      <c r="AP24" s="120"/>
+      <c r="AQ24" s="120"/>
+      <c r="AR24" s="120"/>
+      <c r="AS24" s="120"/>
+      <c r="AT24" s="120"/>
+      <c r="AU24" s="120"/>
+      <c r="AV24" s="120"/>
+      <c r="AW24" s="120"/>
+      <c r="AX24" s="120"/>
+      <c r="AY24" s="120"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="D25" s="135">
+        <f>SUMPRODUCT(E3:M22,AG3:AO22)</f>
+        <v>1424.3024999999996</v>
+      </c>
       <c r="E25" s="123"/>
       <c r="F25" s="123"/>
       <c r="G25" s="123"/>
@@ -6156,8 +7010,61 @@
       <c r="K25" s="123"/>
       <c r="L25" s="123"/>
       <c r="M25" s="123"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="V25" t="s">
+        <v>75</v>
+      </c>
+      <c r="W25" s="137">
+        <v>0.52</v>
+      </c>
+      <c r="X25" s="137">
+        <v>68.58</v>
+      </c>
+      <c r="Y25" s="137">
+        <v>16.3</v>
+      </c>
+      <c r="Z25" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="137">
+        <v>1.04</v>
+      </c>
+      <c r="AB25" s="137">
+        <v>6.73</v>
+      </c>
+      <c r="AC25" s="137">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="137">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="137">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="137">
+        <v>6.82</v>
+      </c>
+      <c r="AG25" s="138"/>
+      <c r="AH25" s="138"/>
+      <c r="AI25" s="138"/>
+      <c r="AJ25" s="138"/>
+      <c r="AK25" s="138"/>
+      <c r="AL25" s="138"/>
+      <c r="AM25" s="138"/>
+      <c r="AN25" s="138"/>
+      <c r="AO25" s="138"/>
+      <c r="AP25" s="138"/>
+      <c r="AQ25" s="138"/>
+      <c r="AR25" s="138"/>
+      <c r="AS25" s="138"/>
+      <c r="AT25" s="138"/>
+      <c r="AU25" s="138"/>
+      <c r="AV25" s="138"/>
+      <c r="AW25" s="138"/>
+      <c r="AX25" s="138"/>
+      <c r="AY25" s="138"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="D26" s="135"/>
       <c r="E26" s="123"/>
       <c r="F26" s="123"/>
       <c r="G26" s="123"/>
@@ -6167,41 +7074,417 @@
       <c r="K26" s="123"/>
       <c r="L26" s="123"/>
       <c r="M26" s="123"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="T26" t="s">
+        <v>84</v>
+      </c>
+      <c r="U26" t="s">
+        <v>83</v>
+      </c>
+      <c r="V26" t="s">
+        <v>82</v>
+      </c>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="137"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="138"/>
+      <c r="AH26" s="138"/>
+      <c r="AI26" s="138"/>
+      <c r="AJ26" s="138"/>
+      <c r="AK26" s="138"/>
+      <c r="AL26" s="138"/>
+      <c r="AM26" s="138"/>
+      <c r="AN26" s="138"/>
+      <c r="AO26" s="138"/>
+      <c r="AP26" s="138"/>
+      <c r="AQ26" s="138"/>
+      <c r="AR26" s="138"/>
+      <c r="AS26" s="138"/>
+      <c r="AT26" s="138"/>
+      <c r="AU26" s="138"/>
+      <c r="AV26" s="138"/>
+      <c r="AW26" s="138"/>
+      <c r="AX26" s="138"/>
+      <c r="AY26" s="138"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="C27" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="135"/>
+      <c r="E27" s="123">
+        <f>SUM(E3:E8)</f>
+        <v>18.5</v>
+      </c>
+      <c r="F27" s="123">
+        <f t="shared" ref="F27:M27" si="14">SUM(F3:F8)</f>
+        <v>436</v>
+      </c>
+      <c r="G27" s="123">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="H27" s="123">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="123">
+        <f t="shared" si="14"/>
+        <v>4.2650000000000006</v>
+      </c>
+      <c r="J27" s="123">
+        <f t="shared" si="14"/>
+        <v>501.38599999999997</v>
+      </c>
+      <c r="K27" s="123">
+        <f t="shared" si="14"/>
+        <v>0.18</v>
+      </c>
+      <c r="L27" s="123">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="123">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="127">
+        <f>SUM(E27:M27)</f>
+        <v>994.3309999999999</v>
+      </c>
+      <c r="O27" s="127">
+        <f>N27*19.55%</f>
+        <v>194.39171049999999</v>
+      </c>
+      <c r="S27">
+        <f>(V27+90)/[2]calliope_2!$D$11</f>
+        <v>0.96517459253889637</v>
+      </c>
+      <c r="T27">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="U27" s="127">
+        <f>V27-[2]calliope_2!$L$2</f>
+        <v>-85.732250558458134</v>
+      </c>
+      <c r="V27" s="139">
+        <f>SUM(W3:AE8)</f>
+        <v>267.21926999999999</v>
+      </c>
+      <c r="W27" s="123">
+        <f t="shared" ref="W27:AE27" si="15">SUM(W3:W8)</f>
+        <v>5.55</v>
+      </c>
+      <c r="X27" s="123">
+        <f t="shared" si="15"/>
+        <v>204.92</v>
+      </c>
+      <c r="Y27" s="123">
+        <f t="shared" si="15"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="Z27" s="123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="123">
+        <f t="shared" si="15"/>
+        <v>2.7722500000000001</v>
+      </c>
+      <c r="AB27" s="123">
+        <f t="shared" si="15"/>
+        <v>35.097020000000001</v>
+      </c>
+      <c r="AC27" s="123">
+        <f t="shared" si="15"/>
+        <v>0.18</v>
+      </c>
+      <c r="AD27" s="123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="123">
+        <f t="shared" ref="AF27" si="16">SUM(AF3:AF8)</f>
+        <v>90</v>
+      </c>
+      <c r="AG27" s="138"/>
+      <c r="AH27" s="138"/>
+      <c r="AI27" s="138"/>
+      <c r="AJ27" s="138"/>
+      <c r="AK27" s="138"/>
+      <c r="AL27" s="138"/>
+      <c r="AM27" s="138"/>
+      <c r="AN27" s="138"/>
+      <c r="AO27" s="138"/>
+      <c r="AP27" s="138"/>
+      <c r="AQ27" s="138"/>
+      <c r="AR27" s="138"/>
+      <c r="AS27" s="138"/>
+      <c r="AT27" s="138"/>
+      <c r="AU27" s="138"/>
+      <c r="AV27" s="138"/>
+      <c r="AW27" s="138"/>
+      <c r="AX27" s="138"/>
+      <c r="AY27" s="138"/>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="C28" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="135"/>
+      <c r="E28" s="123">
+        <f>SUM(E9:E16)</f>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="F28" s="123">
+        <f t="shared" ref="F28:M28" si="17">SUM(F9:F16)</f>
+        <v>1031.268</v>
+      </c>
+      <c r="G28" s="123">
+        <f t="shared" si="17"/>
+        <v>156.304</v>
+      </c>
+      <c r="H28" s="123">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="123">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="J28" s="123">
+        <f t="shared" si="17"/>
+        <v>335.57500000000005</v>
+      </c>
+      <c r="K28" s="123">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="123">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="123">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="127">
+        <f t="shared" ref="N28:N29" si="18">SUM(E28:M28)</f>
+        <v>1572.9470000000001</v>
+      </c>
+      <c r="O28" s="127">
+        <f>N28*14.02%</f>
+        <v>220.52716939999999</v>
+      </c>
+      <c r="S28">
+        <f>SUM(V28:V29)/SUM([2]calliope_2!$E$11:$F$11)</f>
+        <v>1.210630155595751</v>
+      </c>
+      <c r="T28">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="U28" s="127">
+        <f>V28-(SUM([2]calliope_2!$M$2:$N$2))</f>
+        <v>80.152327944426588</v>
+      </c>
+      <c r="V28" s="139">
+        <f>SUMPRODUCT(W9:AE16)</f>
+        <v>619.59340999999995</v>
+      </c>
+      <c r="W28" s="123">
+        <f t="shared" ref="W28:AE28" si="19">SUM(W9:W16)</f>
+        <v>5.9399999999999995</v>
+      </c>
+      <c r="X28" s="123">
+        <f t="shared" si="19"/>
+        <v>484.69595999999996</v>
+      </c>
+      <c r="Y28" s="123">
+        <f t="shared" si="19"/>
+        <v>85.967200000000005</v>
+      </c>
+      <c r="Z28" s="123">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="123">
+        <f t="shared" si="19"/>
+        <v>19.5</v>
+      </c>
+      <c r="AB28" s="123">
+        <f t="shared" si="19"/>
+        <v>23.490250000000003</v>
+      </c>
+      <c r="AC28" s="123">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="123">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="123">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="123">
+        <f t="shared" ref="AF28" si="20">SUM(AF9:AF16)</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="138"/>
+      <c r="AJ28" s="138"/>
+      <c r="AK28" s="138"/>
+      <c r="AL28" s="138"/>
+      <c r="AM28" s="138"/>
+      <c r="AN28" s="138"/>
+      <c r="AO28" s="138"/>
+      <c r="AP28" s="138"/>
+      <c r="AQ28" s="138"/>
+      <c r="AR28" s="138"/>
+      <c r="AS28" s="138"/>
+      <c r="AT28" s="138"/>
+      <c r="AU28" s="138"/>
+      <c r="AV28" s="138"/>
+      <c r="AW28" s="138"/>
+      <c r="AX28" s="138"/>
+      <c r="AY28" s="138"/>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="C29" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="135"/>
+      <c r="E29" s="123">
+        <f>SUM(E17:E22)</f>
+        <v>2.81</v>
+      </c>
+      <c r="F29" s="123">
+        <f t="shared" ref="F29:M29" si="21">SUM(F17:F22)</f>
+        <v>1018.63</v>
+      </c>
+      <c r="G29" s="123">
+        <f t="shared" si="21"/>
+        <v>319.93399999999997</v>
+      </c>
+      <c r="H29" s="123">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="123">
+        <f t="shared" si="21"/>
+        <v>0.24</v>
+      </c>
+      <c r="J29" s="123">
+        <f t="shared" si="21"/>
+        <v>735.56000000000006</v>
+      </c>
+      <c r="K29" s="123">
+        <f t="shared" si="21"/>
+        <v>1.04</v>
+      </c>
+      <c r="L29" s="123">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="123">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="127">
+        <f t="shared" si="18"/>
+        <v>2078.2139999999999</v>
+      </c>
+      <c r="O29" s="127">
+        <f>N29*31.62%</f>
+        <v>657.13126680000005</v>
+      </c>
+      <c r="T29">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="U29" s="127">
+        <f>V29-SUM([2]calliope_2!$O$2:$P$2)</f>
+        <v>199.21791289160831</v>
+      </c>
+      <c r="V29" s="139">
+        <f>SUMPRODUCT(W17:AE22)</f>
+        <v>708.24799999999993</v>
+      </c>
+      <c r="W29" s="123">
+        <f t="shared" ref="W29:AE29" si="22">SUM(W17:W22)</f>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="X29" s="123">
+        <f t="shared" si="22"/>
+        <v>478.75609999999995</v>
+      </c>
+      <c r="Y29" s="123">
+        <f t="shared" si="22"/>
+        <v>175.96370000000002</v>
+      </c>
+      <c r="Z29" s="123">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="123">
+        <f t="shared" si="22"/>
+        <v>0.156</v>
+      </c>
+      <c r="AB29" s="123">
+        <f t="shared" si="22"/>
+        <v>51.489200000000004</v>
+      </c>
+      <c r="AC29" s="123">
+        <f t="shared" si="22"/>
+        <v>1.04</v>
+      </c>
+      <c r="AD29" s="123">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="123">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="123">
+        <f t="shared" ref="AF29" si="23">SUM(AF17:AF22)</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="138"/>
+      <c r="AH29" s="138"/>
+      <c r="AI29" s="138"/>
+      <c r="AJ29" s="138"/>
+      <c r="AK29" s="138"/>
+      <c r="AL29" s="138"/>
+      <c r="AM29" s="138"/>
+      <c r="AN29" s="138"/>
+      <c r="AO29" s="138"/>
+      <c r="AP29" s="138"/>
+      <c r="AQ29" s="138"/>
+      <c r="AR29" s="138"/>
+      <c r="AS29" s="138"/>
+      <c r="AT29" s="138"/>
+      <c r="AU29" s="138"/>
+      <c r="AV29" s="138"/>
+      <c r="AW29" s="138"/>
+      <c r="AX29" s="138"/>
+      <c r="AY29" s="138"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
       <c r="E30" s="123"/>
       <c r="F30" s="123"/>
       <c r="G30" s="123"/>
@@ -6211,8 +7494,22 @@
       <c r="K30" s="123"/>
       <c r="L30" s="123"/>
       <c r="M30" s="123"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N30" s="127">
+        <f>SUM(N27:N29)</f>
+        <v>4645.4920000000002</v>
+      </c>
+      <c r="O30" s="127">
+        <f>SUM(O27:O29)</f>
+        <v>1072.0501466999999</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
       <c r="E31" s="123"/>
       <c r="F31" s="123"/>
       <c r="G31" s="123"/>
@@ -6222,8 +7519,12 @@
       <c r="K31" s="123"/>
       <c r="L31" s="123"/>
       <c r="M31" s="123"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AE31" s="137">
+        <v>6.82</v>
+      </c>
+      <c r="AF31" s="137"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E32" s="123"/>
       <c r="F32" s="123"/>
       <c r="G32" s="123"/>
@@ -6399,16 +7700,67 @@
       <c r="L47" s="123"/>
       <c r="M47" s="123"/>
     </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="123"/>
+      <c r="M48" s="123"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
+      <c r="L49" s="123"/>
+      <c r="M49" s="123"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="123"/>
+      <c r="L50" s="123"/>
+      <c r="M50" s="123"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="123"/>
+      <c r="L51" s="123"/>
+      <c r="M51" s="123"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AP1:AX1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="N1:V1"/>
     <mergeCell ref="W1:AE1"/>
-    <mergeCell ref="AF1:AN1"/>
+    <mergeCell ref="AG1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6437,39 +7789,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="135" t="s">
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
     </row>
     <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -6570,7 +7922,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="132">
+      <c r="D3" s="146">
         <v>1</v>
       </c>
       <c r="E3" s="83">
@@ -6662,7 +8014,7 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="133"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="85"/>
       <c r="F4" s="36"/>
       <c r="G4" s="37"/>
@@ -6695,7 +8047,7 @@
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="133"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="85"/>
       <c r="F5" s="36"/>
       <c r="G5" s="37"/>
@@ -6728,7 +8080,7 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="133"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="85"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -6761,7 +8113,7 @@
       <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="133"/>
+      <c r="D7" s="147"/>
       <c r="E7" s="85"/>
       <c r="F7" s="36"/>
       <c r="G7" s="37"/>
@@ -6794,7 +8146,7 @@
       <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="147"/>
       <c r="E8" s="85"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -6827,7 +8179,7 @@
       <c r="C9" s="3">
         <v>11</v>
       </c>
-      <c r="D9" s="134"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="87"/>
       <c r="F9" s="46"/>
       <c r="G9" s="47"/>
@@ -6860,7 +8212,7 @@
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="146">
         <v>2</v>
       </c>
       <c r="E10" s="83">
@@ -6951,7 +8303,7 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="134"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="87"/>
       <c r="F11" s="46"/>
       <c r="G11" s="47"/>
@@ -6984,7 +8336,7 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="146">
         <v>3</v>
       </c>
       <c r="E12" s="83">
@@ -7075,7 +8427,7 @@
       <c r="C13" s="1">
         <v>7</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="85"/>
       <c r="F13" s="36"/>
       <c r="G13" s="37"/>
@@ -7108,7 +8460,7 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="134"/>
+      <c r="D14" s="148"/>
       <c r="E14" s="87"/>
       <c r="F14" s="46"/>
       <c r="G14" s="47"/>
@@ -7147,7 +8499,7 @@
       <c r="C15" s="6">
         <v>13</v>
       </c>
-      <c r="D15" s="132">
+      <c r="D15" s="146">
         <v>4</v>
       </c>
       <c r="E15" s="83">
@@ -7235,7 +8587,7 @@
       <c r="C16" s="6">
         <v>14</v>
       </c>
-      <c r="D16" s="133"/>
+      <c r="D16" s="147"/>
       <c r="E16" s="85"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -7268,7 +8620,7 @@
       <c r="C17" s="6">
         <v>15</v>
       </c>
-      <c r="D17" s="134"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="87"/>
       <c r="F17" s="46"/>
       <c r="G17" s="47"/>
@@ -7307,7 +8659,7 @@
       <c r="C18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="132">
+      <c r="D18" s="146">
         <v>5</v>
       </c>
       <c r="E18" s="83"/>
@@ -7392,7 +8744,7 @@
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="85"/>
       <c r="F19" s="36"/>
       <c r="G19" s="37"/>
@@ -7425,7 +8777,7 @@
       <c r="C20" s="7">
         <v>18</v>
       </c>
-      <c r="D20" s="133"/>
+      <c r="D20" s="147"/>
       <c r="E20" s="85"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -7458,7 +8810,7 @@
       <c r="C21" s="7">
         <v>19</v>
       </c>
-      <c r="D21" s="133"/>
+      <c r="D21" s="147"/>
       <c r="E21" s="85"/>
       <c r="F21" s="36"/>
       <c r="G21" s="37"/>
@@ -7491,7 +8843,7 @@
       <c r="C22" s="7">
         <v>20</v>
       </c>
-      <c r="D22" s="133"/>
+      <c r="D22" s="147"/>
       <c r="E22" s="85"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -7524,7 +8876,7 @@
       <c r="C23" s="7">
         <v>21</v>
       </c>
-      <c r="D23" s="134"/>
+      <c r="D23" s="148"/>
       <c r="E23" s="87"/>
       <c r="F23" s="46"/>
       <c r="G23" s="47"/>
@@ -7563,7 +8915,7 @@
       <c r="C24" s="8">
         <v>36</v>
       </c>
-      <c r="D24" s="132">
+      <c r="D24" s="146">
         <v>7</v>
       </c>
       <c r="E24" s="83"/>
@@ -7652,7 +9004,7 @@
       <c r="C25" s="8">
         <v>37</v>
       </c>
-      <c r="D25" s="133"/>
+      <c r="D25" s="147"/>
       <c r="E25" s="85"/>
       <c r="F25" s="36"/>
       <c r="G25" s="37"/>
@@ -7685,7 +9037,7 @@
       <c r="C26" s="8">
         <v>38</v>
       </c>
-      <c r="D26" s="134"/>
+      <c r="D26" s="148"/>
       <c r="E26" s="87"/>
       <c r="F26" s="46"/>
       <c r="G26" s="47"/>
@@ -7815,7 +9167,7 @@
       <c r="C28" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="132">
+      <c r="D28" s="146">
         <v>8</v>
       </c>
       <c r="E28" s="83"/>
@@ -7902,7 +9254,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C29" s="17"/>
-      <c r="D29" s="133"/>
+      <c r="D29" s="147"/>
       <c r="E29" s="85"/>
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
@@ -7933,7 +9285,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C30" s="17"/>
-      <c r="D30" s="133"/>
+      <c r="D30" s="147"/>
       <c r="E30" s="85"/>
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
@@ -7964,7 +9316,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C31" s="17"/>
-      <c r="D31" s="133"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="85"/>
       <c r="F31" s="36"/>
       <c r="G31" s="37"/>
@@ -7995,7 +9347,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C32" s="17"/>
-      <c r="D32" s="133"/>
+      <c r="D32" s="147"/>
       <c r="E32" s="85"/>
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
@@ -8026,7 +9378,7 @@
     </row>
     <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="17"/>
-      <c r="D33" s="134"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="87"/>
       <c r="F33" s="46"/>
       <c r="G33" s="47"/>
@@ -8065,7 +9417,7 @@
       <c r="C34" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="132">
+      <c r="D34" s="146">
         <v>9</v>
       </c>
       <c r="E34" s="83">
@@ -8154,7 +9506,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C35" s="25"/>
-      <c r="D35" s="133"/>
+      <c r="D35" s="147"/>
       <c r="E35" s="85"/>
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
@@ -8185,7 +9537,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C36" s="25"/>
-      <c r="D36" s="133"/>
+      <c r="D36" s="147"/>
       <c r="E36" s="85"/>
       <c r="F36" s="36"/>
       <c r="G36" s="37"/>
@@ -8216,7 +9568,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C37" s="25"/>
-      <c r="D37" s="133"/>
+      <c r="D37" s="147"/>
       <c r="E37" s="85"/>
       <c r="F37" s="36"/>
       <c r="G37" s="37"/>
@@ -8247,7 +9599,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C38" s="25"/>
-      <c r="D38" s="133"/>
+      <c r="D38" s="147"/>
       <c r="E38" s="85"/>
       <c r="F38" s="36"/>
       <c r="G38" s="37"/>
@@ -8278,7 +9630,7 @@
     </row>
     <row r="39" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="25"/>
-      <c r="D39" s="134"/>
+      <c r="D39" s="148"/>
       <c r="E39" s="87"/>
       <c r="F39" s="46"/>
       <c r="G39" s="47"/>
@@ -9018,22 +10370,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="137" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="138" t="s">
+      <c r="B1" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="131" t="s">
         <v>71</v>
       </c>
       <c r="G1" s="120"/>
@@ -9046,13 +10398,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="120"/>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="139">
+      <c r="C2" s="132">
         <v>2.5</v>
       </c>
-      <c r="D2" s="139">
+      <c r="D2" s="132">
         <v>3</v>
       </c>
       <c r="E2" s="120"/>
@@ -9070,13 +10422,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="120"/>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="139">
+      <c r="C3" s="132">
         <v>1.65</v>
       </c>
-      <c r="D3" s="139">
+      <c r="D3" s="132">
         <v>0.13</v>
       </c>
       <c r="E3" s="120"/>
@@ -9093,13 +10445,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="120"/>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="139">
+      <c r="C4" s="132">
         <v>0.75</v>
       </c>
-      <c r="D4" s="139">
+      <c r="D4" s="132">
         <v>2</v>
       </c>
       <c r="E4" s="120"/>
@@ -9116,13 +10468,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="120"/>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="139">
+      <c r="C5" s="132">
         <v>4.5</v>
       </c>
-      <c r="D5" s="139">
+      <c r="D5" s="132">
         <v>0.5</v>
       </c>
       <c r="E5" s="120"/>
@@ -9139,13 +10491,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="120"/>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="139">
+      <c r="C6" s="132">
         <v>1.9</v>
       </c>
-      <c r="D6" s="139">
+      <c r="D6" s="132">
         <v>0.5</v>
       </c>
       <c r="E6" s="120"/>
@@ -9162,13 +10514,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="120"/>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="139">
+      <c r="C7" s="132">
         <v>1.2</v>
       </c>
-      <c r="D7" s="139">
+      <c r="D7" s="132">
         <v>3</v>
       </c>
       <c r="E7" s="120"/>
@@ -9185,13 +10537,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="120"/>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="139">
+      <c r="C8" s="132">
         <v>0.95</v>
       </c>
-      <c r="D8" s="139">
+      <c r="D8" s="132">
         <v>0.37</v>
       </c>
       <c r="E8" s="120"/>
@@ -9208,11 +10560,11 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="120"/>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="120"/>
       <c r="F9" s="120"/>
       <c r="G9" s="120"/>
@@ -9225,13 +10577,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="120"/>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="139">
+      <c r="C10" s="132">
         <v>1.88</v>
       </c>
-      <c r="D10" s="139">
+      <c r="D10" s="132">
         <v>0</v>
       </c>
       <c r="E10" s="120"/>
@@ -9248,13 +10600,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="120"/>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="139">
+      <c r="C11" s="132">
         <v>4</v>
       </c>
-      <c r="D11" s="139">
+      <c r="D11" s="132">
         <v>0</v>
       </c>
       <c r="E11" s="120"/>
@@ -9285,7 +10637,7 @@
       <c r="M12" s="120"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="130" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="120"/>

--- a/database/calliope_generators.xlsx
+++ b/database/calliope_generators.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_power_system\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C328CC-C960-46FF-893D-7D3489E4A6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412CA925-12AC-47AA-9A98-B0CA24D61982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
   <si>
     <t>bus</t>
   </si>
@@ -241,16 +241,10 @@
     <t>slwahid</t>
   </si>
   <si>
-    <t>om_cost (USD/MWh)</t>
-  </si>
-  <si>
     <t>wind_ons</t>
   </si>
   <si>
     <t>wind_offs</t>
-  </si>
-  <si>
-    <t>cap_cost (USD/MW)</t>
   </si>
   <si>
     <t>lombok_energy_outlook</t>
@@ -296,6 +290,27 @@
   </si>
   <si>
     <t>electrification ratio</t>
+  </si>
+  <si>
+    <t>v_om_cost (USD/MWh)</t>
+  </si>
+  <si>
+    <t>fix_om_cost (kUSD/MW)</t>
+  </si>
+  <si>
+    <t>fische</t>
+  </si>
+  <si>
+    <t>nrel.gov</t>
+  </si>
+  <si>
+    <t>cap_cost (mUSD/MW)</t>
+  </si>
+  <si>
+    <t>iesr</t>
+  </si>
+  <si>
+    <t>ramp rate (min-1)</t>
   </si>
 </sst>
 </file>
@@ -883,10 +898,10 @@
       <xdr:rowOff>178592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323467</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>327277</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>15715</xdr:rowOff>
+      <xdr:rowOff>19525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3370,20 +3385,21 @@
   <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA14" sqref="BA14"/>
+      <selection pane="bottomRight" activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.109375" style="120" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="8.88671875" style="120" customWidth="1"/>
-    <col min="14" max="23" width="8.88671875" customWidth="1"/>
-    <col min="31" max="32" width="8.88671875" customWidth="1"/>
-    <col min="33" max="50" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="8.88671875" style="120" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="120" hidden="1" customWidth="1"/>
+    <col min="14" max="31" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="32" max="41" width="8.88671875" customWidth="1"/>
+    <col min="42" max="50" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
@@ -3403,7 +3419,7 @@
       <c r="L1" s="144"/>
       <c r="M1" s="144"/>
       <c r="N1" s="142" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O1" s="142"/>
       <c r="P1" s="142"/>
@@ -3437,7 +3453,7 @@
       <c r="AN1" s="142"/>
       <c r="AO1" s="142"/>
       <c r="AP1" s="142" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AQ1" s="142"/>
       <c r="AR1" s="142"/>
@@ -3543,7 +3559,7 @@
         <v>9</v>
       </c>
       <c r="AF2" s="140" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AG2" s="101" t="s">
         <v>4</v>
@@ -7011,7 +7027,7 @@
       <c r="L25" s="123"/>
       <c r="M25" s="123"/>
       <c r="V25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W25" s="137">
         <v>0.52</v>
@@ -7075,13 +7091,13 @@
       <c r="L26" s="123"/>
       <c r="M26" s="123"/>
       <c r="T26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W26" s="137"/>
       <c r="X26" s="137"/>
@@ -7115,7 +7131,7 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="C27" s="120" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="135"/>
       <c r="E27" s="123">
@@ -7239,7 +7255,7 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="C28" s="120" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="135"/>
       <c r="E28" s="123">
@@ -7363,7 +7379,7 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="C29" s="120" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" s="135"/>
       <c r="E29" s="123">
@@ -7503,12 +7519,12 @@
         <v>1072.0501466999999</v>
       </c>
       <c r="AE30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="123"/>
       <c r="F31" s="123"/>
@@ -7746,7 +7762,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -7765,6 +7781,535 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3A0967-938E-4AEF-B084-DA659F2B9109}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="131" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="131" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="120"/>
+      <c r="B2" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="132">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="132">
+        <v>3</v>
+      </c>
+      <c r="E2" s="132">
+        <v>48</v>
+      </c>
+      <c r="F2" s="132">
+        <v>20</v>
+      </c>
+      <c r="G2" s="120">
+        <f>0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="H2" s="132">
+        <v>0.04</v>
+      </c>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="120"/>
+      <c r="B3" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="132">
+        <v>1.65</v>
+      </c>
+      <c r="D3" s="132">
+        <v>0.13</v>
+      </c>
+      <c r="E3" s="132">
+        <v>45</v>
+      </c>
+      <c r="F3" s="132">
+        <v>40</v>
+      </c>
+      <c r="G3" s="120">
+        <v>849</v>
+      </c>
+      <c r="H3" s="132">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
+      <c r="B4" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="132">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="132">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="132">
+        <v>23</v>
+      </c>
+      <c r="F4" s="132">
+        <v>30</v>
+      </c>
+      <c r="G4" s="120">
+        <v>433</v>
+      </c>
+      <c r="H4" s="132">
+        <v>0.12</v>
+      </c>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="120"/>
+      <c r="B5" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="132">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="132">
+        <v>0.37</v>
+      </c>
+      <c r="E5" s="132">
+        <v>20</v>
+      </c>
+      <c r="F5" s="132">
+        <v>30</v>
+      </c>
+      <c r="G5" s="120">
+        <v>38</v>
+      </c>
+      <c r="H5" s="132">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="120"/>
+      <c r="B6" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="132">
+        <v>1.9</v>
+      </c>
+      <c r="D6" s="132">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="132">
+        <v>53</v>
+      </c>
+      <c r="F6" s="132">
+        <v>80</v>
+      </c>
+      <c r="G6" s="120">
+        <v>6</v>
+      </c>
+      <c r="H6" s="132">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
+      <c r="B7" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="132">
+        <v>1.2</v>
+      </c>
+      <c r="D7" s="132">
+        <v>2.4</v>
+      </c>
+      <c r="E7" s="132">
+        <v>34.5</v>
+      </c>
+      <c r="F7" s="132">
+        <v>25</v>
+      </c>
+      <c r="G7" s="120">
+        <v>600</v>
+      </c>
+      <c r="H7" s="132">
+        <v>0.04</v>
+      </c>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="120"/>
+      <c r="B8" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="132">
+        <v>0</v>
+      </c>
+      <c r="E8" s="132">
+        <v>15</v>
+      </c>
+      <c r="F8" s="132">
+        <v>25</v>
+      </c>
+      <c r="G8" s="120">
+        <v>7</v>
+      </c>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="120"/>
+      <c r="B9" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
+      <c r="B10" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="132">
+        <v>1.88</v>
+      </c>
+      <c r="D10" s="132">
+        <v>0</v>
+      </c>
+      <c r="E10" s="132">
+        <v>60</v>
+      </c>
+      <c r="F10" s="132">
+        <v>25</v>
+      </c>
+      <c r="G10" s="120">
+        <v>8</v>
+      </c>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="120"/>
+      <c r="B11" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="132">
+        <v>4</v>
+      </c>
+      <c r="D11" s="132">
+        <v>0</v>
+      </c>
+      <c r="E11" s="132">
+        <v>124</v>
+      </c>
+      <c r="F11" s="132">
+        <v>25</v>
+      </c>
+      <c r="G11" s="120">
+        <v>12</v>
+      </c>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="120"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="120"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A63535-D95A-4D36-8C1E-9289FDA2D070}">
   <dimension ref="A1:AE93"/>
   <sheetViews>
@@ -10351,451 +10896,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3A0967-938E-4AEF-B084-DA659F2B9109}">
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="4" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="131" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="120"/>
-      <c r="B2" s="129" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="132">
-        <v>2.5</v>
-      </c>
-      <c r="D2" s="132">
-        <v>3</v>
-      </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120">
-        <f>0.5*1000</f>
-        <v>500</v>
-      </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="120"/>
-      <c r="B3" s="129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="132">
-        <v>1.65</v>
-      </c>
-      <c r="D3" s="132">
-        <v>0.13</v>
-      </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120">
-        <v>849</v>
-      </c>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
-      <c r="B4" s="129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="132">
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="132">
-        <v>2</v>
-      </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120">
-        <v>433</v>
-      </c>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
-      <c r="B5" s="129" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="132">
-        <v>4.5</v>
-      </c>
-      <c r="D5" s="132">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120">
-        <v>38</v>
-      </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
-      <c r="B6" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="132">
-        <v>1.9</v>
-      </c>
-      <c r="D6" s="132">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120">
-        <v>6</v>
-      </c>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="120"/>
-      <c r="B7" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="132">
-        <v>1.2</v>
-      </c>
-      <c r="D7" s="132">
-        <v>3</v>
-      </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120">
-        <v>600</v>
-      </c>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
-      <c r="B8" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="132">
-        <v>0.95</v>
-      </c>
-      <c r="D8" s="132">
-        <v>0.37</v>
-      </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120">
-        <v>7</v>
-      </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="129" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="129" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="132">
-        <v>1.88</v>
-      </c>
-      <c r="D10" s="132">
-        <v>0</v>
-      </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120">
-        <v>8</v>
-      </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="120"/>
-      <c r="B11" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="132">
-        <v>4</v>
-      </c>
-      <c r="D11" s="132">
-        <v>0</v>
-      </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120">
-        <v>12</v>
-      </c>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="120"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="120"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="120"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="120"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="120"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="120"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/database/calliope_generators.xlsx
+++ b/database/calliope_generators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_power_system\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412CA925-12AC-47AA-9A98-B0CA24D61982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A37EA3-7C8E-44FF-A89B-B562416BF4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
+    <workbookView xWindow="11304" yWindow="24" windowWidth="11760" windowHeight="12360" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
@@ -621,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -864,6 +864,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3044,8 +3046,8 @@
       <sheetName val="-jr28gpurfjy0ufw0 (3)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="L2">
@@ -3076,10 +3078,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3382,13 +3384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF83E7F3-B837-43E6-BF88-00ED77709958}">
-  <dimension ref="A1:AY56"/>
+  <dimension ref="A1:BA56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK7" sqref="AK7"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3402,7 +3404,7 @@
     <col min="42" max="50" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C1" s="143">
         <v>2021</v>
       </c>
@@ -3464,7 +3466,7 @@
       <c r="AW1" s="142"/>
       <c r="AX1" s="142"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3616,7 +3618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="126">
         <v>0.86423333300000005</v>
       </c>
@@ -3774,8 +3776,9 @@
       <c r="AX3" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA3" s="151"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="126">
         <v>4.5260000000000002E-2</v>
       </c>
@@ -3935,8 +3938,9 @@
       <c r="AX4" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA4" s="151"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="126">
         <v>1.1174249999999999</v>
       </c>
@@ -4099,8 +4103,9 @@
       <c r="AX5" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA5" s="151"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="126">
         <v>0.17745</v>
       </c>
@@ -4260,8 +4265,9 @@
       <c r="AX6" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA6" s="151"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="126">
         <v>6.3899999999999998E-2</v>
       </c>
@@ -4421,8 +4427,9 @@
       <c r="AX7" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA7" s="151"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="126">
         <v>-1.7742</v>
       </c>
@@ -4583,8 +4590,9 @@
       <c r="AX8" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA8" s="151"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="126">
         <v>-2.6152000000000002</v>
       </c>
@@ -4745,8 +4753,9 @@
       <c r="AX9" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA9" s="151"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="126">
         <v>-2.6220500000000002</v>
       </c>
@@ -4906,8 +4915,9 @@
       <c r="AX10" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA10" s="151"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="126">
         <v>-2.1166</v>
       </c>
@@ -5067,8 +5077,9 @@
       <c r="AX11" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA11" s="151"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="126">
         <v>-2.8550333330000002</v>
       </c>
@@ -5228,8 +5239,9 @@
       <c r="AX12" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA12" s="151"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="126">
         <v>-0.74419999999999997</v>
       </c>
@@ -5390,8 +5402,9 @@
       <c r="AX13" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA13" s="151"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="126">
         <v>-3.4291333329999998</v>
       </c>
@@ -5553,8 +5566,9 @@
       <c r="AX14" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA14" s="151"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="126">
         <v>-2.26065</v>
       </c>
@@ -5714,8 +5728,9 @@
       <c r="AX15" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BA15" s="151"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="126">
         <v>-3.5974499999999998</v>
       </c>
@@ -5875,8 +5890,9 @@
       <c r="AX16" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BA16" s="151"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A17" s="126">
         <v>-1.761425</v>
       </c>
@@ -6035,8 +6051,9 @@
       <c r="AX17" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BA17" s="151"/>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A18" s="126">
         <v>-1.190416667</v>
       </c>
@@ -6197,8 +6214,9 @@
       <c r="AX18" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BA18" s="151"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A19" s="126">
         <v>-0.48473333299999999</v>
       </c>
@@ -6360,8 +6378,9 @@
       <c r="AX19" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BA19" s="151"/>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A20" s="126">
         <v>0.31574999999999998</v>
       </c>
@@ -6378,8 +6397,8 @@
         <v>0</v>
       </c>
       <c r="F20" s="111">
-        <f>'[1]Sheet 1'!$F$370+'[1]Sheet 1'!$F$371+'[1]Sheet 1'!$F$380+'[1]Sheet 1'!$F$385+'[1]Sheet 1'!$F$386</f>
-        <v>277.63</v>
+        <f>'[1]Sheet 1'!$F$370+'[1]Sheet 1'!$F$371+'[1]Sheet 1'!$F$380</f>
+        <v>259</v>
       </c>
       <c r="G20" s="112">
         <f>'[1]Sheet 1'!$F$372+'[1]Sheet 1'!$F$373+'[1]Sheet 1'!$F$374+'[1]Sheet 1'!$F$375+'[1]Sheet 1'!$F$376+'[1]Sheet 1'!$F$377+'[1]Sheet 1'!$F$379</f>
@@ -6437,7 +6456,7 @@
       </c>
       <c r="X20" s="111">
         <f t="shared" si="2"/>
-        <v>130.48609999999999</v>
+        <v>121.72999999999999</v>
       </c>
       <c r="Y20" s="112">
         <f t="shared" si="3"/>
@@ -6522,8 +6541,9 @@
       <c r="AX20" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BA20" s="151"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A21" s="126">
         <v>1.0532999999999999</v>
       </c>
@@ -6541,8 +6561,8 @@
         <v>0.81</v>
       </c>
       <c r="F21" s="111">
-        <f>+'[1]Sheet 1'!$F$388+'[1]Sheet 1'!$F$405</f>
-        <v>39</v>
+        <f>+'[1]Sheet 1'!$F$388+'[1]Sheet 1'!$F$405+'[1]Sheet 1'!$F$385+'[1]Sheet 1'!$F$386</f>
+        <v>57.63</v>
       </c>
       <c r="G21" s="112">
         <v>0</v>
@@ -6599,7 +6619,7 @@
       </c>
       <c r="X21" s="111">
         <f t="shared" si="2"/>
-        <v>18.329999999999998</v>
+        <v>27.086099999999998</v>
       </c>
       <c r="Y21" s="112">
         <f t="shared" si="3"/>
@@ -6684,8 +6704,9 @@
       <c r="AX21" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BA21" s="151"/>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A22" s="126">
         <v>3.2987666670000002</v>
       </c>
@@ -6848,8 +6869,9 @@
       <c r="AX22" s="118">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BA22" s="151"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C23" s="124" t="s">
         <v>60</v>
       </c>
@@ -6934,7 +6956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D24" s="134">
         <f>SUM(W23:AE23)+AF5</f>
         <v>1685.0606800000003</v>
@@ -6944,7 +6966,9 @@
       <c r="G24" s="123"/>
       <c r="H24" s="123"/>
       <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
+      <c r="J24" s="150">
+        <v>227.99</v>
+      </c>
       <c r="K24" s="123"/>
       <c r="L24" s="123"/>
       <c r="M24" s="123"/>
@@ -7012,7 +7036,7 @@
       <c r="AX24" s="120"/>
       <c r="AY24" s="120"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D25" s="135">
         <f>SUMPRODUCT(E3:M22,AG3:AO22)</f>
         <v>1424.3024999999996</v>
@@ -7022,7 +7046,10 @@
       <c r="G25" s="123"/>
       <c r="H25" s="123"/>
       <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
+      <c r="J25" s="123">
+        <f>J24/J23</f>
+        <v>0.1449837553838709</v>
+      </c>
       <c r="K25" s="123"/>
       <c r="L25" s="123"/>
       <c r="M25" s="123"/>
@@ -7079,14 +7106,17 @@
       <c r="AX25" s="138"/>
       <c r="AY25" s="138"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D26" s="135"/>
       <c r="E26" s="123"/>
       <c r="F26" s="123"/>
       <c r="G26" s="123"/>
       <c r="H26" s="123"/>
       <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
+      <c r="J26" s="123">
+        <f>J24-J23</f>
+        <v>-1344.5309999999997</v>
+      </c>
       <c r="K26" s="123"/>
       <c r="L26" s="123"/>
       <c r="M26" s="123"/>
@@ -7129,7 +7159,7 @@
       <c r="AX26" s="138"/>
       <c r="AY26" s="138"/>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C27" s="120" t="s">
         <v>75</v>
       </c>
@@ -7253,7 +7283,7 @@
       <c r="AX27" s="138"/>
       <c r="AY27" s="138"/>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C28" s="120" t="s">
         <v>76</v>
       </c>
@@ -7377,7 +7407,7 @@
       <c r="AX28" s="138"/>
       <c r="AY28" s="138"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C29" s="120" t="s">
         <v>77</v>
       </c>
@@ -7443,7 +7473,7 @@
       </c>
       <c r="X29" s="123">
         <f t="shared" si="22"/>
-        <v>478.75609999999995</v>
+        <v>478.7561</v>
       </c>
       <c r="Y29" s="123">
         <f t="shared" si="22"/>
@@ -7497,7 +7527,7 @@
       <c r="AX29" s="138"/>
       <c r="AY29" s="138"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -7522,7 +7552,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -7540,7 +7570,7 @@
       </c>
       <c r="AF31" s="137"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
       <c r="E32" s="123"/>
       <c r="F32" s="123"/>
       <c r="G32" s="123"/>
@@ -7785,7 +7815,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7987,13 +8017,14 @@
         <v>7</v>
       </c>
       <c r="C7" s="132">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="132">
         <v>2.4</v>
       </c>
       <c r="E7" s="132">
-        <v>34.5</v>
+        <f>0.02*1000</f>
+        <v>20</v>
       </c>
       <c r="F7" s="132">
         <v>25</v>

--- a/database/calliope_generators.xlsx
+++ b/database/calliope_generators.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_power_system\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_energy_transition\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A37EA3-7C8E-44FF-A89B-B562416BF4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA99FDD1-F6E6-4855-97C9-2190CC195F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11304" yWindow="24" windowWidth="11760" windowHeight="12360" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
+    <workbookView xWindow="11244" yWindow="24" windowWidth="11892" windowHeight="8880" activeTab="1" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="esdm" sheetId="3" r:id="rId2"/>
+    <sheet name="ruptl" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="91">
   <si>
     <t>bus</t>
   </si>
@@ -311,6 +312,9 @@
   </si>
   <si>
     <t>ramp rate (min-1)</t>
+  </si>
+  <si>
+    <t>diesel</t>
   </si>
 </sst>
 </file>
@@ -621,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -840,6 +844,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,8 +870,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3383,6 +3393,536 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3A0967-938E-4AEF-B084-DA659F2B9109}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="131" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="131" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="120"/>
+      <c r="B2" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="132">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="132">
+        <v>3</v>
+      </c>
+      <c r="E2" s="132">
+        <v>48</v>
+      </c>
+      <c r="F2" s="132">
+        <v>20</v>
+      </c>
+      <c r="G2" s="120">
+        <f>0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="H2" s="132">
+        <v>0.04</v>
+      </c>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="120"/>
+      <c r="B3" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="132">
+        <v>1.65</v>
+      </c>
+      <c r="D3" s="132">
+        <v>0.13</v>
+      </c>
+      <c r="E3" s="132">
+        <v>45</v>
+      </c>
+      <c r="F3" s="132">
+        <v>40</v>
+      </c>
+      <c r="G3" s="120">
+        <v>849</v>
+      </c>
+      <c r="H3" s="132">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
+      <c r="B4" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="132">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="132">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="132">
+        <v>23</v>
+      </c>
+      <c r="F4" s="132">
+        <v>30</v>
+      </c>
+      <c r="G4" s="120">
+        <v>433</v>
+      </c>
+      <c r="H4" s="132">
+        <v>0.12</v>
+      </c>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="120"/>
+      <c r="B5" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="132">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="132">
+        <v>0.37</v>
+      </c>
+      <c r="E5" s="132">
+        <v>20</v>
+      </c>
+      <c r="F5" s="132">
+        <v>30</v>
+      </c>
+      <c r="G5" s="120">
+        <v>38</v>
+      </c>
+      <c r="H5" s="132">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="120"/>
+      <c r="B6" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="132">
+        <v>1.9</v>
+      </c>
+      <c r="D6" s="132">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="132">
+        <v>53</v>
+      </c>
+      <c r="F6" s="132">
+        <v>80</v>
+      </c>
+      <c r="G6" s="120">
+        <v>6</v>
+      </c>
+      <c r="H6" s="132">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
+      <c r="B7" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="132">
+        <v>1</v>
+      </c>
+      <c r="D7" s="132">
+        <v>2.4</v>
+      </c>
+      <c r="E7" s="132">
+        <f>0.02*1000</f>
+        <v>20</v>
+      </c>
+      <c r="F7" s="132">
+        <v>25</v>
+      </c>
+      <c r="G7" s="120">
+        <v>600</v>
+      </c>
+      <c r="H7" s="132">
+        <v>0.04</v>
+      </c>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="120"/>
+      <c r="B8" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="132">
+        <v>0</v>
+      </c>
+      <c r="E8" s="132">
+        <v>15</v>
+      </c>
+      <c r="F8" s="132">
+        <v>25</v>
+      </c>
+      <c r="G8" s="120">
+        <v>7</v>
+      </c>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="120"/>
+      <c r="B9" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
+      <c r="B10" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="132">
+        <v>1.88</v>
+      </c>
+      <c r="D10" s="132">
+        <v>0</v>
+      </c>
+      <c r="E10" s="132">
+        <v>60</v>
+      </c>
+      <c r="F10" s="132">
+        <v>25</v>
+      </c>
+      <c r="G10" s="120">
+        <v>8</v>
+      </c>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="120"/>
+      <c r="B11" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="132">
+        <v>4</v>
+      </c>
+      <c r="D11" s="132">
+        <v>0</v>
+      </c>
+      <c r="E11" s="132">
+        <v>124</v>
+      </c>
+      <c r="F11" s="132">
+        <v>25</v>
+      </c>
+      <c r="G11" s="120">
+        <v>12</v>
+      </c>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="120"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="120"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF83E7F3-B837-43E6-BF88-00ED77709958}">
   <dimension ref="A1:BA56"/>
   <sheetViews>
@@ -3390,7 +3930,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3405,66 +3945,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="C1" s="143">
+      <c r="C1" s="145">
         <v>2021</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="144" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="142" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="145" t="s">
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
       <c r="AF1" s="128"/>
-      <c r="AG1" s="142" t="s">
+      <c r="AG1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="142"/>
-      <c r="AJ1" s="142"/>
-      <c r="AK1" s="142"/>
-      <c r="AL1" s="142"/>
-      <c r="AM1" s="142"/>
-      <c r="AN1" s="142"/>
-      <c r="AO1" s="142"/>
-      <c r="AP1" s="142" t="s">
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="144"/>
+      <c r="AJ1" s="144"/>
+      <c r="AK1" s="144"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="144"/>
+      <c r="AN1" s="144"/>
+      <c r="AO1" s="144"/>
+      <c r="AP1" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="142"/>
-      <c r="AT1" s="142"/>
-      <c r="AU1" s="142"/>
-      <c r="AV1" s="142"/>
-      <c r="AW1" s="142"/>
-      <c r="AX1" s="142"/>
+      <c r="AQ1" s="144"/>
+      <c r="AR1" s="144"/>
+      <c r="AS1" s="144"/>
+      <c r="AT1" s="144"/>
+      <c r="AU1" s="144"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="144"/>
+      <c r="AX1" s="144"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3776,7 +4316,7 @@
       <c r="AX3" s="118">
         <v>1</v>
       </c>
-      <c r="BA3" s="151"/>
+      <c r="BA3" s="143"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="126">
@@ -3938,7 +4478,7 @@
       <c r="AX4" s="118">
         <v>1</v>
       </c>
-      <c r="BA4" s="151"/>
+      <c r="BA4" s="143"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="126">
@@ -4103,7 +4643,7 @@
       <c r="AX5" s="118">
         <v>1</v>
       </c>
-      <c r="BA5" s="151"/>
+      <c r="BA5" s="143"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="126">
@@ -4119,14 +4659,14 @@
         <v>24</v>
       </c>
       <c r="E6" s="110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="111">
         <f>'[1]Sheet 1'!$F$89+'[1]Sheet 1'!$F$90+'[1]Sheet 1'!$F$91</f>
         <v>27</v>
       </c>
       <c r="G6" s="112">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H6" s="113">
         <v>0</v>
@@ -4177,7 +4717,7 @@
       </c>
       <c r="W6" s="110">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X6" s="111">
         <f t="shared" si="2"/>
@@ -4185,7 +4725,7 @@
       </c>
       <c r="Y6" s="112">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18.700000000000003</v>
       </c>
       <c r="Z6" s="113">
         <f t="shared" si="4"/>
@@ -4265,7 +4805,7 @@
       <c r="AX6" s="118">
         <v>1</v>
       </c>
-      <c r="BA6" s="151"/>
+      <c r="BA6" s="143"/>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="126">
@@ -4281,21 +4821,20 @@
         <v>26</v>
       </c>
       <c r="E7" s="110">
-        <f>'[1]Sheet 1'!$F$25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="111">
         <v>0</v>
       </c>
       <c r="G7" s="112">
-        <f>'[1]Sheet 1'!$F$19</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H7" s="113">
         <v>0</v>
       </c>
       <c r="I7" s="114">
-        <v>0</v>
+        <f>'[1]Sheet 1'!$F$31+'[1]Sheet 1'!$F$32+'[1]Sheet 1'!$F$34+'[1]Sheet 1'!$F$55+'[1]Sheet 1'!$F$111</f>
+        <v>3.9650000000000003</v>
       </c>
       <c r="J7" s="115">
         <v>166.49600000000001</v>
@@ -4338,7 +4877,7 @@
       </c>
       <c r="W7" s="110">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X7" s="111">
         <f t="shared" si="2"/>
@@ -4346,7 +4885,7 @@
       </c>
       <c r="Y7" s="112">
         <f t="shared" si="3"/>
-        <v>18.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="113">
         <f t="shared" si="4"/>
@@ -4354,7 +4893,7 @@
       </c>
       <c r="AA7" s="114">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.5772500000000003</v>
       </c>
       <c r="AB7" s="115">
         <f t="shared" si="6"/>
@@ -4427,7 +4966,7 @@
       <c r="AX7" s="118">
         <v>1</v>
       </c>
-      <c r="BA7" s="151"/>
+      <c r="BA7" s="143"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="126">
@@ -4590,7 +5129,7 @@
       <c r="AX8" s="118">
         <v>1</v>
       </c>
-      <c r="BA8" s="151"/>
+      <c r="BA8" s="143"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="126">
@@ -4753,7 +5292,7 @@
       <c r="AX9" s="118">
         <v>1</v>
       </c>
-      <c r="BA9" s="151"/>
+      <c r="BA9" s="143"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="126">
@@ -4915,7 +5454,7 @@
       <c r="AX10" s="118">
         <v>1</v>
       </c>
-      <c r="BA10" s="151"/>
+      <c r="BA10" s="143"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="126">
@@ -5077,7 +5616,7 @@
       <c r="AX11" s="118">
         <v>1</v>
       </c>
-      <c r="BA11" s="151"/>
+      <c r="BA11" s="143"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="126">
@@ -5239,7 +5778,7 @@
       <c r="AX12" s="118">
         <v>1</v>
       </c>
-      <c r="BA12" s="151"/>
+      <c r="BA12" s="143"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="126">
@@ -5402,7 +5941,7 @@
       <c r="AX13" s="118">
         <v>1</v>
       </c>
-      <c r="BA13" s="151"/>
+      <c r="BA13" s="143"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="126">
@@ -5566,7 +6105,7 @@
       <c r="AX14" s="118">
         <v>1</v>
       </c>
-      <c r="BA14" s="151"/>
+      <c r="BA14" s="143"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="126">
@@ -5728,7 +6267,7 @@
       <c r="AX15" s="118">
         <v>1</v>
       </c>
-      <c r="BA15" s="151"/>
+      <c r="BA15" s="143"/>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="126">
@@ -5890,7 +6429,7 @@
       <c r="AX16" s="118">
         <v>1</v>
       </c>
-      <c r="BA16" s="151"/>
+      <c r="BA16" s="143"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A17" s="126">
@@ -6051,7 +6590,7 @@
       <c r="AX17" s="118">
         <v>1</v>
       </c>
-      <c r="BA17" s="151"/>
+      <c r="BA17" s="143"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A18" s="126">
@@ -6214,7 +6753,7 @@
       <c r="AX18" s="118">
         <v>1</v>
       </c>
-      <c r="BA18" s="151"/>
+      <c r="BA18" s="143"/>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A19" s="126">
@@ -6378,7 +6917,7 @@
       <c r="AX19" s="118">
         <v>1</v>
       </c>
-      <c r="BA19" s="151"/>
+      <c r="BA19" s="143"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A20" s="126">
@@ -6541,7 +7080,7 @@
       <c r="AX20" s="118">
         <v>1</v>
       </c>
-      <c r="BA20" s="151"/>
+      <c r="BA20" s="143"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A21" s="126">
@@ -6704,7 +7243,7 @@
       <c r="AX21" s="118">
         <v>1</v>
       </c>
-      <c r="BA21" s="151"/>
+      <c r="BA21" s="143"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A22" s="126">
@@ -6869,7 +7408,7 @@
       <c r="AX22" s="118">
         <v>1</v>
       </c>
-      <c r="BA22" s="151"/>
+      <c r="BA22" s="143"/>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C23" s="124" t="s">
@@ -6877,7 +7416,7 @@
       </c>
       <c r="D23" s="125">
         <f>SUM(E23:M23)</f>
-        <v>4645.4920000000002</v>
+        <v>4649.4569999999994</v>
       </c>
       <c r="E23" s="123">
         <f>SUM(E3:E22)</f>
@@ -6897,7 +7436,7 @@
       </c>
       <c r="I23" s="123">
         <f t="shared" si="10"/>
-        <v>34.505000000000003</v>
+        <v>38.470000000000006</v>
       </c>
       <c r="J23" s="123">
         <f t="shared" si="10"/>
@@ -6933,7 +7472,7 @@
       </c>
       <c r="AA23" s="127">
         <f t="shared" si="11"/>
-        <v>22.428249999999998</v>
+        <v>25.005499999999998</v>
       </c>
       <c r="AB23" s="127">
         <f t="shared" si="11"/>
@@ -6959,14 +7498,14 @@
     <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D24" s="134">
         <f>SUM(W23:AE23)+AF5</f>
-        <v>1685.0606800000003</v>
+        <v>1687.6379300000003</v>
       </c>
       <c r="E24" s="123"/>
       <c r="F24" s="123"/>
       <c r="G24" s="123"/>
       <c r="H24" s="123"/>
       <c r="I24" s="123"/>
-      <c r="J24" s="150">
+      <c r="J24" s="142">
         <v>227.99</v>
       </c>
       <c r="K24" s="123"/>
@@ -6978,15 +7517,15 @@
       </c>
       <c r="W24" s="136">
         <f>W23/$D$24*100</f>
-        <v>0.73190242620817658</v>
+        <v>0.73078471280862933</v>
       </c>
       <c r="X24" s="136">
         <f t="shared" ref="X24:AF24" si="13">X23/$D$24*100</f>
-        <v>69.337091172289405</v>
+        <v>69.231204112602512</v>
       </c>
       <c r="Y24" s="136">
         <f t="shared" si="13"/>
-        <v>16.654053075406161</v>
+        <v>16.62862009743997</v>
       </c>
       <c r="Z24" s="136">
         <f t="shared" si="13"/>
@@ -6994,15 +7533,15 @@
       </c>
       <c r="AA24" s="136">
         <f t="shared" si="13"/>
-        <v>1.3310054804673261</v>
+        <v>1.4816862998569837</v>
       </c>
       <c r="AB24" s="136">
         <f t="shared" si="13"/>
-        <v>6.5324929426280347</v>
+        <v>6.5225169476962384</v>
       </c>
       <c r="AC24" s="136">
         <f t="shared" si="13"/>
-        <v>7.2400953537174684E-2</v>
+        <v>7.2290387547760307E-2</v>
       </c>
       <c r="AD24" s="136">
         <f t="shared" si="13"/>
@@ -7014,7 +7553,7 @@
       </c>
       <c r="AF24" s="136">
         <f t="shared" si="13"/>
-        <v>5.3410539494637064</v>
+        <v>5.3328974420478907</v>
       </c>
       <c r="AG24" s="120"/>
       <c r="AH24" s="120"/>
@@ -7039,7 +7578,7 @@
     <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D25" s="135">
         <f>SUMPRODUCT(E3:M22,AG3:AO22)</f>
-        <v>1424.3024999999996</v>
+        <v>1425.6109499999995</v>
       </c>
       <c r="E25" s="123"/>
       <c r="F25" s="123"/>
@@ -7163,7 +7702,10 @@
       <c r="C27" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="135"/>
+      <c r="D27" s="152">
+        <f>SUM(E27:L27)+AF27</f>
+        <v>1088.2959999999998</v>
+      </c>
       <c r="E27" s="123">
         <f>SUM(E3:E8)</f>
         <v>18.5</v>
@@ -7182,7 +7724,7 @@
       </c>
       <c r="I27" s="123">
         <f t="shared" si="14"/>
-        <v>4.2650000000000006</v>
+        <v>8.23</v>
       </c>
       <c r="J27" s="123">
         <f t="shared" si="14"/>
@@ -7202,26 +7744,26 @@
       </c>
       <c r="N27" s="127">
         <f>SUM(E27:M27)</f>
-        <v>994.3309999999999</v>
+        <v>998.29599999999994</v>
       </c>
       <c r="O27" s="127">
         <f>N27*19.55%</f>
-        <v>194.39171049999999</v>
+        <v>195.16686799999999</v>
       </c>
       <c r="S27">
         <f>(V27+90)/[2]calliope_2!$D$11</f>
-        <v>0.96517459253889637</v>
+        <v>0.97213809206852952</v>
       </c>
       <c r="T27">
         <v>0.93240000000000001</v>
       </c>
       <c r="U27" s="127">
         <f>V27-[2]calliope_2!$L$2</f>
-        <v>-85.732250558458134</v>
+        <v>-83.155000558458141</v>
       </c>
       <c r="V27" s="139">
         <f>SUM(W3:AE8)</f>
-        <v>267.21926999999999</v>
+        <v>269.79651999999999</v>
       </c>
       <c r="W27" s="123">
         <f t="shared" ref="W27:AE27" si="15">SUM(W3:W8)</f>
@@ -7241,7 +7783,7 @@
       </c>
       <c r="AA27" s="123">
         <f t="shared" si="15"/>
-        <v>2.7722500000000001</v>
+        <v>5.3495000000000008</v>
       </c>
       <c r="AB27" s="123">
         <f t="shared" si="15"/>
@@ -7287,45 +7829,48 @@
       <c r="C28" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="135"/>
+      <c r="D28" s="152">
+        <f t="shared" ref="D28:D29" si="17">SUM(E28:L28)+AF28</f>
+        <v>1572.9470000000001</v>
+      </c>
       <c r="E28" s="123">
         <f>SUM(E9:E16)</f>
         <v>19.799999999999997</v>
       </c>
       <c r="F28" s="123">
-        <f t="shared" ref="F28:M28" si="17">SUM(F9:F16)</f>
+        <f t="shared" ref="F28:M28" si="18">SUM(F9:F16)</f>
         <v>1031.268</v>
       </c>
       <c r="G28" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156.304</v>
       </c>
       <c r="H28" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I28" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="J28" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>335.57500000000005</v>
       </c>
       <c r="K28" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L28" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M28" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N28" s="127">
-        <f t="shared" ref="N28:N29" si="18">SUM(E28:M28)</f>
+        <f t="shared" ref="N28:N29" si="19">SUM(E28:M28)</f>
         <v>1572.9470000000001</v>
       </c>
       <c r="O28" s="127">
@@ -7348,43 +7893,43 @@
         <v>619.59340999999995</v>
       </c>
       <c r="W28" s="123">
-        <f t="shared" ref="W28:AE28" si="19">SUM(W9:W16)</f>
+        <f t="shared" ref="W28:AE28" si="20">SUM(W9:W16)</f>
         <v>5.9399999999999995</v>
       </c>
       <c r="X28" s="123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>484.69595999999996</v>
       </c>
       <c r="Y28" s="123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>85.967200000000005</v>
       </c>
       <c r="Z28" s="123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA28" s="123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>19.5</v>
       </c>
       <c r="AB28" s="123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23.490250000000003</v>
       </c>
       <c r="AC28" s="123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AD28" s="123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE28" s="123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF28" s="123">
-        <f t="shared" ref="AF28" si="20">SUM(AF9:AF16)</f>
+        <f t="shared" ref="AF28" si="21">SUM(AF9:AF16)</f>
         <v>0</v>
       </c>
       <c r="AG28" s="138"/>
@@ -7411,45 +7956,48 @@
       <c r="C29" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="135"/>
+      <c r="D29" s="152">
+        <f t="shared" si="17"/>
+        <v>2078.2139999999999</v>
+      </c>
       <c r="E29" s="123">
         <f>SUM(E17:E22)</f>
         <v>2.81</v>
       </c>
       <c r="F29" s="123">
-        <f t="shared" ref="F29:M29" si="21">SUM(F17:F22)</f>
+        <f t="shared" ref="F29:M29" si="22">SUM(F17:F22)</f>
         <v>1018.63</v>
       </c>
       <c r="G29" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>319.93399999999997</v>
       </c>
       <c r="H29" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I29" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.24</v>
       </c>
       <c r="J29" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>735.56000000000006</v>
       </c>
       <c r="K29" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.04</v>
       </c>
       <c r="L29" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M29" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N29" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2078.2139999999999</v>
       </c>
       <c r="O29" s="127">
@@ -7468,43 +8016,43 @@
         <v>708.24799999999993</v>
       </c>
       <c r="W29" s="123">
-        <f t="shared" ref="W29:AE29" si="22">SUM(W17:W22)</f>
+        <f t="shared" ref="W29:AE29" si="23">SUM(W17:W22)</f>
         <v>0.84299999999999997</v>
       </c>
       <c r="X29" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>478.7561</v>
       </c>
       <c r="Y29" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>175.96370000000002</v>
       </c>
       <c r="Z29" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AA29" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.156</v>
       </c>
       <c r="AB29" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>51.489200000000004</v>
       </c>
       <c r="AC29" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.04</v>
       </c>
       <c r="AD29" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AE29" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF29" s="123">
-        <f t="shared" ref="AF29" si="23">SUM(AF17:AF22)</f>
+        <f t="shared" ref="AF29" si="24">SUM(AF17:AF22)</f>
         <v>0</v>
       </c>
       <c r="AG29" s="138"/>
@@ -7531,6 +8079,7 @@
       <c r="A30" t="s">
         <v>63</v>
       </c>
+      <c r="D30" s="153"/>
       <c r="E30" s="123"/>
       <c r="F30" s="123"/>
       <c r="G30" s="123"/>
@@ -7542,11 +8091,11 @@
       <c r="M30" s="123"/>
       <c r="N30" s="127">
         <f>SUM(N27:N29)</f>
-        <v>4645.4920000000002</v>
+        <v>4649.4570000000003</v>
       </c>
       <c r="O30" s="127">
         <f>SUM(O27:O29)</f>
-        <v>1072.0501466999999</v>
+        <v>1072.8253042000001</v>
       </c>
       <c r="AE30" t="s">
         <v>74</v>
@@ -7810,537 +8359,671 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3A0967-938E-4AEF-B084-DA659F2B9109}">
-  <dimension ref="A1:N22"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCC6C22-F4D3-4FD5-B3E7-30320A6E2BB0}">
+  <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="5" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="131" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-    </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="120"/>
-      <c r="B2" s="129" t="s">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="132">
-        <v>2.5</v>
-      </c>
-      <c r="D2" s="132">
+      <c r="F2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="132">
-        <v>48</v>
-      </c>
-      <c r="F2" s="132">
+      <c r="G2" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="140" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="126">
+        <v>0.86423333300000005</v>
+      </c>
+      <c r="B3" s="126">
+        <v>108.9092</v>
+      </c>
+      <c r="C3" s="127">
+        <f>SUM(E3:N8)</f>
+        <v>956.90000000000009</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111">
+        <f>100+100</f>
+        <v>200</v>
+      </c>
+      <c r="G3" s="112"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115">
+        <v>90</v>
+      </c>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="141"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="126">
+        <v>4.5260000000000002E-2</v>
+      </c>
+      <c r="B4" s="126">
+        <v>109.23968000000001</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="110">
+        <v>15</v>
+      </c>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="141"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="126">
+        <v>1.1174249999999999</v>
+      </c>
+      <c r="B5" s="126">
+        <v>109.55835</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="110"/>
+      <c r="F5" s="111">
+        <v>100</v>
+      </c>
+      <c r="G5" s="112"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="115"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="141">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="126">
+        <v>0.17745</v>
+      </c>
+      <c r="B6" s="126">
+        <v>110.0471</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="110">
+        <v>7</v>
+      </c>
+      <c r="F6" s="111"/>
+      <c r="G6" s="112">
+        <v>100</v>
+      </c>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="141"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="126">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="B7" s="126">
+        <v>110.9554667</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="F7" s="111">
+        <f>14+21</f>
+        <v>35</v>
+      </c>
+      <c r="G7" s="112"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114">
+        <f>1.2+0.4</f>
+        <v>1.6</v>
+      </c>
+      <c r="J7" s="115">
+        <f>6+7.7+12.9+13+4+6.2+4+3.5+12+8+9+8+2</f>
+        <v>96.300000000000011</v>
+      </c>
+      <c r="K7" s="116"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="141"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="126">
+        <v>-1.7742</v>
+      </c>
+      <c r="B8" s="126">
+        <v>110.0303</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="110">
+        <v>7</v>
+      </c>
+      <c r="F8" s="111">
+        <f>20</f>
         <v>20</v>
       </c>
-      <c r="G2" s="120">
-        <f>0.5*1000</f>
-        <v>500</v>
-      </c>
-      <c r="H2" s="132">
-        <v>0.04</v>
-      </c>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="120"/>
-      <c r="B3" s="129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="132">
-        <v>1.65</v>
-      </c>
-      <c r="D3" s="132">
-        <v>0.13</v>
-      </c>
-      <c r="E3" s="132">
-        <v>45</v>
-      </c>
-      <c r="F3" s="132">
+      <c r="G8" s="112"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115">
+        <f>23+1.2+2.8+0.8+5.9+10+3.5+6+1</f>
+        <v>54.2</v>
+      </c>
+      <c r="K8" s="116"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="141"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="126">
+        <v>-2.6152000000000002</v>
+      </c>
+      <c r="B9" s="126">
+        <v>111.7037</v>
+      </c>
+      <c r="C9" s="127">
+        <f>SUM(E9:N13)</f>
+        <v>734</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="115">
+        <f>6+10+3</f>
+        <v>19</v>
+      </c>
+      <c r="K9" s="116"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="141"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="126">
+        <v>-2.6220500000000002</v>
+      </c>
+      <c r="B10" s="126">
+        <v>112.91540000000001</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115">
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="K10" s="116"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="141"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="126">
+        <v>-2.1166</v>
+      </c>
+      <c r="B11" s="126">
+        <v>113.7459333</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115">
+        <f>5+34+2</f>
+        <v>41</v>
+      </c>
+      <c r="K11" s="116"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="141"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="126">
+        <v>-2.8550333330000002</v>
+      </c>
+      <c r="B12" s="126">
+        <v>114.2789667</v>
+      </c>
+      <c r="D12" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111">
+        <v>120</v>
+      </c>
+      <c r="G12" s="112"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="141"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="126">
+        <v>-0.74419999999999997</v>
+      </c>
+      <c r="B13" s="126">
+        <v>115.00215</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="110">
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="F13" s="111">
+        <f>211</f>
+        <v>211</v>
+      </c>
+      <c r="G13" s="112">
+        <f>156+140</f>
+        <v>296</v>
+      </c>
+      <c r="H13" s="113"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115">
+        <f>21+4+5</f>
+        <v>30</v>
+      </c>
+      <c r="K13" s="116"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="141"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="126">
+        <v>-3.4291333329999998</v>
+      </c>
+      <c r="B14" s="126">
+        <v>114.7738222</v>
+      </c>
+      <c r="C14" s="127">
+        <f>SUM(E14:N16)</f>
+        <v>666.94</v>
+      </c>
+      <c r="D14" s="119" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111">
+        <f>55</f>
+        <v>55</v>
+      </c>
+      <c r="G14" s="112">
+        <v>21</v>
+      </c>
+      <c r="H14" s="113"/>
+      <c r="I14" s="114">
+        <v>30</v>
+      </c>
+      <c r="J14" s="115">
+        <v>87.74</v>
+      </c>
+      <c r="K14" s="116"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="141"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="126">
+        <v>-2.26065</v>
+      </c>
+      <c r="B15" s="126">
+        <v>115.26295</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111">
+        <v>260</v>
+      </c>
+      <c r="G15" s="112"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115">
+        <f>6.81+2.12</f>
+        <v>8.93</v>
+      </c>
+      <c r="K15" s="116"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="141"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="126">
+        <v>-3.5974499999999998</v>
+      </c>
+      <c r="B16" s="126">
+        <v>115.7526</v>
+      </c>
+      <c r="D16" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111">
+        <v>200</v>
+      </c>
+      <c r="G16" s="112"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="115">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K16" s="116"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="141"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="126">
+        <v>-1.761425</v>
+      </c>
+      <c r="B17" s="126">
+        <v>116.11315</v>
+      </c>
+      <c r="C17" s="127">
+        <f>SUM(E17:M21)</f>
+        <v>1523.4</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="115">
+        <f>133.3+20+44.5</f>
+        <v>197.8</v>
+      </c>
+      <c r="K17" s="116"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="141"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="126">
+        <v>-1.190416667</v>
+      </c>
+      <c r="B18" s="126">
+        <v>116.87775000000001</v>
+      </c>
+      <c r="D18" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="110"/>
+      <c r="F18" s="111">
+        <f>220+50</f>
+        <v>270</v>
+      </c>
+      <c r="G18" s="112">
+        <f>200+80+53.1+82+35+4</f>
+        <v>454.1</v>
+      </c>
+      <c r="H18" s="113"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="141"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="126">
+        <v>-0.48473333299999999</v>
+      </c>
+      <c r="B19" s="126">
+        <v>117.0814444</v>
+      </c>
+      <c r="D19" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="110"/>
+      <c r="F19" s="111">
+        <v>550</v>
+      </c>
+      <c r="G19" s="112"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="141"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="126">
+        <v>0.31574999999999998</v>
+      </c>
+      <c r="B20" s="126">
+        <v>117.50215</v>
+      </c>
+      <c r="D20" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="115">
+        <f>4.4+3.8+7.8</f>
+        <v>16</v>
+      </c>
+      <c r="K20" s="116"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="141"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="126">
+        <v>1.0532999999999999</v>
+      </c>
+      <c r="B21" s="126">
+        <v>116.92149999999999</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="G21" s="112"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="115">
+        <f>16.1+4.4</f>
+        <v>20.5</v>
+      </c>
+      <c r="K21" s="116"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="141"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="126">
+        <v>3.2987666670000002</v>
+      </c>
+      <c r="B22" s="126">
+        <v>116.9458333</v>
+      </c>
+      <c r="C22" s="127">
+        <f>SUM(E22:N22)</f>
+        <v>175.55</v>
+      </c>
+      <c r="D22" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="120">
-        <v>849</v>
-      </c>
-      <c r="H3" s="132">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
-      <c r="B4" s="129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="132">
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="132">
-        <v>2.5</v>
-      </c>
-      <c r="E4" s="132">
-        <v>23</v>
-      </c>
-      <c r="F4" s="132">
-        <v>30</v>
-      </c>
-      <c r="G4" s="120">
-        <v>433</v>
-      </c>
-      <c r="H4" s="132">
-        <v>0.12</v>
-      </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
-      <c r="B5" s="129" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="132">
-        <v>4.5</v>
-      </c>
-      <c r="D5" s="132">
-        <v>0.37</v>
-      </c>
-      <c r="E5" s="132">
-        <v>20</v>
-      </c>
-      <c r="F5" s="132">
-        <v>30</v>
-      </c>
-      <c r="G5" s="120">
+      <c r="E22" s="110"/>
+      <c r="F22" s="111">
+        <f>5+3.5+17</f>
+        <v>25.5</v>
+      </c>
+      <c r="G22" s="112">
+        <f>17.82+12+5+6+24.4+10</f>
+        <v>75.22</v>
+      </c>
+      <c r="H22" s="113"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="115">
+        <f>13.26+17.43+12+4.96+7.63+16.4+2.35+0.8</f>
+        <v>74.83</v>
+      </c>
+      <c r="K22" s="116"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="141"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D23" s="125">
+        <f>SUM(E23:M23)</f>
+        <v>3826.7900000000004</v>
+      </c>
+      <c r="E23" s="123">
+        <f>SUM(E3:E22)</f>
         <v>38</v>
       </c>
-      <c r="H5" s="132">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
-      <c r="B6" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="132">
-        <v>1.9</v>
-      </c>
-      <c r="D6" s="132">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="132">
-        <v>53</v>
-      </c>
-      <c r="F6" s="132">
-        <v>80</v>
-      </c>
-      <c r="G6" s="120">
-        <v>6</v>
-      </c>
-      <c r="H6" s="132">
-        <v>0.3</v>
-      </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="120"/>
-      <c r="B7" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="132">
-        <v>1</v>
-      </c>
-      <c r="D7" s="132">
-        <v>2.4</v>
-      </c>
-      <c r="E7" s="132">
-        <f>0.02*1000</f>
-        <v>20</v>
-      </c>
-      <c r="F7" s="132">
-        <v>25</v>
-      </c>
-      <c r="G7" s="120">
-        <v>600</v>
-      </c>
-      <c r="H7" s="132">
-        <v>0.04</v>
-      </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
-      <c r="B8" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="132">
-        <v>0.7</v>
-      </c>
-      <c r="D8" s="132">
-        <v>0</v>
-      </c>
-      <c r="E8" s="132">
-        <v>15</v>
-      </c>
-      <c r="F8" s="132">
-        <v>25</v>
-      </c>
-      <c r="G8" s="120">
-        <v>7</v>
-      </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="129" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="129" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="132">
-        <v>1.88</v>
-      </c>
-      <c r="D10" s="132">
-        <v>0</v>
-      </c>
-      <c r="E10" s="132">
-        <v>60</v>
-      </c>
-      <c r="F10" s="132">
-        <v>25</v>
-      </c>
-      <c r="G10" s="120">
-        <v>8</v>
-      </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="120"/>
-      <c r="B11" s="133" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="132">
-        <v>4</v>
-      </c>
-      <c r="D11" s="132">
-        <v>0</v>
-      </c>
-      <c r="E11" s="132">
-        <v>124</v>
-      </c>
-      <c r="F11" s="132">
-        <v>25</v>
-      </c>
-      <c r="G11" s="120">
-        <v>12</v>
-      </c>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+      <c r="F23" s="123">
+        <f t="shared" ref="F23:M23" si="0">SUM(F3:F22)</f>
+        <v>2061.5</v>
+      </c>
+      <c r="G23" s="123">
+        <f t="shared" si="0"/>
+        <v>946.32</v>
+      </c>
+      <c r="H23" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="123">
+        <f t="shared" si="0"/>
+        <v>32.4</v>
+      </c>
+      <c r="J23" s="123">
+        <f>SUM(J3:J22)</f>
+        <v>748.57</v>
+      </c>
+      <c r="K23" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="127">
+        <f t="shared" ref="N23" si="1">SUM(N3:N22)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D25" s="127"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="120" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="120"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="120"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="120"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A63535-D95A-4D36-8C1E-9289FDA2D070}">
   <dimension ref="A1:AE93"/>
   <sheetViews>
@@ -8365,39 +9048,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142" t="s">
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="149" t="s">
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
     </row>
     <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -8498,7 +9181,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="146">
+      <c r="D3" s="148">
         <v>1</v>
       </c>
       <c r="E3" s="83">
@@ -8590,7 +9273,7 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="147"/>
+      <c r="D4" s="149"/>
       <c r="E4" s="85"/>
       <c r="F4" s="36"/>
       <c r="G4" s="37"/>
@@ -8623,7 +9306,7 @@
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="147"/>
+      <c r="D5" s="149"/>
       <c r="E5" s="85"/>
       <c r="F5" s="36"/>
       <c r="G5" s="37"/>
@@ -8656,7 +9339,7 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="147"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="85"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -8689,7 +9372,7 @@
       <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="147"/>
+      <c r="D7" s="149"/>
       <c r="E7" s="85"/>
       <c r="F7" s="36"/>
       <c r="G7" s="37"/>
@@ -8722,7 +9405,7 @@
       <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="147"/>
+      <c r="D8" s="149"/>
       <c r="E8" s="85"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -8755,7 +9438,7 @@
       <c r="C9" s="3">
         <v>11</v>
       </c>
-      <c r="D9" s="148"/>
+      <c r="D9" s="150"/>
       <c r="E9" s="87"/>
       <c r="F9" s="46"/>
       <c r="G9" s="47"/>
@@ -8788,7 +9471,7 @@
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="146">
+      <c r="D10" s="148">
         <v>2</v>
       </c>
       <c r="E10" s="83">
@@ -8879,7 +9562,7 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="148"/>
+      <c r="D11" s="150"/>
       <c r="E11" s="87"/>
       <c r="F11" s="46"/>
       <c r="G11" s="47"/>
@@ -8912,7 +9595,7 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="146">
+      <c r="D12" s="148">
         <v>3</v>
       </c>
       <c r="E12" s="83">
@@ -9003,7 +9686,7 @@
       <c r="C13" s="1">
         <v>7</v>
       </c>
-      <c r="D13" s="147"/>
+      <c r="D13" s="149"/>
       <c r="E13" s="85"/>
       <c r="F13" s="36"/>
       <c r="G13" s="37"/>
@@ -9036,7 +9719,7 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="148"/>
+      <c r="D14" s="150"/>
       <c r="E14" s="87"/>
       <c r="F14" s="46"/>
       <c r="G14" s="47"/>
@@ -9075,7 +9758,7 @@
       <c r="C15" s="6">
         <v>13</v>
       </c>
-      <c r="D15" s="146">
+      <c r="D15" s="148">
         <v>4</v>
       </c>
       <c r="E15" s="83">
@@ -9163,7 +9846,7 @@
       <c r="C16" s="6">
         <v>14</v>
       </c>
-      <c r="D16" s="147"/>
+      <c r="D16" s="149"/>
       <c r="E16" s="85"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -9196,7 +9879,7 @@
       <c r="C17" s="6">
         <v>15</v>
       </c>
-      <c r="D17" s="148"/>
+      <c r="D17" s="150"/>
       <c r="E17" s="87"/>
       <c r="F17" s="46"/>
       <c r="G17" s="47"/>
@@ -9235,7 +9918,7 @@
       <c r="C18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="146">
+      <c r="D18" s="148">
         <v>5</v>
       </c>
       <c r="E18" s="83"/>
@@ -9320,7 +10003,7 @@
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="147"/>
+      <c r="D19" s="149"/>
       <c r="E19" s="85"/>
       <c r="F19" s="36"/>
       <c r="G19" s="37"/>
@@ -9353,7 +10036,7 @@
       <c r="C20" s="7">
         <v>18</v>
       </c>
-      <c r="D20" s="147"/>
+      <c r="D20" s="149"/>
       <c r="E20" s="85"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -9386,7 +10069,7 @@
       <c r="C21" s="7">
         <v>19</v>
       </c>
-      <c r="D21" s="147"/>
+      <c r="D21" s="149"/>
       <c r="E21" s="85"/>
       <c r="F21" s="36"/>
       <c r="G21" s="37"/>
@@ -9419,7 +10102,7 @@
       <c r="C22" s="7">
         <v>20</v>
       </c>
-      <c r="D22" s="147"/>
+      <c r="D22" s="149"/>
       <c r="E22" s="85"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -9452,7 +10135,7 @@
       <c r="C23" s="7">
         <v>21</v>
       </c>
-      <c r="D23" s="148"/>
+      <c r="D23" s="150"/>
       <c r="E23" s="87"/>
       <c r="F23" s="46"/>
       <c r="G23" s="47"/>
@@ -9491,7 +10174,7 @@
       <c r="C24" s="8">
         <v>36</v>
       </c>
-      <c r="D24" s="146">
+      <c r="D24" s="148">
         <v>7</v>
       </c>
       <c r="E24" s="83"/>
@@ -9580,7 +10263,7 @@
       <c r="C25" s="8">
         <v>37</v>
       </c>
-      <c r="D25" s="147"/>
+      <c r="D25" s="149"/>
       <c r="E25" s="85"/>
       <c r="F25" s="36"/>
       <c r="G25" s="37"/>
@@ -9613,7 +10296,7 @@
       <c r="C26" s="8">
         <v>38</v>
       </c>
-      <c r="D26" s="148"/>
+      <c r="D26" s="150"/>
       <c r="E26" s="87"/>
       <c r="F26" s="46"/>
       <c r="G26" s="47"/>
@@ -9743,7 +10426,7 @@
       <c r="C28" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="146">
+      <c r="D28" s="148">
         <v>8</v>
       </c>
       <c r="E28" s="83"/>
@@ -9830,7 +10513,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C29" s="17"/>
-      <c r="D29" s="147"/>
+      <c r="D29" s="149"/>
       <c r="E29" s="85"/>
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
@@ -9861,7 +10544,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C30" s="17"/>
-      <c r="D30" s="147"/>
+      <c r="D30" s="149"/>
       <c r="E30" s="85"/>
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
@@ -9892,7 +10575,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C31" s="17"/>
-      <c r="D31" s="147"/>
+      <c r="D31" s="149"/>
       <c r="E31" s="85"/>
       <c r="F31" s="36"/>
       <c r="G31" s="37"/>
@@ -9923,7 +10606,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C32" s="17"/>
-      <c r="D32" s="147"/>
+      <c r="D32" s="149"/>
       <c r="E32" s="85"/>
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
@@ -9954,7 +10637,7 @@
     </row>
     <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="17"/>
-      <c r="D33" s="148"/>
+      <c r="D33" s="150"/>
       <c r="E33" s="87"/>
       <c r="F33" s="46"/>
       <c r="G33" s="47"/>
@@ -9993,7 +10676,7 @@
       <c r="C34" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="146">
+      <c r="D34" s="148">
         <v>9</v>
       </c>
       <c r="E34" s="83">
@@ -10082,7 +10765,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C35" s="25"/>
-      <c r="D35" s="147"/>
+      <c r="D35" s="149"/>
       <c r="E35" s="85"/>
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
@@ -10113,7 +10796,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C36" s="25"/>
-      <c r="D36" s="147"/>
+      <c r="D36" s="149"/>
       <c r="E36" s="85"/>
       <c r="F36" s="36"/>
       <c r="G36" s="37"/>
@@ -10144,7 +10827,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C37" s="25"/>
-      <c r="D37" s="147"/>
+      <c r="D37" s="149"/>
       <c r="E37" s="85"/>
       <c r="F37" s="36"/>
       <c r="G37" s="37"/>
@@ -10175,7 +10858,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C38" s="25"/>
-      <c r="D38" s="147"/>
+      <c r="D38" s="149"/>
       <c r="E38" s="85"/>
       <c r="F38" s="36"/>
       <c r="G38" s="37"/>
@@ -10206,7 +10889,7 @@
     </row>
     <row r="39" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="25"/>
-      <c r="D39" s="148"/>
+      <c r="D39" s="150"/>
       <c r="E39" s="87"/>
       <c r="F39" s="46"/>
       <c r="G39" s="47"/>

--- a/database/calliope_generators.xlsx
+++ b/database/calliope_generators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_energy_transition\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702FC859-F282-465B-824F-6528029D688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6D8AF2-2A7C-43AB-AA5E-3F408C186D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="0" windowWidth="11772" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
+    <workbookView xWindow="11292" yWindow="36" windowWidth="11748" windowHeight="12048" firstSheet="4" activeTab="4" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,14 @@
     <sheet name="ruptl" sheetId="4" r:id="rId3"/>
     <sheet name="esdm+ruptl_2030" sheetId="5" r:id="rId4"/>
     <sheet name="esdm+ruptl_2050" sheetId="8" r:id="rId5"/>
-    <sheet name="solar_iesr" sheetId="6" r:id="rId6"/>
-    <sheet name="wind_sergio" sheetId="7" r:id="rId7"/>
+    <sheet name="esdm+ruptl_2050 (2)" sheetId="10" r:id="rId6"/>
+    <sheet name="solar_iesr" sheetId="6" r:id="rId7"/>
+    <sheet name="wind_sergio" sheetId="7" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="103">
   <si>
     <t>bus</t>
   </si>
@@ -349,14 +351,21 @@
   <si>
     <t>ENS</t>
   </si>
+  <si>
+    <t>EBTKE</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -524,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,6 +650,15 @@
     <xf numFmtId="4" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,13 +752,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>178592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>603502</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>146302</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -764,8 +782,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5664992"/>
-          <a:ext cx="9555097" cy="4230053"/>
+          <a:off x="0" y="6331742"/>
+          <a:ext cx="9557002" cy="4184333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -783,13 +801,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>178592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>603502</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>494917</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -813,8 +831,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6030752"/>
-          <a:ext cx="9557002" cy="4230053"/>
+          <a:off x="0" y="6331742"/>
+          <a:ext cx="9534142" cy="4184333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>178592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>494917</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6844D22-A07C-40D0-9377-453EE9FF75D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6396512"/>
+          <a:ext cx="9532237" cy="4230053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2976,7 +3043,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3031,6 +3098,51 @@
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="pypsa"/>
+      <sheetName val="calliope_1"/>
+      <sheetName val="calliope_2021"/>
+      <sheetName val="calliope_2030"/>
+      <sheetName val="calliope_2050"/>
+      <sheetName val="2021"/>
+      <sheetName val="2030"/>
+      <sheetName val="2050"/>
+      <sheetName val="-jr28gpurfjy0ufw0"/>
+      <sheetName val="-jr28gpurfjy0ufw0 (2)"/>
+      <sheetName val="-jr28gpurfjy0ufw0 (3)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="8763">
+          <cell r="S8763">
+            <v>27060000.000000205</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="8763">
+          <cell r="S8763">
+            <v>32559192.941232059</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3888,66 +4000,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="C1" s="61">
+      <c r="C1" s="66">
         <v>2021</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="60" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="63" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
       <c r="AF1" s="30"/>
-      <c r="AG1" s="60" t="s">
+      <c r="AG1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60" t="s">
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8969,89 +9081,93 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1685931-9D67-474D-B2F7-31728626DDB2}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:BA64"/>
+  <dimension ref="A1:BA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="13.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="8.88671875" style="22" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.88671875" style="22" customWidth="1"/>
     <col min="14" max="31" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="32" max="41" width="8.88671875" customWidth="1"/>
+    <col min="32" max="32" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="8.88671875" customWidth="1"/>
     <col min="42" max="50" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="C1" s="61">
+      <c r="C1" s="66">
         <v>2021</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="60" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="63" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
       <c r="AF1" s="47"/>
-      <c r="AG1" s="60" t="s">
+      <c r="AG1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60" t="s">
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -9637,7 +9753,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="43"/>
+      <c r="AF5" s="43">
+        <v>230</v>
+      </c>
       <c r="AG5" s="12">
         <v>0.28999999999999998</v>
       </c>
@@ -12880,318 +12998,226 @@
       </c>
       <c r="AF25" s="29">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D26" s="36" t="e">
-        <f>SUM(W25:AE25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="44">
-        <v>227.99</v>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="25">
+        <f>E25*8760</f>
+        <v>1942179.6</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" ref="F26:J26" si="15">F25*8760</f>
+        <v>17417770.800000001</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="15"/>
+        <v>9167164.8000000007</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="25">
+        <f t="shared" si="15"/>
+        <v>10665037.200000001</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" si="15"/>
+        <v>6560337.7200000016</v>
       </c>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
-      <c r="V26" s="29" t="e">
-        <f>SUM(W26:AF26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W26" s="38" t="e">
-        <f>W25/$D$26*100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X26" s="38" t="e">
-        <f t="shared" ref="X26:AF26" si="15">X25/$D$26*100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y26" s="38" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z26" s="38" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA26" s="38" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB26" s="38" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC26" s="38" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD26" s="38" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE26" s="38" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF26" s="38" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="22"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="22"/>
-      <c r="AP26" s="22"/>
-      <c r="AQ26" s="22"/>
-      <c r="AR26" s="22"/>
-      <c r="AS26" s="22"/>
-      <c r="AT26" s="22"/>
-      <c r="AU26" s="22"/>
-      <c r="AV26" s="22"/>
-      <c r="AW26" s="22"/>
-      <c r="AX26" s="22"/>
-      <c r="AY26" s="22"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="25">
+        <f t="shared" ref="AF26" si="16">AF25*8760</f>
+        <v>2014800</v>
+      </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D27" s="37">
-        <f>SUMPRODUCT(E3:M24,AG3:AO24)</f>
-        <v>2192.9997500000009</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25">
-        <f>J26/J25</f>
-        <v>0.30443438817354052</v>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62">
+        <f>E26*0.9/[3]calliope_2030!$S$8763</f>
+        <v>6.459577383591969E-2</v>
+      </c>
+      <c r="F27" s="62">
+        <f>F26*0.9/[3]calliope_2030!$S$8763</f>
+        <v>0.57930501552105995</v>
+      </c>
+      <c r="G27" s="62">
+        <f>G26*0.9/[3]calliope_2030!$S$8763</f>
+        <v>0.30489461640797999</v>
+      </c>
+      <c r="H27" s="62">
+        <f>H26*0.9/[3]calliope_2030!$S$8763</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="62">
+        <f>I26*0.9/[3]calliope_2030!$S$8763</f>
+        <v>0.35471298891352282</v>
+      </c>
+      <c r="J27" s="62">
+        <f>J26*0.9/[3]calliope_2030!$S$8763</f>
+        <v>0.21819305055432214</v>
       </c>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
-      <c r="V27" t="s">
-        <v>69</v>
-      </c>
-      <c r="W27" s="39">
-        <v>0.52</v>
-      </c>
-      <c r="X27" s="39">
-        <v>68.58</v>
-      </c>
-      <c r="Y27" s="39">
-        <v>16.3</v>
-      </c>
-      <c r="Z27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="39">
-        <v>1.04</v>
-      </c>
-      <c r="AB27" s="39">
-        <v>6.73</v>
-      </c>
-      <c r="AC27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="39">
-        <v>6.82</v>
-      </c>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="40"/>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="40"/>
-      <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
-      <c r="AP27" s="40"/>
-      <c r="AQ27" s="40"/>
-      <c r="AR27" s="40"/>
-      <c r="AS27" s="40"/>
-      <c r="AT27" s="40"/>
-      <c r="AU27" s="40"/>
-      <c r="AV27" s="40"/>
-      <c r="AW27" s="40"/>
-      <c r="AX27" s="40"/>
-      <c r="AY27" s="40"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="25">
+        <f>AF26*0.9/[3]calliope_2030!$S$8763</f>
+        <v>6.7011086474500603E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D28" s="37"/>
+      <c r="D28" s="36" t="e">
+        <f>SUM(W25:AE25)</f>
+        <v>#REF!</v>
+      </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="25">
-        <f>J26-J25</f>
-        <v>-520.90700000000015</v>
+      <c r="J28" s="44">
+        <v>227.99</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
-      <c r="T28" t="s">
-        <v>78</v>
-      </c>
-      <c r="U28" t="s">
-        <v>77</v>
-      </c>
-      <c r="V28" t="s">
-        <v>76</v>
-      </c>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="40"/>
-      <c r="AI28" s="40"/>
-      <c r="AJ28" s="40"/>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="40"/>
-      <c r="AM28" s="40"/>
-      <c r="AN28" s="40"/>
-      <c r="AO28" s="40"/>
-      <c r="AP28" s="40"/>
-      <c r="AQ28" s="40"/>
-      <c r="AR28" s="40"/>
-      <c r="AS28" s="40"/>
-      <c r="AT28" s="40"/>
-      <c r="AU28" s="40"/>
-      <c r="AV28" s="40"/>
-      <c r="AW28" s="40"/>
-      <c r="AX28" s="40"/>
-      <c r="AY28" s="40"/>
+      <c r="V28" s="29" t="e">
+        <f>SUM(W28:AF28)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W28" s="38" t="e">
+        <f>W25/$D$28*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X28" s="38" t="e">
+        <f t="shared" ref="X28:AF28" si="17">X25/$D$28*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y28" s="38" t="e">
+        <f t="shared" si="17"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z28" s="38" t="e">
+        <f t="shared" si="17"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA28" s="38" t="e">
+        <f t="shared" si="17"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AB28" s="38" t="e">
+        <f t="shared" si="17"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AC28" s="38" t="e">
+        <f t="shared" si="17"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AD28" s="38" t="e">
+        <f t="shared" si="17"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE28" s="38" t="e">
+        <f t="shared" si="17"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF28" s="38" t="e">
+        <f t="shared" si="17"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="22"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="C29" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="48">
-        <f>SUM(E29:K29)+AF29</f>
-        <v>1691.2750000000001</v>
-      </c>
-      <c r="E29" s="25">
-        <f>SUM(E3:E9)</f>
-        <v>185.5</v>
-      </c>
-      <c r="F29" s="25">
-        <f t="shared" ref="F29:M29" si="16">SUM(F3:F9)</f>
-        <v>573</v>
-      </c>
-      <c r="G29" s="25">
-        <f t="shared" si="16"/>
-        <v>300</v>
-      </c>
-      <c r="H29" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="25">
-        <f t="shared" si="16"/>
-        <v>134.22999999999999</v>
-      </c>
+      <c r="D29" s="37">
+        <f>SUMPRODUCT(E3:M24,AG3:AO24)</f>
+        <v>2192.9997500000009</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="25">
-        <f t="shared" si="16"/>
-        <v>328.82499999999999</v>
-      </c>
-      <c r="K29" s="25">
-        <f t="shared" si="16"/>
-        <v>169.72</v>
-      </c>
-      <c r="L29" s="25">
-        <f t="shared" ref="L29" si="17">SUM(L3:L9)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="29">
-        <f>SUM(E29:M29)</f>
-        <v>1691.2750000000001</v>
-      </c>
-      <c r="O29" s="29">
-        <f>N29*19.55%</f>
-        <v>330.64426250000002</v>
-      </c>
-      <c r="S29" t="e">
-        <f>(V29+90)/[2]calliope_2!$D$11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T29">
-        <v>0.93240000000000001</v>
-      </c>
-      <c r="U29" s="29" t="e">
-        <f>V29-[2]calliope_2!$L$2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V29" s="41" t="e">
-        <f>SUM(W3:AE9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W29" s="25">
-        <f t="shared" ref="W29:AF29" si="18">SUM(W3:W9)</f>
-        <v>55.65</v>
-      </c>
-      <c r="X29" s="25">
-        <f t="shared" si="18"/>
-        <v>269.31</v>
-      </c>
-      <c r="Y29" s="25">
-        <f t="shared" si="18"/>
-        <v>165</v>
-      </c>
-      <c r="Z29" s="25">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="25">
-        <f t="shared" si="18"/>
-        <v>87.249499999999998</v>
-      </c>
-      <c r="AB29" s="25">
-        <f t="shared" si="18"/>
-        <v>23.017750000000003</v>
-      </c>
-      <c r="AC29" s="25">
-        <f t="shared" si="18"/>
-        <v>169.72</v>
-      </c>
-      <c r="AD29" s="25" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE29" s="25">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="25">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>J28/J25</f>
+        <v>0.30443438817354052</v>
+      </c>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="V29" t="s">
+        <v>69</v>
+      </c>
+      <c r="W29" s="39">
+        <v>0.52</v>
+      </c>
+      <c r="X29" s="39">
+        <v>68.58</v>
+      </c>
+      <c r="Y29" s="39">
+        <v>16.3</v>
+      </c>
+      <c r="Z29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="39">
+        <v>1.04</v>
+      </c>
+      <c r="AB29" s="39">
+        <v>6.73</v>
+      </c>
+      <c r="AC29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="39">
+        <v>6.82</v>
       </c>
       <c r="AG29" s="40"/>
       <c r="AH29" s="40"/>
@@ -13214,112 +13240,38 @@
       <c r="AY29" s="40"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="C30" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="48">
-        <f>SUM(E30:K30)+AF30</f>
-        <v>1749.761</v>
-      </c>
-      <c r="E30" s="25">
-        <f>SUM(E10:E17)</f>
-        <v>35.4</v>
-      </c>
-      <c r="F30" s="25">
-        <f t="shared" ref="F30:M30" si="19">SUM(F10:F17)</f>
-        <v>635.20000000000005</v>
-      </c>
-      <c r="G30" s="25">
-        <f t="shared" si="19"/>
-        <v>439.07600000000002</v>
-      </c>
-      <c r="H30" s="25">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="25">
-        <f t="shared" si="19"/>
-        <v>430</v>
-      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="25">
-        <f t="shared" si="19"/>
-        <v>178.435</v>
-      </c>
-      <c r="K30" s="25">
-        <f t="shared" si="19"/>
-        <v>31.650000000000002</v>
-      </c>
-      <c r="L30" s="25">
-        <f t="shared" ref="L30" si="20">SUM(L10:L17)</f>
-        <v>70</v>
-      </c>
-      <c r="M30" s="25">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="29">
-        <f>SUM(E30:M30)</f>
-        <v>1819.761</v>
-      </c>
-      <c r="O30" s="29">
-        <f>N30*14.02%</f>
-        <v>255.13049219999999</v>
-      </c>
-      <c r="S30" t="e">
-        <f>SUM(V30:V31)/SUM([2]calliope_2!$E$11:$F$11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T30">
-        <v>0.95479999999999998</v>
-      </c>
-      <c r="U30" s="29" t="e">
-        <f>V30-(SUM([2]calliope_2!$M$2:$N$2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V30" s="41" t="e">
-        <f>SUMPRODUCT(W10:AE17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W30" s="25">
-        <f t="shared" ref="W30:AF30" si="21">SUM(W10:W17)</f>
-        <v>10.620000000000001</v>
-      </c>
-      <c r="X30" s="25">
-        <f t="shared" si="21"/>
-        <v>298.54399999999998</v>
-      </c>
-      <c r="Y30" s="25">
-        <f t="shared" si="21"/>
-        <v>241.49180000000001</v>
-      </c>
-      <c r="Z30" s="25">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="25">
-        <f t="shared" si="21"/>
-        <v>279.5</v>
-      </c>
-      <c r="AB30" s="25">
-        <f t="shared" si="21"/>
-        <v>12.490449999999999</v>
-      </c>
-      <c r="AC30" s="25">
-        <f t="shared" si="21"/>
-        <v>31.650000000000002</v>
-      </c>
-      <c r="AD30" s="25" t="e">
-        <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE30" s="25">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="25">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+        <f>J28-J25</f>
+        <v>-520.90700000000015</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="T30" t="s">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s">
+        <v>76</v>
+      </c>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
       <c r="AG30" s="40"/>
       <c r="AH30" s="40"/>
       <c r="AI30" s="40"/>
@@ -13342,106 +13294,110 @@
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C31" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" s="48">
         <f>SUM(E31:K31)+AF31</f>
-        <v>2088.9209999999998</v>
+        <v>1921.2750000000001</v>
       </c>
       <c r="E31" s="25">
-        <f>SUM(E18:E24)</f>
-        <v>0.81</v>
+        <f>SUM(E3:E9)</f>
+        <v>185.5</v>
       </c>
       <c r="F31" s="25">
-        <f t="shared" ref="F31:M31" si="22">SUM(F18:F24)</f>
-        <v>780.13</v>
+        <f t="shared" ref="F31:M31" si="18">SUM(F3:F9)</f>
+        <v>573</v>
       </c>
       <c r="G31" s="25">
-        <f t="shared" si="22"/>
-        <v>307.404</v>
+        <f t="shared" si="18"/>
+        <v>300</v>
       </c>
       <c r="H31" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I31" s="25">
-        <f t="shared" si="22"/>
-        <v>653.24</v>
+        <f t="shared" si="18"/>
+        <v>134.22999999999999</v>
       </c>
       <c r="J31" s="25">
-        <f t="shared" si="22"/>
-        <v>241.63700000000006</v>
+        <f t="shared" si="18"/>
+        <v>328.82499999999999</v>
       </c>
       <c r="K31" s="25">
-        <f t="shared" si="22"/>
-        <v>105.7</v>
+        <f t="shared" si="18"/>
+        <v>169.72</v>
       </c>
       <c r="L31" s="25">
-        <f t="shared" ref="L31" si="23">SUM(L18:L24)</f>
+        <f t="shared" ref="L31" si="19">SUM(L3:L9)</f>
         <v>0</v>
       </c>
       <c r="M31" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N31" s="29">
         <f>SUM(E31:M31)</f>
-        <v>2088.9209999999998</v>
+        <v>1691.2750000000001</v>
       </c>
       <c r="O31" s="29">
-        <f>N31*31.62%</f>
-        <v>660.51682019999998</v>
+        <f>N31*19.55%</f>
+        <v>330.64426250000002</v>
+      </c>
+      <c r="S31" t="e">
+        <f>(V31+90)/[2]calliope_2!$D$11</f>
+        <v>#REF!</v>
       </c>
       <c r="T31">
-        <v>0.94810000000000005</v>
+        <v>0.93240000000000001</v>
       </c>
       <c r="U31" s="29" t="e">
-        <f>V31-SUM([2]calliope_2!$O$2:$P$2)</f>
+        <f>V31-[2]calliope_2!$L$2</f>
         <v>#REF!</v>
       </c>
       <c r="V31" s="41" t="e">
-        <f>SUMPRODUCT(W18:AE24)</f>
+        <f>SUM(W3:AE9)</f>
         <v>#REF!</v>
       </c>
       <c r="W31" s="25">
-        <f t="shared" ref="W31:AF31" si="24">SUM(W18:W24)</f>
-        <v>0.24299999999999999</v>
+        <f t="shared" ref="W31:AF31" si="20">SUM(W3:W9)</f>
+        <v>55.65</v>
       </c>
       <c r="X31" s="25">
-        <f t="shared" si="24"/>
-        <v>366.66109999999998</v>
+        <f t="shared" si="20"/>
+        <v>269.31</v>
       </c>
       <c r="Y31" s="25">
-        <f t="shared" si="24"/>
-        <v>169.07220000000004</v>
+        <f t="shared" si="20"/>
+        <v>165</v>
       </c>
       <c r="Z31" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA31" s="25">
-        <f t="shared" si="24"/>
-        <v>424.60599999999999</v>
+        <f t="shared" si="20"/>
+        <v>87.249499999999998</v>
       </c>
       <c r="AB31" s="25">
-        <f t="shared" si="24"/>
-        <v>16.914590000000004</v>
+        <f t="shared" si="20"/>
+        <v>23.017750000000003</v>
       </c>
       <c r="AC31" s="25">
-        <f t="shared" si="24"/>
-        <v>105.7</v>
+        <f t="shared" si="20"/>
+        <v>169.72</v>
       </c>
       <c r="AD31" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>#REF!</v>
       </c>
       <c r="AE31" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF31" s="25">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>230</v>
       </c>
       <c r="AG31" s="40"/>
       <c r="AH31" s="40"/>
@@ -13464,50 +13420,260 @@
       <c r="AY31" s="40"/>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C32" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="48">
+        <f>SUM(E32:K32)+AF32</f>
+        <v>1749.761</v>
+      </c>
+      <c r="E32" s="25">
+        <f>SUM(E10:E17)</f>
+        <v>35.4</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" ref="F32:M32" si="21">SUM(F10:F17)</f>
+        <v>635.20000000000005</v>
+      </c>
+      <c r="G32" s="25">
+        <f t="shared" si="21"/>
+        <v>439.07600000000002</v>
+      </c>
+      <c r="H32" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="25">
+        <f t="shared" si="21"/>
+        <v>430</v>
+      </c>
+      <c r="J32" s="25">
+        <f t="shared" si="21"/>
+        <v>178.435</v>
+      </c>
+      <c r="K32" s="25">
+        <f t="shared" si="21"/>
+        <v>31.650000000000002</v>
+      </c>
+      <c r="L32" s="25">
+        <f t="shared" ref="L32" si="22">SUM(L10:L17)</f>
+        <v>70</v>
+      </c>
+      <c r="M32" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="29">
+        <f>SUM(E32:M32)</f>
+        <v>1819.761</v>
+      </c>
+      <c r="O32" s="29">
+        <f>N32*14.02%</f>
+        <v>255.13049219999999</v>
+      </c>
+      <c r="S32" t="e">
+        <f>SUM(V32:V33)/SUM([2]calliope_2!$E$11:$F$11)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T32">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="U32" s="29" t="e">
+        <f>V32-(SUM([2]calliope_2!$M$2:$N$2))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V32" s="41" t="e">
+        <f>SUMPRODUCT(W10:AE17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W32" s="25">
+        <f t="shared" ref="W32:AF32" si="23">SUM(W10:W17)</f>
+        <v>10.620000000000001</v>
+      </c>
+      <c r="X32" s="25">
+        <f t="shared" si="23"/>
+        <v>298.54399999999998</v>
+      </c>
+      <c r="Y32" s="25">
+        <f t="shared" si="23"/>
+        <v>241.49180000000001</v>
+      </c>
+      <c r="Z32" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="25">
+        <f t="shared" si="23"/>
+        <v>279.5</v>
+      </c>
+      <c r="AB32" s="25">
+        <f t="shared" si="23"/>
+        <v>12.490449999999999</v>
+      </c>
+      <c r="AC32" s="25">
+        <f t="shared" si="23"/>
+        <v>31.650000000000002</v>
+      </c>
+      <c r="AD32" s="25" t="e">
+        <f t="shared" si="23"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE32" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="40"/>
+      <c r="AN32" s="40"/>
+      <c r="AO32" s="40"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="40"/>
+      <c r="AT32" s="40"/>
+      <c r="AU32" s="40"/>
+      <c r="AV32" s="40"/>
+      <c r="AW32" s="40"/>
+      <c r="AX32" s="40"/>
+      <c r="AY32" s="40"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="C33" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="48">
+        <f>SUM(E33:K33)+AF33</f>
+        <v>2088.9209999999998</v>
+      </c>
+      <c r="E33" s="25">
+        <f>SUM(E18:E24)</f>
+        <v>0.81</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" ref="F33:M33" si="24">SUM(F18:F24)</f>
+        <v>780.13</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="24"/>
+        <v>307.404</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" si="24"/>
+        <v>653.24</v>
+      </c>
+      <c r="J33" s="25">
+        <f t="shared" si="24"/>
+        <v>241.63700000000006</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" si="24"/>
+        <v>105.7</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" ref="L33" si="25">SUM(L18:L24)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="29">
+        <f>SUM(E33:M33)</f>
+        <v>2088.9209999999998</v>
+      </c>
+      <c r="O33" s="29">
+        <f>N33*31.62%</f>
+        <v>660.51682019999998</v>
+      </c>
+      <c r="T33">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="U33" s="29" t="e">
+        <f>V33-SUM([2]calliope_2!$O$2:$P$2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V33" s="41" t="e">
+        <f>SUMPRODUCT(W18:AE24)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W33" s="25">
+        <f t="shared" ref="W33:AF33" si="26">SUM(W18:W24)</f>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="X33" s="25">
+        <f t="shared" si="26"/>
+        <v>366.66109999999998</v>
+      </c>
+      <c r="Y33" s="25">
+        <f t="shared" si="26"/>
+        <v>169.07220000000004</v>
+      </c>
+      <c r="Z33" s="25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="25">
+        <f t="shared" si="26"/>
+        <v>424.60599999999999</v>
+      </c>
+      <c r="AB33" s="25">
+        <f t="shared" si="26"/>
+        <v>16.914590000000004</v>
+      </c>
+      <c r="AC33" s="25">
+        <f t="shared" si="26"/>
+        <v>105.7</v>
+      </c>
+      <c r="AD33" s="25" t="e">
+        <f t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE33" s="25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="40"/>
+      <c r="AU33" s="40"/>
+      <c r="AV33" s="40"/>
+      <c r="AW33" s="40"/>
+      <c r="AX33" s="40"/>
+      <c r="AY33" s="40"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="29">
-        <f>SUM(N29:N31)</f>
-        <v>5599.9570000000003</v>
-      </c>
-      <c r="O32" s="29">
-        <f>SUM(O29:O31)</f>
-        <v>1246.2915748999999</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="AE33" s="39">
-        <v>6.82</v>
-      </c>
-      <c r="AF33" s="39"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="D34" s="49"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
@@ -13517,8 +13683,22 @@
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="N34" s="29">
+        <f>SUM(N31:N33)</f>
+        <v>5599.9570000000003</v>
+      </c>
+      <c r="O34" s="29">
+        <f>SUM(O31:O33)</f>
+        <v>1246.2915748999999</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
@@ -13528,8 +13708,12 @@
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE35" s="39">
+        <v>6.82</v>
+      </c>
+      <c r="AF35" s="39"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
@@ -13540,7 +13724,7 @@
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
@@ -13551,7 +13735,7 @@
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
@@ -13562,7 +13746,7 @@
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -13573,7 +13757,7 @@
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
@@ -13584,7 +13768,7 @@
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
@@ -13595,7 +13779,7 @@
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
@@ -13606,7 +13790,7 @@
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
@@ -13617,7 +13801,7 @@
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
@@ -13628,7 +13812,7 @@
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
@@ -13639,7 +13823,7 @@
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
@@ -13650,7 +13834,7 @@
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
@@ -13661,7 +13845,7 @@
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
@@ -13727,14 +13911,36 @@
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13754,21 +13960,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2582B3-252A-46DA-B20A-32B68CAAE093}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:BA58"/>
+  <dimension ref="A1:BA61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="13.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="8.88671875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14" style="22" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="22" customWidth="1"/>
     <col min="11" max="11" width="11.44140625" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.88671875" style="22" customWidth="1"/>
     <col min="14" max="31" width="8.88671875" hidden="1" customWidth="1"/>
@@ -13777,66 +13987,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="C1" s="61">
+      <c r="C1" s="66">
         <v>2021</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="60" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="63" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
       <c r="AF1" s="47"/>
-      <c r="AG1" s="60" t="s">
+      <c r="AG1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60" t="s">
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -13867,7 +14077,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>8</v>
@@ -14004,8 +14214,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="12">
-        <f>1308/5</f>
-        <v>261.60000000000002</v>
+        <v>230.8</v>
       </c>
       <c r="F3" s="13">
         <f>'esdm+ruptl_2030'!F3</f>
@@ -14020,7 +14229,6 @@
         <v>0</v>
       </c>
       <c r="I3" s="16">
-        <f>'esdm+ruptl_2030'!I3</f>
         <v>0</v>
       </c>
       <c r="J3" s="17">
@@ -14033,8 +14241,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="54">
-        <f>wind_sergio!$C$2/3*1000</f>
-        <v>6096.666666666667</v>
+        <v>0</v>
       </c>
       <c r="N3" s="12">
         <v>0.3</v>
@@ -14065,7 +14272,7 @@
       </c>
       <c r="W3" s="12">
         <f t="shared" ref="W3:W24" si="0">E3*N3</f>
-        <v>78.48</v>
+        <v>69.239999999999995</v>
       </c>
       <c r="X3" s="13">
         <f t="shared" ref="X3:X24" si="1">F3*O3</f>
@@ -14097,7 +14304,7 @@
       </c>
       <c r="AE3" s="20">
         <f t="shared" ref="AE3:AE24" si="4">M3*V3</f>
-        <v>6096.666666666667</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="43"/>
       <c r="AG3" s="12">
@@ -14170,8 +14377,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="12">
-        <f t="shared" ref="E4:E9" si="5">1308/5</f>
-        <v>261.60000000000002</v>
+        <v>56</v>
       </c>
       <c r="F4" s="13">
         <f>'esdm+ruptl_2030'!F4</f>
@@ -14186,22 +14392,20 @@
         <v>0</v>
       </c>
       <c r="I4" s="16">
-        <f>'esdm+ruptl_2030'!I4</f>
         <v>0</v>
       </c>
       <c r="J4" s="17">
         <v>0</v>
       </c>
       <c r="K4" s="18">
-        <f>solar_iesr!$B$2/5*1000</f>
-        <v>194800</v>
+        <f>solar_iesr!$B$2/5*1000*0.01</f>
+        <v>1948</v>
       </c>
       <c r="L4" s="57">
         <v>0</v>
       </c>
       <c r="M4" s="54">
-        <f>wind_sergio!$C$2/3*1000</f>
-        <v>6096.666666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="12">
         <v>0.3</v>
@@ -14232,7 +14436,7 @@
       </c>
       <c r="W4" s="12">
         <f t="shared" si="0"/>
-        <v>78.48</v>
+        <v>16.8</v>
       </c>
       <c r="X4" s="13">
         <f t="shared" si="1"/>
@@ -14256,7 +14460,7 @@
       </c>
       <c r="AC4" s="18">
         <f t="shared" si="3"/>
-        <v>194800</v>
+        <v>1948</v>
       </c>
       <c r="AD4" s="19" t="e">
         <f>#REF!*U4</f>
@@ -14264,7 +14468,7 @@
       </c>
       <c r="AE4" s="20">
         <f t="shared" si="4"/>
-        <v>6096.666666666667</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="43"/>
       <c r="AG4" s="12">
@@ -14337,8 +14541,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="12">
-        <f t="shared" si="5"/>
-        <v>261.60000000000002</v>
+        <v>5</v>
       </c>
       <c r="F5" s="13">
         <v>0</v>
@@ -14352,15 +14555,15 @@
         <v>0</v>
       </c>
       <c r="I5" s="16">
-        <f>3713/4</f>
-        <v>928.25</v>
+        <f>'esdm+ruptl_2030'!I5</f>
+        <v>12.965</v>
       </c>
       <c r="J5" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K5" s="18">
-        <f>solar_iesr!$B$2/5*1000</f>
-        <v>194800</v>
+        <f>solar_iesr!$B$2/5*1000*0.01</f>
+        <v>1948</v>
       </c>
       <c r="L5" s="57">
         <v>0</v>
@@ -14397,7 +14600,7 @@
       </c>
       <c r="W5" s="12">
         <f t="shared" si="0"/>
-        <v>78.48</v>
+        <v>1.5</v>
       </c>
       <c r="X5" s="13">
         <f t="shared" si="1"/>
@@ -14413,15 +14616,15 @@
       </c>
       <c r="AA5" s="16">
         <f t="shared" si="3"/>
-        <v>603.36250000000007</v>
+        <v>8.4272500000000008</v>
       </c>
       <c r="AB5" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="AC5" s="18">
         <f t="shared" si="3"/>
-        <v>194800</v>
+        <v>1948</v>
       </c>
       <c r="AD5" s="19" t="e">
         <f>#REF!*U5</f>
@@ -14502,8 +14705,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="12">
-        <f t="shared" si="5"/>
-        <v>261.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="F6" s="13">
         <v>0</v>
@@ -14517,15 +14719,14 @@
         <v>0</v>
       </c>
       <c r="I6" s="16">
-        <f>'esdm+ruptl_2030'!I6</f>
         <v>0</v>
       </c>
       <c r="J6" s="17">
         <v>0</v>
       </c>
       <c r="K6" s="18">
-        <f>solar_iesr!$B$2/5*1000</f>
-        <v>194800</v>
+        <f>solar_iesr!$B$2/5*1000*0.01</f>
+        <v>1948</v>
       </c>
       <c r="L6" s="57">
         <v>0</v>
@@ -14562,7 +14763,7 @@
       </c>
       <c r="W6" s="12">
         <f t="shared" si="0"/>
-        <v>78.48</v>
+        <v>0</v>
       </c>
       <c r="X6" s="13">
         <f t="shared" si="1"/>
@@ -14580,12 +14781,12 @@
         <v>0</v>
       </c>
       <c r="AB6" s="17">
-        <f t="shared" ref="AB6:AB24" si="6">J6*S6</f>
+        <f t="shared" ref="AB6:AB24" si="5">J6*S6</f>
         <v>0</v>
       </c>
       <c r="AC6" s="18">
-        <f t="shared" ref="AC6:AC24" si="7">K6*T6</f>
-        <v>194800</v>
+        <f t="shared" ref="AC6:AC24" si="6">K6*T6</f>
+        <v>1948</v>
       </c>
       <c r="AD6" s="19" t="e">
         <f>#REF!*U6</f>
@@ -14666,8 +14867,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="12">
-        <f t="shared" si="5"/>
-        <v>261.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="F7" s="13">
         <f>'esdm+ruptl_2030'!F7</f>
@@ -14682,15 +14882,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="16">
-        <f>3713/4</f>
-        <v>928.25</v>
+        <f>'esdm+ruptl_2030'!I7</f>
+        <v>103.565</v>
       </c>
       <c r="J7" s="17">
         <v>0</v>
       </c>
       <c r="K7" s="18">
-        <f>solar_iesr!$B$2/5*1000</f>
-        <v>194800</v>
+        <f>solar_iesr!$B$2/5*1000*0.01</f>
+        <v>1948</v>
       </c>
       <c r="L7" s="57">
         <v>0</v>
@@ -14727,7 +14927,7 @@
       </c>
       <c r="W7" s="12">
         <f t="shared" si="0"/>
-        <v>78.48</v>
+        <v>0</v>
       </c>
       <c r="X7" s="13">
         <f t="shared" si="1"/>
@@ -14742,16 +14942,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA7" s="16">
-        <f t="shared" ref="AA7:AA24" si="8">I7*R7</f>
-        <v>603.36250000000007</v>
+        <f t="shared" ref="AA7:AA24" si="7">I7*R7</f>
+        <v>67.317250000000001</v>
       </c>
       <c r="AB7" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="18">
-        <f t="shared" si="7"/>
-        <v>194800</v>
+        <v>1948</v>
       </c>
       <c r="AD7" s="19" t="e">
         <f>#REF!*U7</f>
@@ -14832,8 +15032,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="12">
-        <f t="shared" si="5"/>
-        <v>261.60000000000002</v>
+        <v>11</v>
       </c>
       <c r="F8" s="13">
         <v>0</v>
@@ -14847,23 +15046,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="16">
-        <f>3713/4</f>
-        <v>928.25</v>
+        <f>'esdm+ruptl_2030'!I8</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J8" s="17">
         <v>0</v>
       </c>
       <c r="K8" s="18">
-        <f>solar_iesr!$B$2/5*1000</f>
-        <v>194800</v>
+        <f>solar_iesr!$B$2/5*1000*0.01</f>
+        <v>1948</v>
       </c>
       <c r="L8" s="57">
         <f>wind_sergio!$B$2*1000</f>
         <v>1010</v>
       </c>
       <c r="M8" s="54">
-        <f>wind_sergio!$C$2/3*1000</f>
-        <v>6096.666666666667</v>
+        <v>0</v>
       </c>
       <c r="N8" s="12">
         <v>0.3</v>
@@ -14894,7 +15092,7 @@
       </c>
       <c r="W8" s="12">
         <f t="shared" si="0"/>
-        <v>78.48</v>
+        <v>3.3</v>
       </c>
       <c r="X8" s="13">
         <f t="shared" si="1"/>
@@ -14909,16 +15107,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA8" s="16">
-        <f t="shared" si="8"/>
-        <v>603.36250000000007</v>
+        <f t="shared" si="7"/>
+        <v>0.19500000000000003</v>
       </c>
       <c r="AB8" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="18">
-        <f t="shared" si="7"/>
-        <v>194800</v>
+        <v>1948</v>
       </c>
       <c r="AD8" s="19" t="e">
         <f>#REF!*U8</f>
@@ -14926,7 +15124,7 @@
       </c>
       <c r="AE8" s="20">
         <f t="shared" si="4"/>
-        <v>6096.666666666667</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="43"/>
       <c r="AG8" s="12">
@@ -14999,8 +15197,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" si="5"/>
-        <v>261.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="F9" s="13">
         <f>'esdm+ruptl_2030'!F9</f>
@@ -15015,8 +15212,8 @@
         <v>0</v>
       </c>
       <c r="I9" s="16">
-        <f>3713/4</f>
-        <v>928.25</v>
+        <f>4737*0.1-'esdm+ruptl_2030'!I9-I7-I5</f>
+        <v>339.7700000000001</v>
       </c>
       <c r="J9" s="17">
         <v>0</v>
@@ -15059,7 +15256,7 @@
       </c>
       <c r="W9" s="12">
         <f t="shared" si="0"/>
-        <v>78.48</v>
+        <v>0</v>
       </c>
       <c r="X9" s="13">
         <f t="shared" si="1"/>
@@ -15074,15 +15271,15 @@
         <v>#REF!</v>
       </c>
       <c r="AA9" s="16">
-        <f t="shared" si="8"/>
-        <v>603.36250000000007</v>
+        <f t="shared" si="7"/>
+        <v>220.85050000000007</v>
       </c>
       <c r="AB9" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="18">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD9" s="19" t="e">
@@ -15164,7 +15361,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="12">
-        <v>299.8</v>
+        <v>170</v>
       </c>
       <c r="F10" s="13">
         <f>'esdm+ruptl_2030'!F10</f>
@@ -15179,23 +15376,21 @@
         <v>0</v>
       </c>
       <c r="I10" s="16">
-        <f>'esdm+ruptl_2030'!I10</f>
         <v>0</v>
       </c>
       <c r="J10" s="17">
         <v>0</v>
       </c>
       <c r="K10" s="18">
-        <f>solar_iesr!$B$3/5*1000</f>
-        <v>114400</v>
+        <f>solar_iesr!$B$3/5*1000*0.01</f>
+        <v>1144</v>
       </c>
       <c r="L10" s="57">
-        <f>wind_sergio!$B$3/4*1000</f>
-        <v>295</v>
+        <f>wind_sergio!$B$3/2*1000</f>
+        <v>590</v>
       </c>
       <c r="M10" s="54">
-        <f>wind_sergio!$C$3/3*1000</f>
-        <v>6943.3333333333321</v>
+        <v>0</v>
       </c>
       <c r="N10" s="12">
         <v>0.3</v>
@@ -15226,7 +15421,7 @@
       </c>
       <c r="W10" s="12">
         <f t="shared" si="0"/>
-        <v>89.94</v>
+        <v>51</v>
       </c>
       <c r="X10" s="13">
         <f t="shared" si="1"/>
@@ -15241,16 +15436,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA10" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB10" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="18">
-        <f t="shared" si="7"/>
-        <v>114400</v>
+        <v>1144</v>
       </c>
       <c r="AD10" s="19" t="e">
         <f>#REF!*U10</f>
@@ -15258,7 +15453,7 @@
       </c>
       <c r="AE10" s="20">
         <f t="shared" si="4"/>
-        <v>6943.3333333333321</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="43"/>
       <c r="AG10" s="12">
@@ -15331,7 +15526,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="12">
-        <v>299.8</v>
+        <v>0</v>
       </c>
       <c r="F11" s="13">
         <f>'esdm+ruptl_2030'!F11</f>
@@ -15346,23 +15541,21 @@
         <v>0</v>
       </c>
       <c r="I11" s="16">
-        <f>'esdm+ruptl_2030'!I11</f>
         <v>0</v>
       </c>
       <c r="J11" s="17">
         <v>0</v>
       </c>
       <c r="K11" s="18">
-        <f>solar_iesr!$B$3/5*1000</f>
-        <v>114400</v>
+        <f>solar_iesr!$B$3/5*1000*0.01</f>
+        <v>1144</v>
       </c>
       <c r="L11" s="57">
-        <f>wind_sergio!$B$3/4*1000</f>
-        <v>295</v>
+        <f>wind_sergio!$B$3/2*1000</f>
+        <v>590</v>
       </c>
       <c r="M11" s="54">
-        <f>wind_sergio!$C$3/3*1000</f>
-        <v>6943.3333333333321</v>
+        <v>0</v>
       </c>
       <c r="N11" s="12">
         <v>0.3</v>
@@ -15393,7 +15586,7 @@
       </c>
       <c r="W11" s="12">
         <f t="shared" si="0"/>
-        <v>89.94</v>
+        <v>0</v>
       </c>
       <c r="X11" s="13">
         <f t="shared" si="1"/>
@@ -15408,16 +15601,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA11" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB11" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="18">
-        <f t="shared" si="7"/>
-        <v>114400</v>
+        <v>1144</v>
       </c>
       <c r="AD11" s="19" t="e">
         <f>#REF!*U11</f>
@@ -15425,7 +15618,7 @@
       </c>
       <c r="AE11" s="20">
         <f t="shared" si="4"/>
-        <v>6943.3333333333321</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="43"/>
       <c r="AG11" s="12">
@@ -15498,7 +15691,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="12">
-        <v>299.8</v>
+        <v>0</v>
       </c>
       <c r="F12" s="13">
         <f>'esdm+ruptl_2030'!F12</f>
@@ -15513,19 +15706,17 @@
         <v>0</v>
       </c>
       <c r="I12" s="16">
-        <f>4008/2</f>
-        <v>2004</v>
+        <v>0</v>
       </c>
       <c r="J12" s="17">
         <v>0</v>
       </c>
       <c r="K12" s="18">
-        <f>solar_iesr!$B$3/5*1000</f>
-        <v>114400</v>
+        <f>solar_iesr!$B$3/5*1000*0.01</f>
+        <v>1144</v>
       </c>
       <c r="L12" s="57">
-        <f>wind_sergio!$B$3/4*1000</f>
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="M12" s="54">
         <v>0</v>
@@ -15559,7 +15750,7 @@
       </c>
       <c r="W12" s="12">
         <f t="shared" si="0"/>
-        <v>89.94</v>
+        <v>0</v>
       </c>
       <c r="X12" s="13">
         <f t="shared" si="1"/>
@@ -15574,16 +15765,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA12" s="16">
-        <f t="shared" si="8"/>
-        <v>1302.6000000000001</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AB12" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="18">
-        <f t="shared" si="7"/>
-        <v>114400</v>
+        <v>1144</v>
       </c>
       <c r="AD12" s="19" t="e">
         <f>#REF!*U12</f>
@@ -15664,7 +15855,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="12">
-        <v>299.8</v>
+        <v>0</v>
       </c>
       <c r="F13" s="13">
         <f>'esdm+ruptl_2030'!F13</f>
@@ -15679,23 +15870,21 @@
         <v>0</v>
       </c>
       <c r="I13" s="16">
-        <f>'esdm+ruptl_2030'!I13</f>
         <v>0</v>
       </c>
       <c r="J13" s="17">
         <v>0</v>
       </c>
       <c r="K13" s="18">
-        <f>solar_iesr!$B$3/5*1000</f>
-        <v>114400</v>
+        <f>solar_iesr!$B$3/5*1000*0.01</f>
+        <v>1144</v>
       </c>
       <c r="L13" s="57">
-        <f>wind_sergio!$B$3/4*1000</f>
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="M13" s="54">
-        <f>wind_sergio!$C$3/3*1000</f>
-        <v>6943.3333333333321</v>
+        <f>wind_sergio!C3*1000</f>
+        <v>20830</v>
       </c>
       <c r="N13" s="12">
         <v>0.3</v>
@@ -15726,7 +15915,7 @@
       </c>
       <c r="W13" s="12">
         <f t="shared" si="0"/>
-        <v>89.94</v>
+        <v>0</v>
       </c>
       <c r="X13" s="13">
         <f t="shared" si="1"/>
@@ -15741,16 +15930,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA13" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB13" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="18">
-        <f t="shared" si="7"/>
-        <v>114400</v>
+        <v>1144</v>
       </c>
       <c r="AD13" s="19" t="e">
         <f>#REF!*U13</f>
@@ -15758,7 +15947,7 @@
       </c>
       <c r="AE13" s="20">
         <f t="shared" si="4"/>
-        <v>6943.3333333333321</v>
+        <v>20830</v>
       </c>
       <c r="AF13" s="43"/>
       <c r="AG13" s="12">
@@ -15831,7 +16020,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="12">
-        <v>299.8</v>
+        <v>0</v>
       </c>
       <c r="F14" s="13">
         <v>0</v>
@@ -15844,15 +16033,15 @@
         <v>0</v>
       </c>
       <c r="I14" s="16">
-        <f>4008/2</f>
-        <v>2004</v>
+        <f>'esdm+ruptl_2030'!I14</f>
+        <v>400</v>
       </c>
       <c r="J14" s="17">
         <v>0</v>
       </c>
       <c r="K14" s="18">
-        <f>solar_iesr!$B$3/5*1000</f>
-        <v>114400</v>
+        <f>solar_iesr!$B$3/5*1000*0.01</f>
+        <v>1144</v>
       </c>
       <c r="L14" s="57">
         <v>0</v>
@@ -15889,7 +16078,7 @@
       </c>
       <c r="W14" s="12">
         <f t="shared" si="0"/>
-        <v>89.94</v>
+        <v>0</v>
       </c>
       <c r="X14" s="13">
         <f t="shared" si="1"/>
@@ -15904,16 +16093,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA14" s="16">
-        <f t="shared" si="8"/>
-        <v>1302.6000000000001</v>
+        <f t="shared" si="7"/>
+        <v>260</v>
       </c>
       <c r="AB14" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="18">
-        <f t="shared" si="7"/>
-        <v>114400</v>
+        <v>1144</v>
       </c>
       <c r="AD14" s="19" t="e">
         <f>#REF!*U14</f>
@@ -15994,8 +16183,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="12">
-        <f>1290/3</f>
-        <v>430</v>
+        <v>129</v>
       </c>
       <c r="F15" s="13">
         <v>0</v>
@@ -16009,8 +16197,8 @@
         <v>0</v>
       </c>
       <c r="I15" s="16">
-        <f>1519/2</f>
-        <v>759.5</v>
+        <f>'esdm+ruptl_2030'!I15</f>
+        <v>30</v>
       </c>
       <c r="J15" s="17">
         <v>0</v>
@@ -16023,8 +16211,7 @@
         <v>140</v>
       </c>
       <c r="M15" s="54">
-        <f>wind_sergio!$C$4/2*1000</f>
-        <v>5420</v>
+        <v>0</v>
       </c>
       <c r="N15" s="12">
         <v>0.3</v>
@@ -16055,7 +16242,7 @@
       </c>
       <c r="W15" s="12">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>38.699999999999996</v>
       </c>
       <c r="X15" s="13">
         <f t="shared" si="1"/>
@@ -16070,15 +16257,15 @@
         <v>#REF!</v>
       </c>
       <c r="AA15" s="16">
-        <f t="shared" si="8"/>
-        <v>493.67500000000001</v>
+        <f t="shared" si="7"/>
+        <v>19.5</v>
       </c>
       <c r="AB15" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="18">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD15" s="19" t="e">
@@ -16087,7 +16274,7 @@
       </c>
       <c r="AE15" s="20">
         <f t="shared" si="4"/>
-        <v>5420</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="43"/>
       <c r="AG15" s="12">
@@ -16160,8 +16347,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="12">
-        <f t="shared" ref="E16:E17" si="9">1290/3</f>
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="F16" s="13">
         <v>0</v>
@@ -16175,7 +16361,6 @@
         <v>0</v>
       </c>
       <c r="I16" s="16">
-        <f>'esdm+ruptl_2030'!I16</f>
         <v>0</v>
       </c>
       <c r="J16" s="17">
@@ -16219,7 +16404,7 @@
       </c>
       <c r="W16" s="12">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="X16" s="13">
         <f t="shared" si="1"/>
@@ -16234,15 +16419,15 @@
         <v>#REF!</v>
       </c>
       <c r="AA16" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB16" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="18">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD16" s="19" t="e">
@@ -16324,8 +16509,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" si="9"/>
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="F17" s="13">
         <f>200</f>
@@ -16340,23 +16524,22 @@
         <v>40</v>
       </c>
       <c r="I17" s="16">
-        <f>1519/2</f>
-        <v>759.5</v>
+        <v>0</v>
       </c>
       <c r="J17" s="17">
         <v>0</v>
       </c>
       <c r="K17" s="18">
-        <f>solar_iesr!$B$4*1000</f>
-        <v>185000</v>
+        <f>solar_iesr!$B$4*1000*0.01</f>
+        <v>1850</v>
       </c>
       <c r="L17" s="57">
         <f>wind_sergio!$B$4/2*1000</f>
         <v>140</v>
       </c>
       <c r="M17" s="54">
-        <f>wind_sergio!$C$4/2*1000</f>
-        <v>5420</v>
+        <f>wind_sergio!$C$4*1000</f>
+        <v>10840</v>
       </c>
       <c r="N17" s="12">
         <v>0.3</v>
@@ -16387,7 +16570,7 @@
       </c>
       <c r="W17" s="12">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="X17" s="13">
         <f t="shared" si="1"/>
@@ -16402,16 +16585,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA17" s="16">
-        <f t="shared" si="8"/>
-        <v>493.67500000000001</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AB17" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="18">
-        <f t="shared" si="7"/>
-        <v>185000</v>
+        <v>1850</v>
       </c>
       <c r="AD17" s="19" t="e">
         <f>#REF!*U17</f>
@@ -16419,7 +16602,7 @@
       </c>
       <c r="AE17" s="20">
         <f t="shared" si="4"/>
-        <v>5420</v>
+        <v>10840</v>
       </c>
       <c r="AF17" s="43"/>
       <c r="AG17" s="12">
@@ -16504,8 +16687,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="15">
-        <f>'esdm+ruptl_2030'!H18+7.5</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I18" s="16">
         <v>0</v>
@@ -16514,15 +16696,14 @@
         <v>0</v>
       </c>
       <c r="K18" s="18">
-        <f>solar_iesr!$B$5/4/2*1000</f>
-        <v>135750</v>
+        <f>solar_iesr!$B$5/4/2*1000*0.01</f>
+        <v>1357.5</v>
       </c>
       <c r="L18" s="57">
         <v>0</v>
       </c>
       <c r="M18" s="54">
-        <f>wind_sergio!$C$5*1000</f>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="N18" s="12">
         <v>0.3</v>
@@ -16568,16 +16749,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA18" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB18" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="18">
-        <f t="shared" si="7"/>
-        <v>135750</v>
+        <v>1357.5</v>
       </c>
       <c r="AD18" s="19" t="e">
         <f>#REF!*U18</f>
@@ -16585,7 +16766,7 @@
       </c>
       <c r="AE18" s="20">
         <f t="shared" si="4"/>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="43"/>
       <c r="AG18" s="12">
@@ -16678,12 +16859,11 @@
         <v>0</v>
       </c>
       <c r="K19" s="18">
-        <f>solar_iesr!$B$5/4/2*1000</f>
-        <v>135750</v>
+        <f>solar_iesr!$B$5/4/2*1000*0.01</f>
+        <v>1357.5</v>
       </c>
       <c r="L19" s="57">
-        <f>wind_sergio!$B$5/2*1000</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M19" s="54">
         <v>0</v>
@@ -16732,16 +16912,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA19" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB19" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="18">
-        <f t="shared" si="7"/>
-        <v>135750</v>
+        <v>1357.5</v>
       </c>
       <c r="AD19" s="19" t="e">
         <f>#REF!*U19</f>
@@ -16832,19 +17012,18 @@
         <v>0</v>
       </c>
       <c r="H20" s="15">
-        <f>'esdm+ruptl_2030'!H20+10</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I20" s="16">
-        <f t="shared" ref="I20:I21" si="10">9021/5</f>
-        <v>1804.2</v>
+        <f>'esdm+ruptl_2030'!I20</f>
+        <v>90</v>
       </c>
       <c r="J20" s="17">
         <v>0</v>
       </c>
       <c r="K20" s="18">
-        <f>solar_iesr!$B$5/4*1000</f>
-        <v>271500</v>
+        <f>solar_iesr!$B$5/4*1000*0.01</f>
+        <v>2715</v>
       </c>
       <c r="L20" s="57">
         <v>0</v>
@@ -16896,16 +17075,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA20" s="16">
-        <f t="shared" si="8"/>
-        <v>1172.73</v>
+        <f t="shared" si="7"/>
+        <v>58.5</v>
       </c>
       <c r="AB20" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="18">
-        <f t="shared" si="7"/>
-        <v>271500</v>
+        <v>2715</v>
       </c>
       <c r="AD20" s="19" t="e">
         <f>#REF!*U20</f>
@@ -17000,15 +17179,15 @@
         <v>0</v>
       </c>
       <c r="I21" s="16">
-        <f t="shared" si="10"/>
-        <v>1804.2</v>
+        <f>16844*0.1-'esdm+ruptl_2030'!I21-I22-I20-I15-I14</f>
+        <v>991.40000000000009</v>
       </c>
       <c r="J21" s="17">
         <v>0</v>
       </c>
       <c r="K21" s="18">
-        <f>solar_iesr!$B$5/4*1000</f>
-        <v>271500</v>
+        <f>solar_iesr!$B$5/4*1000*0.01</f>
+        <v>2715</v>
       </c>
       <c r="L21" s="57">
         <v>0</v>
@@ -17060,16 +17239,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA21" s="16">
-        <f t="shared" si="8"/>
-        <v>1172.73</v>
+        <f t="shared" si="7"/>
+        <v>644.41000000000008</v>
       </c>
       <c r="AB21" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="18">
-        <f t="shared" si="7"/>
-        <v>271500</v>
+        <v>2715</v>
       </c>
       <c r="AD21" s="19" t="e">
         <f>#REF!*U21</f>
@@ -17150,8 +17329,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="12">
-        <f>'esdm+ruptl_2030'!E22</f>
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="F22" s="13">
         <v>0</v>
@@ -17165,19 +17343,18 @@
         <v>0</v>
       </c>
       <c r="I22" s="16">
-        <f>9021/5</f>
-        <v>1804.2</v>
+        <f>'esdm+ruptl_2030'!I22</f>
+        <v>155</v>
       </c>
       <c r="J22" s="17">
         <v>0</v>
       </c>
       <c r="K22" s="18">
-        <f>solar_iesr!$B$5/4*1000</f>
-        <v>271500</v>
+        <f>solar_iesr!$B$5/4*1000*0.01</f>
+        <v>2715</v>
       </c>
       <c r="L22" s="57">
-        <f>wind_sergio!$B$5/2*1000</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M22" s="54">
         <v>0</v>
@@ -17211,7 +17388,7 @@
       </c>
       <c r="W22" s="12">
         <f t="shared" si="0"/>
-        <v>0.24299999999999999</v>
+        <v>0</v>
       </c>
       <c r="X22" s="13">
         <f t="shared" si="1"/>
@@ -17226,16 +17403,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA22" s="16">
-        <f t="shared" si="8"/>
-        <v>1172.73</v>
+        <f t="shared" si="7"/>
+        <v>100.75</v>
       </c>
       <c r="AB22" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="18">
-        <f t="shared" si="7"/>
-        <v>271500</v>
+        <v>2715</v>
       </c>
       <c r="AD22" s="19" t="e">
         <f>#REF!*U22</f>
@@ -17332,15 +17509,15 @@
         <v>0</v>
       </c>
       <c r="I23" s="16">
-        <f>9021/5</f>
-        <v>1804.2</v>
+        <f>'esdm+ruptl_2030'!I23</f>
+        <v>90.24</v>
       </c>
       <c r="J23" s="17">
         <v>0</v>
       </c>
       <c r="K23" s="18">
-        <f>solar_iesr!$B$6*1000/2</f>
-        <v>66500</v>
+        <f>solar_iesr!$B$6*1000/2*0.01</f>
+        <v>665</v>
       </c>
       <c r="L23" s="57">
         <v>0</v>
@@ -17392,16 +17569,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA23" s="16">
-        <f t="shared" si="8"/>
-        <v>1172.73</v>
+        <f t="shared" si="7"/>
+        <v>58.655999999999999</v>
       </c>
       <c r="AB23" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="18">
-        <f t="shared" si="7"/>
-        <v>66500</v>
+        <v>665</v>
       </c>
       <c r="AD23" s="19" t="e">
         <f>#REF!*U23</f>
@@ -17497,15 +17674,15 @@
         <v>0</v>
       </c>
       <c r="I24" s="16">
-        <f>9021/5</f>
-        <v>1804.2</v>
+        <f>'esdm+ruptl_2030'!I24</f>
+        <v>300</v>
       </c>
       <c r="J24" s="17">
         <v>0</v>
       </c>
       <c r="K24" s="18">
-        <f>solar_iesr!$B$6*1000/2</f>
-        <v>66500</v>
+        <f>solar_iesr!$B$6*1000/2*0.01</f>
+        <v>665</v>
       </c>
       <c r="L24" s="57">
         <v>0</v>
@@ -17557,16 +17734,16 @@
         <v>#REF!</v>
       </c>
       <c r="AA24" s="16">
-        <f t="shared" si="8"/>
-        <v>1172.73</v>
+        <f t="shared" si="7"/>
+        <v>195</v>
       </c>
       <c r="AB24" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="18">
-        <f t="shared" si="7"/>
-        <v>66500</v>
+        <v>665</v>
       </c>
       <c r="AD24" s="19" t="e">
         <f>#REF!*U24</f>
@@ -17639,394 +17816,302 @@
       </c>
       <c r="D25" s="27">
         <f>SUM(E25:M25)</f>
-        <v>3027123.51</v>
+        <v>68569.040000000008</v>
       </c>
       <c r="E25" s="25">
         <f>SUM(E3:E24)</f>
-        <v>4621.0100000000011</v>
+        <v>601.79999999999995</v>
       </c>
       <c r="F25" s="25">
-        <f t="shared" ref="F25:M25" si="11">SUM(F3:F24)</f>
+        <f t="shared" ref="F25:M25" si="8">SUM(F3:F24)</f>
         <v>614</v>
       </c>
       <c r="G25" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>860</v>
       </c>
       <c r="H25" s="25">
-        <f t="shared" si="11"/>
-        <v>57.5</v>
+        <f t="shared" si="8"/>
+        <v>40</v>
       </c>
       <c r="I25" s="25">
-        <f t="shared" si="11"/>
-        <v>18261.000000000004</v>
+        <f t="shared" si="8"/>
+        <v>2513.2399999999998</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" si="11"/>
-        <v>2950000</v>
+        <f t="shared" si="8"/>
+        <v>29500</v>
       </c>
       <c r="L25" s="25">
-        <f t="shared" si="11"/>
-        <v>2530</v>
+        <f t="shared" si="8"/>
+        <v>2470</v>
       </c>
       <c r="M25" s="25">
-        <f t="shared" si="11"/>
-        <v>50180</v>
+        <f t="shared" si="8"/>
+        <v>31670</v>
       </c>
       <c r="W25" s="29">
         <f>SUM(W3:W24)</f>
-        <v>1386.3030000000001</v>
+        <v>180.53999999999996</v>
       </c>
       <c r="X25" s="29">
-        <f t="shared" ref="X25:AF25" si="12">SUM(X3:X24)</f>
+        <f t="shared" ref="X25:AF25" si="9">SUM(X3:X24)</f>
         <v>288.58</v>
       </c>
       <c r="Y25" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>473</v>
       </c>
       <c r="Z25" s="29" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="AA25" s="29">
-        <f t="shared" si="12"/>
-        <v>11869.65</v>
+        <f t="shared" si="9"/>
+        <v>1633.6060000000002</v>
       </c>
       <c r="AB25" s="29">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>21.000000000000004</v>
       </c>
       <c r="AC25" s="29">
-        <f t="shared" si="12"/>
-        <v>2950000</v>
+        <f t="shared" si="9"/>
+        <v>29500</v>
       </c>
       <c r="AD25" s="29" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="AE25" s="29">
-        <f t="shared" si="12"/>
-        <v>50180</v>
+        <f t="shared" si="9"/>
+        <v>31670</v>
       </c>
       <c r="AF25" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D26" s="36" t="e">
-        <f>SUM(W25:AE25)+AF5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="44">
-        <v>227.99</v>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="25">
+        <f>E25*8760</f>
+        <v>5271768</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" ref="F26:J26" si="10">F25*8760</f>
+        <v>5378640</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="10"/>
+        <v>7533600</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="10"/>
+        <v>350400</v>
+      </c>
+      <c r="I26" s="25">
+        <f t="shared" si="10"/>
+        <v>22015982.399999999</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" si="10"/>
+        <v>2628000</v>
       </c>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
-      <c r="V26" s="29" t="e">
-        <f>SUM(W26:AF26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W26" s="38" t="e">
-        <f>W25/$D$26*100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X26" s="38" t="e">
-        <f t="shared" ref="X26:AF26" si="13">X25/$D$26*100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y26" s="38" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z26" s="38" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA26" s="38" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB26" s="38" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC26" s="38" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD26" s="38" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE26" s="38" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF26" s="38" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="22"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="22"/>
-      <c r="AP26" s="22"/>
-      <c r="AQ26" s="22"/>
-      <c r="AR26" s="22"/>
-      <c r="AS26" s="22"/>
-      <c r="AT26" s="22"/>
-      <c r="AU26" s="22"/>
-      <c r="AV26" s="22"/>
-      <c r="AW26" s="22"/>
-      <c r="AX26" s="22"/>
-      <c r="AY26" s="22"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="25">
+        <f t="shared" ref="AF26" si="11">AF25*8760</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D27" s="37">
-        <f>SUMPRODUCT(E3:M24,AG3:AO24)</f>
-        <v>3010793.3828999992</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25" t="e">
-        <f>J26/J25</f>
-        <v>#DIV/0!</v>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62">
+        <f>E26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>0.14572201493334871</v>
+      </c>
+      <c r="F27" s="62">
+        <f>F26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>0.14867616678144915</v>
+      </c>
+      <c r="G27" s="62">
+        <f>G26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>0.20824349093167147</v>
+      </c>
+      <c r="H27" s="62">
+        <f>H26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>9.6857437642637895E-3</v>
+      </c>
+      <c r="I27" s="62">
+        <f>I26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>0.60856496645245817</v>
+      </c>
+      <c r="J27" s="62">
+        <f>J26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>7.2643078231978422E-2</v>
       </c>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
-      <c r="V27" t="s">
-        <v>69</v>
-      </c>
-      <c r="W27" s="39">
-        <v>0.52</v>
-      </c>
-      <c r="X27" s="39">
-        <v>68.58</v>
-      </c>
-      <c r="Y27" s="39">
-        <v>16.3</v>
-      </c>
-      <c r="Z27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="39">
-        <v>1.04</v>
-      </c>
-      <c r="AB27" s="39">
-        <v>6.73</v>
-      </c>
-      <c r="AC27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="39">
-        <v>6.82</v>
-      </c>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="40"/>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="40"/>
-      <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
-      <c r="AP27" s="40"/>
-      <c r="AQ27" s="40"/>
-      <c r="AR27" s="40"/>
-      <c r="AS27" s="40"/>
-      <c r="AT27" s="40"/>
-      <c r="AU27" s="40"/>
-      <c r="AV27" s="40"/>
-      <c r="AW27" s="40"/>
-      <c r="AX27" s="40"/>
-      <c r="AY27" s="40"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="25">
+        <f>AF26*0.9/[3]calliope_2030!$S$8763</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D28" s="37"/>
+      <c r="D28" s="36" t="e">
+        <f>SUM(W25:AE25)+AF5</f>
+        <v>#REF!</v>
+      </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="25">
-        <f>J26-J25</f>
+      <c r="J28" s="44">
         <v>227.99</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
-      <c r="T28" t="s">
-        <v>78</v>
-      </c>
-      <c r="U28" t="s">
-        <v>77</v>
-      </c>
-      <c r="V28" t="s">
-        <v>76</v>
-      </c>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="40"/>
-      <c r="AI28" s="40"/>
-      <c r="AJ28" s="40"/>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="40"/>
-      <c r="AM28" s="40"/>
-      <c r="AN28" s="40"/>
-      <c r="AO28" s="40"/>
-      <c r="AP28" s="40"/>
-      <c r="AQ28" s="40"/>
-      <c r="AR28" s="40"/>
-      <c r="AS28" s="40"/>
-      <c r="AT28" s="40"/>
-      <c r="AU28" s="40"/>
-      <c r="AV28" s="40"/>
-      <c r="AW28" s="40"/>
-      <c r="AX28" s="40"/>
-      <c r="AY28" s="40"/>
+      <c r="V28" s="29" t="e">
+        <f>SUM(W28:AF28)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W28" s="38" t="e">
+        <f>W25/$D$28*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X28" s="38" t="e">
+        <f t="shared" ref="X28:AF28" si="12">X25/$D$28*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y28" s="38" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z28" s="38" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA28" s="38" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AB28" s="38" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AC28" s="38" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AD28" s="38" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE28" s="38" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF28" s="38" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="22"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="C29" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="48">
-        <f>SUM(E29:K29)+AF29</f>
-        <v>980194.2</v>
-      </c>
-      <c r="E29" s="25">
-        <f>SUM(E3:E9)</f>
-        <v>1831.1999999999998</v>
-      </c>
-      <c r="F29" s="25">
-        <f t="shared" ref="F29:M29" si="14">SUM(F3:F9)</f>
-        <v>350</v>
-      </c>
-      <c r="G29" s="25">
-        <f t="shared" si="14"/>
-        <v>300</v>
-      </c>
-      <c r="H29" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="25">
-        <f t="shared" si="14"/>
-        <v>3713</v>
-      </c>
+      <c r="D29" s="37">
+        <f>SUMPRODUCT(E3:M24,AG3:AO24)</f>
+        <v>65418.551200000002</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="25">
-        <f t="shared" si="14"/>
-        <v>974000</v>
-      </c>
-      <c r="L29" s="25">
-        <f t="shared" si="14"/>
-        <v>1010</v>
-      </c>
-      <c r="M29" s="25">
-        <f t="shared" si="14"/>
-        <v>18290</v>
-      </c>
-      <c r="N29" s="29">
-        <f>SUM(E29:M29)</f>
-        <v>999494.2</v>
-      </c>
-      <c r="O29" s="29">
-        <f>N29*19.55%</f>
-        <v>195401.11609999998</v>
-      </c>
-      <c r="S29" t="e">
-        <f>(V29+90)/[2]calliope_2!$D$11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T29">
-        <v>0.93240000000000001</v>
-      </c>
-      <c r="U29" s="29" t="e">
-        <f>V29-[2]calliope_2!$L$2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V29" s="41" t="e">
-        <f>SUM(W3:AE9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W29" s="25">
-        <f t="shared" ref="W29:AF29" si="15">SUM(W3:W9)</f>
-        <v>549.36</v>
-      </c>
-      <c r="X29" s="25">
-        <f t="shared" si="15"/>
-        <v>164.5</v>
-      </c>
-      <c r="Y29" s="25">
-        <f t="shared" si="15"/>
-        <v>165</v>
-      </c>
-      <c r="Z29" s="25" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA29" s="25">
-        <f t="shared" si="15"/>
-        <v>2413.4500000000003</v>
-      </c>
-      <c r="AB29" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="25">
-        <f t="shared" si="15"/>
-        <v>974000</v>
-      </c>
-      <c r="AD29" s="25" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE29" s="25">
-        <f t="shared" si="15"/>
-        <v>18290</v>
-      </c>
-      <c r="AF29" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>J28/J25</f>
+        <v>0.75996666666666668</v>
+      </c>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="V29" t="s">
+        <v>69</v>
+      </c>
+      <c r="W29" s="39">
+        <v>0.52</v>
+      </c>
+      <c r="X29" s="39">
+        <v>68.58</v>
+      </c>
+      <c r="Y29" s="39">
+        <v>16.3</v>
+      </c>
+      <c r="Z29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="39">
+        <v>1.04</v>
+      </c>
+      <c r="AB29" s="39">
+        <v>6.73</v>
+      </c>
+      <c r="AC29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="39">
+        <v>6.82</v>
       </c>
       <c r="AG29" s="40"/>
       <c r="AH29" s="40"/>
@@ -18049,112 +18134,38 @@
       <c r="AY29" s="40"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="C30" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="48">
-        <f>SUM(E30:K30)+AF30</f>
-        <v>766006</v>
-      </c>
-      <c r="E30" s="25">
-        <f>SUM(E10:E17)</f>
-        <v>2789</v>
-      </c>
-      <c r="F30" s="25">
-        <f t="shared" ref="F30:M30" si="16">SUM(F10:F17)</f>
-        <v>250</v>
-      </c>
-      <c r="G30" s="25">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="H30" s="25">
-        <f t="shared" si="16"/>
-        <v>40</v>
-      </c>
-      <c r="I30" s="25">
-        <f t="shared" si="16"/>
-        <v>5527</v>
-      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="25">
-        <f t="shared" si="16"/>
-        <v>757000</v>
-      </c>
-      <c r="L30" s="25">
-        <f t="shared" si="16"/>
-        <v>1460</v>
-      </c>
-      <c r="M30" s="25">
-        <f t="shared" si="16"/>
-        <v>31669.999999999996</v>
-      </c>
-      <c r="N30" s="29">
-        <f>SUM(E30:M30)</f>
-        <v>799136</v>
-      </c>
-      <c r="O30" s="29">
-        <f>N30*14.02%</f>
-        <v>112038.86719999999</v>
-      </c>
-      <c r="S30" t="e">
-        <f>SUM(V30:V31)/SUM([2]calliope_2!$E$11:$F$11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T30">
-        <v>0.95479999999999998</v>
-      </c>
-      <c r="U30" s="29" t="e">
-        <f>V30-(SUM([2]calliope_2!$M$2:$N$2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V30" s="41" t="e">
-        <f>SUMPRODUCT(W10:AE17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W30" s="25">
-        <f t="shared" ref="W30:AF30" si="17">SUM(W10:W17)</f>
-        <v>836.7</v>
-      </c>
-      <c r="X30" s="25">
-        <f t="shared" si="17"/>
-        <v>117.5</v>
-      </c>
-      <c r="Y30" s="25">
-        <f t="shared" si="17"/>
-        <v>220</v>
-      </c>
-      <c r="Z30" s="25" t="e">
-        <f t="shared" si="17"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA30" s="25">
-        <f t="shared" si="17"/>
-        <v>3592.5500000000006</v>
-      </c>
-      <c r="AB30" s="25">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="25">
-        <f t="shared" si="17"/>
-        <v>757000</v>
-      </c>
-      <c r="AD30" s="25" t="e">
-        <f t="shared" si="17"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE30" s="25">
-        <f t="shared" si="17"/>
-        <v>31669.999999999996</v>
-      </c>
-      <c r="AF30" s="25">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+        <f>J28-J25</f>
+        <v>-72.009999999999991</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="T30" t="s">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s">
+        <v>76</v>
+      </c>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
       <c r="AG30" s="40"/>
       <c r="AH30" s="40"/>
       <c r="AI30" s="40"/>
@@ -18177,105 +18188,109 @@
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C31" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" s="48">
         <f>SUM(E31:K31)+AF31</f>
-        <v>1228213.31</v>
+        <v>11449.4</v>
       </c>
       <c r="E31" s="25">
-        <f>SUM(E18:E24)</f>
-        <v>0.81</v>
+        <f>SUM(E3:E9)</f>
+        <v>302.8</v>
       </c>
       <c r="F31" s="25">
-        <f t="shared" ref="F31:M31" si="18">SUM(F18:F24)</f>
-        <v>14</v>
+        <f t="shared" ref="F31:M31" si="13">SUM(F3:F9)</f>
+        <v>350</v>
       </c>
       <c r="G31" s="25">
-        <f t="shared" si="18"/>
-        <v>160</v>
+        <f t="shared" si="13"/>
+        <v>300</v>
       </c>
       <c r="H31" s="25">
-        <f t="shared" si="18"/>
-        <v>17.5</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="I31" s="25">
-        <f t="shared" si="18"/>
-        <v>9021</v>
+        <f t="shared" si="13"/>
+        <v>456.60000000000008</v>
       </c>
       <c r="J31" s="25">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>300</v>
       </c>
       <c r="K31" s="25">
-        <f t="shared" si="18"/>
-        <v>1219000</v>
+        <f t="shared" si="13"/>
+        <v>9740</v>
       </c>
       <c r="L31" s="25">
-        <f t="shared" si="18"/>
-        <v>60</v>
+        <f t="shared" si="13"/>
+        <v>1010</v>
       </c>
       <c r="M31" s="25">
-        <f t="shared" si="18"/>
-        <v>220</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="N31" s="29">
         <f>SUM(E31:M31)</f>
-        <v>1228493.31</v>
+        <v>12459.4</v>
       </c>
       <c r="O31" s="29">
-        <f>N31*31.62%</f>
-        <v>388449.58462200005</v>
+        <f>N31*19.55%</f>
+        <v>2435.8126999999999</v>
+      </c>
+      <c r="S31" t="e">
+        <f>(V31+90)/[2]calliope_2!$D$11</f>
+        <v>#REF!</v>
       </c>
       <c r="T31">
-        <v>0.94810000000000005</v>
+        <v>0.93240000000000001</v>
       </c>
       <c r="U31" s="29" t="e">
-        <f>V31-SUM([2]calliope_2!$O$2:$P$2)</f>
+        <f>V31-[2]calliope_2!$L$2</f>
         <v>#REF!</v>
       </c>
       <c r="V31" s="41" t="e">
-        <f>SUMPRODUCT(W18:AE24)</f>
+        <f>SUM(W3:AE9)</f>
         <v>#REF!</v>
       </c>
       <c r="W31" s="25">
-        <f t="shared" ref="W31:AF31" si="19">SUM(W18:W24)</f>
-        <v>0.24299999999999999</v>
+        <f t="shared" ref="W31:AF31" si="14">SUM(W3:W9)</f>
+        <v>90.839999999999989</v>
       </c>
       <c r="X31" s="25">
-        <f t="shared" si="19"/>
-        <v>6.58</v>
+        <f t="shared" si="14"/>
+        <v>164.5</v>
       </c>
       <c r="Y31" s="25">
-        <f t="shared" si="19"/>
-        <v>88</v>
+        <f t="shared" si="14"/>
+        <v>165</v>
       </c>
       <c r="Z31" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="AA31" s="25">
-        <f t="shared" si="19"/>
-        <v>5863.65</v>
+        <f t="shared" si="14"/>
+        <v>296.79000000000008</v>
       </c>
       <c r="AB31" s="25">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>21.000000000000004</v>
       </c>
       <c r="AC31" s="25">
-        <f t="shared" si="19"/>
-        <v>1219000</v>
+        <f t="shared" si="14"/>
+        <v>9740</v>
       </c>
       <c r="AD31" s="25" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="AE31" s="25">
-        <f t="shared" si="19"/>
-        <v>220</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AF31" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG31" s="40"/>
@@ -18299,50 +18314,260 @@
       <c r="AY31" s="40"/>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C32" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="48">
+        <f>SUM(E32:K32)+AF32</f>
+        <v>8989</v>
+      </c>
+      <c r="E32" s="25">
+        <f>SUM(E10:E17)</f>
+        <v>299</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" ref="F32:M32" si="15">SUM(F10:F17)</f>
+        <v>250</v>
+      </c>
+      <c r="G32" s="25">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+      <c r="H32" s="25">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="I32" s="25">
+        <f t="shared" si="15"/>
+        <v>430</v>
+      </c>
+      <c r="J32" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="25">
+        <f t="shared" si="15"/>
+        <v>7570</v>
+      </c>
+      <c r="L32" s="25">
+        <f t="shared" si="15"/>
+        <v>1460</v>
+      </c>
+      <c r="M32" s="25">
+        <f t="shared" si="15"/>
+        <v>31670</v>
+      </c>
+      <c r="N32" s="29">
+        <f>SUM(E32:M32)</f>
+        <v>42119</v>
+      </c>
+      <c r="O32" s="29">
+        <f>N32*14.02%</f>
+        <v>5905.0837999999994</v>
+      </c>
+      <c r="S32" t="e">
+        <f>SUM(V32:V33)/SUM([2]calliope_2!$E$11:$F$11)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T32">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="U32" s="29" t="e">
+        <f>V32-(SUM([2]calliope_2!$M$2:$N$2))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V32" s="41" t="e">
+        <f>SUMPRODUCT(W10:AE17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W32" s="25">
+        <f t="shared" ref="W32:AF32" si="16">SUM(W10:W17)</f>
+        <v>89.699999999999989</v>
+      </c>
+      <c r="X32" s="25">
+        <f t="shared" si="16"/>
+        <v>117.5</v>
+      </c>
+      <c r="Y32" s="25">
+        <f t="shared" si="16"/>
+        <v>220</v>
+      </c>
+      <c r="Z32" s="25" t="e">
+        <f t="shared" si="16"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA32" s="25">
+        <f t="shared" si="16"/>
+        <v>279.5</v>
+      </c>
+      <c r="AB32" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="25">
+        <f t="shared" si="16"/>
+        <v>7570</v>
+      </c>
+      <c r="AD32" s="25" t="e">
+        <f t="shared" si="16"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE32" s="25">
+        <f t="shared" si="16"/>
+        <v>31670</v>
+      </c>
+      <c r="AF32" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="40"/>
+      <c r="AN32" s="40"/>
+      <c r="AO32" s="40"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="40"/>
+      <c r="AT32" s="40"/>
+      <c r="AU32" s="40"/>
+      <c r="AV32" s="40"/>
+      <c r="AW32" s="40"/>
+      <c r="AX32" s="40"/>
+      <c r="AY32" s="40"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="C33" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="48">
+        <f>SUM(E33:K33)+AF33</f>
+        <v>13990.64</v>
+      </c>
+      <c r="E33" s="25">
+        <f>SUM(E18:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" ref="F33:M33" si="17">SUM(F18:F24)</f>
+        <v>14</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="17"/>
+        <v>160</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" si="17"/>
+        <v>1626.64</v>
+      </c>
+      <c r="J33" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" si="17"/>
+        <v>12190</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="29">
+        <f>SUM(E33:M33)</f>
+        <v>13990.64</v>
+      </c>
+      <c r="O33" s="29">
+        <f>N33*31.62%</f>
+        <v>4423.8403680000001</v>
+      </c>
+      <c r="T33">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="U33" s="29" t="e">
+        <f>V33-SUM([2]calliope_2!$O$2:$P$2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V33" s="41" t="e">
+        <f>SUMPRODUCT(W18:AE24)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W33" s="25">
+        <f t="shared" ref="W33:AF33" si="18">SUM(W18:W24)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="25">
+        <f t="shared" si="18"/>
+        <v>6.58</v>
+      </c>
+      <c r="Y33" s="25">
+        <f t="shared" si="18"/>
+        <v>88</v>
+      </c>
+      <c r="Z33" s="25" t="e">
+        <f t="shared" si="18"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA33" s="25">
+        <f t="shared" si="18"/>
+        <v>1057.316</v>
+      </c>
+      <c r="AB33" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="25">
+        <f t="shared" si="18"/>
+        <v>12190</v>
+      </c>
+      <c r="AD33" s="25" t="e">
+        <f t="shared" si="18"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE33" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="40"/>
+      <c r="AU33" s="40"/>
+      <c r="AV33" s="40"/>
+      <c r="AW33" s="40"/>
+      <c r="AX33" s="40"/>
+      <c r="AY33" s="40"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="29">
-        <f>SUM(N29:N31)</f>
-        <v>3027123.51</v>
-      </c>
-      <c r="O32" s="29">
-        <f>SUM(O29:O31)</f>
-        <v>695889.56792200007</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="AE33" s="39">
-        <v>6.82</v>
-      </c>
-      <c r="AF33" s="39"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="D34" s="49"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
@@ -18352,8 +18577,22 @@
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="N34" s="29">
+        <f>SUM(N31:N33)</f>
+        <v>68569.040000000008</v>
+      </c>
+      <c r="O34" s="29">
+        <f>SUM(O31:O33)</f>
+        <v>12764.736868</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
@@ -18363,8 +18602,12 @@
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE35" s="39">
+        <v>6.82</v>
+      </c>
+      <c r="AF35" s="39"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
@@ -18375,7 +18618,7 @@
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
@@ -18386,7 +18629,7 @@
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
@@ -18397,7 +18640,7 @@
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -18408,7 +18651,7 @@
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
@@ -18419,7 +18662,7 @@
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
@@ -18430,7 +18673,7 @@
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
@@ -18441,7 +18684,7 @@
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
@@ -18452,7 +18695,7 @@
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
@@ -18463,7 +18706,7 @@
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
@@ -18474,7 +18717,7 @@
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
@@ -18485,7 +18728,7 @@
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
@@ -18496,7 +18739,7 @@
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
@@ -18562,9 +18805,36 @@
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -18583,12 +18853,4921 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA4E148-1851-4CA0-AD9C-213A96A7A2DD}">
+  <dimension ref="A1:BA61"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="22" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="22" customWidth="1"/>
+    <col min="14" max="31" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="32" max="41" width="8.88671875" customWidth="1"/>
+    <col min="42" max="50" width="8.88671875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="C1" s="66">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>0.86423333300000005</v>
+      </c>
+      <c r="B3" s="28">
+        <v>108.9092</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12">
+        <f>1308/5</f>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="F3" s="13">
+        <f>'esdm+ruptl_2030'!F3</f>
+        <v>350</v>
+      </c>
+      <c r="G3" s="14">
+        <f>'esdm+ruptl_2030'!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <f>'esdm+ruptl_2030'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="57">
+        <v>0</v>
+      </c>
+      <c r="M3" s="54">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S3" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T3" s="18">
+        <v>1</v>
+      </c>
+      <c r="U3" s="19">
+        <v>1</v>
+      </c>
+      <c r="V3" s="20">
+        <v>1</v>
+      </c>
+      <c r="W3" s="12">
+        <f t="shared" ref="W3:Y24" si="0">E3*N3</f>
+        <v>78.48</v>
+      </c>
+      <c r="X3" s="13">
+        <f t="shared" si="0"/>
+        <v>164.5</v>
+      </c>
+      <c r="Y3" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="15" t="e">
+        <f>#REF!*Q3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA3" s="16">
+        <f t="shared" ref="AA3:AC18" si="1">I3*R3</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="19" t="e">
+        <f>#REF!*U3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE3" s="20">
+        <f t="shared" ref="AE3:AE24" si="2">M3*V3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH3" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM3" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ3" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR3" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS3" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT3" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU3" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV3" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="45"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>4.5260000000000002E-2</v>
+      </c>
+      <c r="B4" s="28">
+        <v>109.23968000000001</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="12">
+        <f>1308/5</f>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="F4" s="13">
+        <f>'esdm+ruptl_2030'!F4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <f>'esdm+ruptl_2030'!G4</f>
+        <v>300</v>
+      </c>
+      <c r="H4" s="15">
+        <f>'esdm+ruptl_2030'!H4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <f>solar_iesr!$B$2/5*1000*0.01</f>
+        <v>1948</v>
+      </c>
+      <c r="L4" s="57">
+        <v>0</v>
+      </c>
+      <c r="M4" s="54">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R4" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S4" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T4" s="18">
+        <v>1</v>
+      </c>
+      <c r="U4" s="19">
+        <v>1</v>
+      </c>
+      <c r="V4" s="20">
+        <v>1</v>
+      </c>
+      <c r="W4" s="12">
+        <f t="shared" si="0"/>
+        <v>78.48</v>
+      </c>
+      <c r="X4" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="Z4" s="15" t="e">
+        <f>#REF!*Q4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA4" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="18">
+        <f t="shared" si="1"/>
+        <v>1948</v>
+      </c>
+      <c r="AD4" s="19" t="e">
+        <f>#REF!*U4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL4" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR4" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS4" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT4" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU4" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="45"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>1.1174249999999999</v>
+      </c>
+      <c r="B5" s="28">
+        <v>109.55835</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E9" si="3">1308/5</f>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <f>'esdm+ruptl_2030'!G5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <f>'esdm+ruptl_2030'!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <f>'esdm+ruptl_2030'!I5</f>
+        <v>12.965</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <f>solar_iesr!$B$2/5*1000*0.01</f>
+        <v>1948</v>
+      </c>
+      <c r="L5" s="57">
+        <v>0</v>
+      </c>
+      <c r="M5" s="54">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S5" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T5" s="18">
+        <v>1</v>
+      </c>
+      <c r="U5" s="19">
+        <v>1</v>
+      </c>
+      <c r="V5" s="20">
+        <v>1</v>
+      </c>
+      <c r="W5" s="12">
+        <f t="shared" si="0"/>
+        <v>78.48</v>
+      </c>
+      <c r="X5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="15" t="e">
+        <f>#REF!*Q5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA5" s="16">
+        <f t="shared" si="1"/>
+        <v>8.4272500000000008</v>
+      </c>
+      <c r="AB5" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="18">
+        <f t="shared" si="1"/>
+        <v>1948</v>
+      </c>
+      <c r="AD5" s="19" t="e">
+        <f>#REF!*U5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE5" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH5" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI5" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL5" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ5" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR5" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS5" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT5" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU5" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="45"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>0.17745</v>
+      </c>
+      <c r="B6" s="28">
+        <v>110.0471</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="3"/>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <f>'esdm+ruptl_2030'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <f>'esdm+ruptl_2030'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <f>solar_iesr!$B$2/5*1000*0.01</f>
+        <v>1948</v>
+      </c>
+      <c r="L6" s="57">
+        <v>0</v>
+      </c>
+      <c r="M6" s="54">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R6" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S6" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T6" s="18">
+        <v>1</v>
+      </c>
+      <c r="U6" s="19">
+        <v>1</v>
+      </c>
+      <c r="V6" s="20">
+        <v>1</v>
+      </c>
+      <c r="W6" s="12">
+        <f t="shared" si="0"/>
+        <v>78.48</v>
+      </c>
+      <c r="X6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15" t="e">
+        <f>#REF!*Q6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="18">
+        <f t="shared" si="1"/>
+        <v>1948</v>
+      </c>
+      <c r="AD6" s="19" t="e">
+        <f>#REF!*U6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE6" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH6" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI6" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL6" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ6" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR6" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS6" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT6" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU6" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="45"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="B7" s="28">
+        <v>110.9554667</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="3"/>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="F7" s="13">
+        <f>'esdm+ruptl_2030'!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <f>'esdm+ruptl_2030'!G7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <f>'esdm+ruptl_2030'!H7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <f>'esdm+ruptl_2030'!I7</f>
+        <v>103.565</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <f>solar_iesr!$B$2/5*1000*0.01</f>
+        <v>1948</v>
+      </c>
+      <c r="L7" s="57">
+        <v>0</v>
+      </c>
+      <c r="M7" s="54">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S7" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T7" s="18">
+        <v>1</v>
+      </c>
+      <c r="U7" s="19">
+        <v>1</v>
+      </c>
+      <c r="V7" s="20">
+        <v>1</v>
+      </c>
+      <c r="W7" s="12">
+        <f t="shared" si="0"/>
+        <v>78.48</v>
+      </c>
+      <c r="X7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15" t="e">
+        <f>#REF!*Q7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA7" s="16">
+        <f t="shared" ref="AA7:AC24" si="4">I7*R7</f>
+        <v>67.317250000000001</v>
+      </c>
+      <c r="AB7" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18">
+        <f t="shared" si="1"/>
+        <v>1948</v>
+      </c>
+      <c r="AD7" s="19" t="e">
+        <f>#REF!*U7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE7" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH7" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI7" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL7" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ7" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR7" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS7" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT7" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU7" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="45"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>-1.7742</v>
+      </c>
+      <c r="B8" s="28">
+        <v>110.0303</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="3"/>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <f>'esdm+ruptl_2030'!G8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <f>'esdm+ruptl_2030'!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <f>'esdm+ruptl_2030'!I8</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <f>solar_iesr!$B$2/5*1000*0.01</f>
+        <v>1948</v>
+      </c>
+      <c r="L8" s="57">
+        <f>wind_sergio!$B$2*1000</f>
+        <v>1010</v>
+      </c>
+      <c r="M8" s="54">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S8" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T8" s="18">
+        <v>1</v>
+      </c>
+      <c r="U8" s="19">
+        <v>1</v>
+      </c>
+      <c r="V8" s="20">
+        <v>1</v>
+      </c>
+      <c r="W8" s="12">
+        <f t="shared" si="0"/>
+        <v>78.48</v>
+      </c>
+      <c r="X8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="15" t="e">
+        <f>#REF!*Q8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA8" s="16">
+        <f t="shared" si="4"/>
+        <v>0.19500000000000003</v>
+      </c>
+      <c r="AB8" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18">
+        <f t="shared" si="1"/>
+        <v>1948</v>
+      </c>
+      <c r="AD8" s="19" t="e">
+        <f>#REF!*U8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE8" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH8" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL8" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ8" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR8" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS8" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT8" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU8" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="45"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>-1.7742</v>
+      </c>
+      <c r="B9" s="28">
+        <v>110.0303</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="3"/>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="F9" s="13">
+        <f>'esdm+ruptl_2030'!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <f>'esdm+ruptl_2030'!G9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <f>'esdm+ruptl_2030'!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <f>4737*0.1-'esdm+ruptl_2030'!I9-I7-I5</f>
+        <v>339.7700000000001</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="57">
+        <v>0</v>
+      </c>
+      <c r="M9" s="54">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S9" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T9" s="18">
+        <v>1</v>
+      </c>
+      <c r="U9" s="19">
+        <v>1</v>
+      </c>
+      <c r="V9" s="20">
+        <v>1</v>
+      </c>
+      <c r="W9" s="12">
+        <f t="shared" si="0"/>
+        <v>78.48</v>
+      </c>
+      <c r="X9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="15" t="e">
+        <f>#REF!*Q9</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA9" s="16">
+        <f t="shared" si="4"/>
+        <v>220.85050000000007</v>
+      </c>
+      <c r="AB9" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="19" t="e">
+        <f>#REF!*U9</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH9" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL9" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ9" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR9" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS9" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT9" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU9" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="45"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>-2.6152000000000002</v>
+      </c>
+      <c r="B10" s="28">
+        <v>111.7037</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12">
+        <f>1499/5</f>
+        <v>299.8</v>
+      </c>
+      <c r="F10" s="13">
+        <f>'esdm+ruptl_2030'!F10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <f>'esdm+ruptl_2030'!G10</f>
+        <v>100</v>
+      </c>
+      <c r="H10" s="15">
+        <f>'esdm+ruptl_2030'!H10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <f>solar_iesr!$B$3/5*1000*0.01</f>
+        <v>1144</v>
+      </c>
+      <c r="L10" s="57">
+        <f>wind_sergio!$B$3/2*1000</f>
+        <v>590</v>
+      </c>
+      <c r="M10" s="54">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R10" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S10" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T10" s="18">
+        <v>1</v>
+      </c>
+      <c r="U10" s="19">
+        <v>1</v>
+      </c>
+      <c r="V10" s="20">
+        <v>1</v>
+      </c>
+      <c r="W10" s="12">
+        <f t="shared" si="0"/>
+        <v>89.94</v>
+      </c>
+      <c r="X10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="Z10" s="15" t="e">
+        <f>#REF!*Q10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="18">
+        <f t="shared" si="1"/>
+        <v>1144</v>
+      </c>
+      <c r="AD10" s="19" t="e">
+        <f>#REF!*U10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI10" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL10" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ10" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR10" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS10" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT10" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU10" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="45"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>-2.6220500000000002</v>
+      </c>
+      <c r="B11" s="28">
+        <v>112.91540000000001</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" ref="E11:E14" si="5">1499/5</f>
+        <v>299.8</v>
+      </c>
+      <c r="F11" s="13">
+        <f>'esdm+ruptl_2030'!F11</f>
+        <v>50</v>
+      </c>
+      <c r="G11" s="14">
+        <f>'esdm+ruptl_2030'!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <f>'esdm+ruptl_2030'!H11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <f>solar_iesr!$B$3/5*1000*0.01</f>
+        <v>1144</v>
+      </c>
+      <c r="L11" s="57">
+        <f>wind_sergio!$B$3/2*1000</f>
+        <v>590</v>
+      </c>
+      <c r="M11" s="54">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S11" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T11" s="18">
+        <v>1</v>
+      </c>
+      <c r="U11" s="19">
+        <v>1</v>
+      </c>
+      <c r="V11" s="20">
+        <v>1</v>
+      </c>
+      <c r="W11" s="12">
+        <f t="shared" si="0"/>
+        <v>89.94</v>
+      </c>
+      <c r="X11" s="13">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="15" t="e">
+        <f>#REF!*Q11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA11" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="18">
+        <f t="shared" si="1"/>
+        <v>1144</v>
+      </c>
+      <c r="AD11" s="19" t="e">
+        <f>#REF!*U11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH11" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL11" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ11" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR11" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS11" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU11" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="45"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>-2.1166</v>
+      </c>
+      <c r="B12" s="28">
+        <v>113.7459333</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="5"/>
+        <v>299.8</v>
+      </c>
+      <c r="F12" s="13">
+        <f>'esdm+ruptl_2030'!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <f>'esdm+ruptl_2030'!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <f>'esdm+ruptl_2030'!H12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <f>solar_iesr!$B$3/5*1000*0.01</f>
+        <v>1144</v>
+      </c>
+      <c r="L12" s="57">
+        <v>0</v>
+      </c>
+      <c r="M12" s="54">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S12" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T12" s="18">
+        <v>1</v>
+      </c>
+      <c r="U12" s="19">
+        <v>1</v>
+      </c>
+      <c r="V12" s="20">
+        <v>1</v>
+      </c>
+      <c r="W12" s="12">
+        <f t="shared" si="0"/>
+        <v>89.94</v>
+      </c>
+      <c r="X12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="15" t="e">
+        <f>#REF!*Q12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA12" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="18">
+        <f t="shared" si="1"/>
+        <v>1144</v>
+      </c>
+      <c r="AD12" s="19" t="e">
+        <f>#REF!*U12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL12" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR12" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS12" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT12" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU12" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="45"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
+        <v>-2.8550333330000002</v>
+      </c>
+      <c r="B13" s="28">
+        <v>114.2789667</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="5"/>
+        <v>299.8</v>
+      </c>
+      <c r="F13" s="13">
+        <f>'esdm+ruptl_2030'!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <f>'esdm+ruptl_2030'!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <f>'esdm+ruptl_2030'!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <f>solar_iesr!$B$3/5*1000*0.01</f>
+        <v>1144</v>
+      </c>
+      <c r="L13" s="57">
+        <v>0</v>
+      </c>
+      <c r="M13" s="54">
+        <f>wind_sergio!C3*1000</f>
+        <v>20830</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S13" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T13" s="18">
+        <v>1</v>
+      </c>
+      <c r="U13" s="19">
+        <v>1</v>
+      </c>
+      <c r="V13" s="20">
+        <v>1</v>
+      </c>
+      <c r="W13" s="12">
+        <f t="shared" si="0"/>
+        <v>89.94</v>
+      </c>
+      <c r="X13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15" t="e">
+        <f>#REF!*Q13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA13" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="18">
+        <f t="shared" si="1"/>
+        <v>1144</v>
+      </c>
+      <c r="AD13" s="19" t="e">
+        <f>#REF!*U13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE13" s="20">
+        <f t="shared" si="2"/>
+        <v>20830</v>
+      </c>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL13" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ13" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR13" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS13" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT13" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU13" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="45"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
+        <v>-0.74419999999999997</v>
+      </c>
+      <c r="B14" s="28">
+        <v>115.00215</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="5"/>
+        <v>299.8</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <f>'esdm+ruptl_2030'!H14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <f>'esdm+ruptl_2030'!I14</f>
+        <v>400</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <f>solar_iesr!$B$3/5*1000*0.01</f>
+        <v>1144</v>
+      </c>
+      <c r="L14" s="57">
+        <v>0</v>
+      </c>
+      <c r="M14" s="54">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S14" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T14" s="18">
+        <v>1</v>
+      </c>
+      <c r="U14" s="19">
+        <v>1</v>
+      </c>
+      <c r="V14" s="20">
+        <v>1</v>
+      </c>
+      <c r="W14" s="12">
+        <f t="shared" si="0"/>
+        <v>89.94</v>
+      </c>
+      <c r="X14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="15" t="e">
+        <f>#REF!*Q14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="AB14" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="18">
+        <f t="shared" si="1"/>
+        <v>1144</v>
+      </c>
+      <c r="AD14" s="19" t="e">
+        <f>#REF!*U14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE14" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI14" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL14" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR14" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS14" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT14" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU14" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="45"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
+        <v>-3.4291333329999998</v>
+      </c>
+      <c r="B15" s="28">
+        <v>114.7738222</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="12">
+        <f>1290/3</f>
+        <v>430</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <f>'esdm+ruptl_2030'!G15</f>
+        <v>300</v>
+      </c>
+      <c r="H15" s="15">
+        <f>'esdm+ruptl_2030'!H15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <f>'esdm+ruptl_2030'!I15</f>
+        <v>30</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+      <c r="L15" s="57">
+        <f>wind_sergio!$B$4/2*1000</f>
+        <v>140</v>
+      </c>
+      <c r="M15" s="54">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R15" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S15" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T15" s="18">
+        <v>1</v>
+      </c>
+      <c r="U15" s="19">
+        <v>1</v>
+      </c>
+      <c r="V15" s="20">
+        <v>1</v>
+      </c>
+      <c r="W15" s="12">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="X15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="Z15" s="15" t="e">
+        <f>#REF!*Q15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="4"/>
+        <v>19.5</v>
+      </c>
+      <c r="AB15" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="19" t="e">
+        <f>#REF!*U15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE15" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH15" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI15" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL15" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ15" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR15" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS15" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT15" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU15" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="45"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A16" s="28">
+        <v>-2.26065</v>
+      </c>
+      <c r="B16" s="28">
+        <v>115.26295</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" ref="E16:E17" si="6">1290/3</f>
+        <v>430</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <f>'esdm+ruptl_2030'!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <f>'esdm+ruptl_2030'!H16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="57">
+        <v>0</v>
+      </c>
+      <c r="M16" s="54">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R16" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S16" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T16" s="18">
+        <v>1</v>
+      </c>
+      <c r="U16" s="19">
+        <v>1</v>
+      </c>
+      <c r="V16" s="20">
+        <v>1</v>
+      </c>
+      <c r="W16" s="12">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="X16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="15" t="e">
+        <f>#REF!*Q16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="19" t="e">
+        <f>#REF!*U16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI16" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL16" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR16" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS16" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT16" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU16" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="45"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>-3.5974499999999998</v>
+      </c>
+      <c r="B17" s="28">
+        <v>115.7526</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="6"/>
+        <v>430</v>
+      </c>
+      <c r="F17" s="13">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="G17" s="14">
+        <f>'esdm+ruptl_2030'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <f>'esdm+ruptl_2030'!H17+40</f>
+        <v>40</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18">
+        <f>solar_iesr!$B$4*1000*0.01</f>
+        <v>1850</v>
+      </c>
+      <c r="L17" s="57">
+        <f>wind_sergio!$B$4/2*1000</f>
+        <v>140</v>
+      </c>
+      <c r="M17" s="54">
+        <f>wind_sergio!$C$4*1000</f>
+        <v>10840</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R17" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S17" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T17" s="18">
+        <v>1</v>
+      </c>
+      <c r="U17" s="19">
+        <v>1</v>
+      </c>
+      <c r="V17" s="20">
+        <v>1</v>
+      </c>
+      <c r="W17" s="12">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="X17" s="13">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="15" t="e">
+        <f>#REF!*Q17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="18">
+        <f t="shared" si="1"/>
+        <v>1850</v>
+      </c>
+      <c r="AD17" s="19" t="e">
+        <f>#REF!*U17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE17" s="20">
+        <f t="shared" si="2"/>
+        <v>10840</v>
+      </c>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH17" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI17" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL17" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM17" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ17" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR17" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS17" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT17" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU17" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV17" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="45"/>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
+        <v>-1.761425</v>
+      </c>
+      <c r="B18" s="28">
+        <v>116.11315</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="12">
+        <f>'esdm+ruptl_2030'!E18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <f>'esdm+ruptl_2030'!F18</f>
+        <v>14</v>
+      </c>
+      <c r="G18" s="14">
+        <f>'esdm+ruptl_2030'!G18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <f>solar_iesr!$B$5/4/2*1000*0.01</f>
+        <v>1357.5</v>
+      </c>
+      <c r="L18" s="57">
+        <v>0</v>
+      </c>
+      <c r="M18" s="54">
+        <v>0</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R18" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S18" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T18" s="18">
+        <v>1</v>
+      </c>
+      <c r="U18" s="19">
+        <v>1</v>
+      </c>
+      <c r="V18" s="20">
+        <v>1</v>
+      </c>
+      <c r="W18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <f t="shared" si="0"/>
+        <v>6.58</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15" t="e">
+        <f>#REF!*Q18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="18">
+        <f t="shared" si="1"/>
+        <v>1357.5</v>
+      </c>
+      <c r="AD18" s="19" t="e">
+        <f>#REF!*U18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI18" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ18" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL18" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM18" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR18" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS18" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT18" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU18" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV18" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="45"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
+        <v>-1.190416667</v>
+      </c>
+      <c r="B19" s="28">
+        <v>116.87775000000001</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="12">
+        <f>'esdm+ruptl_2030'!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>80</v>
+      </c>
+      <c r="H19" s="15">
+        <f>'esdm+ruptl_2030'!H19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
+        <f>solar_iesr!$B$5/4/2*1000*0.01</f>
+        <v>1357.5</v>
+      </c>
+      <c r="L19" s="57">
+        <v>0</v>
+      </c>
+      <c r="M19" s="54">
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R19" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S19" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T19" s="18">
+        <v>1</v>
+      </c>
+      <c r="U19" s="19">
+        <v>1</v>
+      </c>
+      <c r="V19" s="20">
+        <v>1</v>
+      </c>
+      <c r="W19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Z19" s="15" t="e">
+        <f>#REF!*Q19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA19" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="18">
+        <f t="shared" si="4"/>
+        <v>1357.5</v>
+      </c>
+      <c r="AD19" s="19" t="e">
+        <f>#REF!*U19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE19" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH19" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI19" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL19" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ19" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR19" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS19" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT19" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU19" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="45"/>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
+        <v>-0.48473333299999999</v>
+      </c>
+      <c r="B20" s="28">
+        <v>117.0814444</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="12">
+        <f>'esdm+ruptl_2030'!E20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <f>'esdm+ruptl_2030'!I20</f>
+        <v>90</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <f>solar_iesr!$B$5/4*1000*0.01</f>
+        <v>2715</v>
+      </c>
+      <c r="L20" s="57">
+        <v>0</v>
+      </c>
+      <c r="M20" s="54">
+        <v>0</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R20" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S20" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T20" s="18">
+        <v>1</v>
+      </c>
+      <c r="U20" s="19">
+        <v>1</v>
+      </c>
+      <c r="V20" s="20">
+        <v>1</v>
+      </c>
+      <c r="W20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15" t="e">
+        <f>#REF!*Q20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="4"/>
+        <v>58.5</v>
+      </c>
+      <c r="AB20" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="18">
+        <f t="shared" si="4"/>
+        <v>2715</v>
+      </c>
+      <c r="AD20" s="19" t="e">
+        <f>#REF!*U20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE20" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI20" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL20" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR20" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS20" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT20" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU20" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="45"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A21" s="28">
+        <v>0.31574999999999998</v>
+      </c>
+      <c r="B21" s="28">
+        <v>117.50215</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="12">
+        <f>'esdm+ruptl_2030'!E21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <f>'esdm+ruptl_2030'!H21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <f>16844*0.1-'esdm+ruptl_2030'!I21-I22-I20-I15-I14</f>
+        <v>991.40000000000009</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <f>solar_iesr!$B$5/4*1000*0.01</f>
+        <v>2715</v>
+      </c>
+      <c r="L21" s="57">
+        <v>0</v>
+      </c>
+      <c r="M21" s="54">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R21" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S21" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T21" s="18">
+        <v>1</v>
+      </c>
+      <c r="U21" s="19">
+        <v>1</v>
+      </c>
+      <c r="V21" s="20">
+        <v>1</v>
+      </c>
+      <c r="W21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="15" t="e">
+        <f>#REF!*Q21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="4"/>
+        <v>644.41000000000008</v>
+      </c>
+      <c r="AB21" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="18">
+        <f t="shared" si="4"/>
+        <v>2715</v>
+      </c>
+      <c r="AD21" s="19" t="e">
+        <f>#REF!*U21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE21" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH21" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI21" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ21" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL21" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ21" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR21" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS21" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT21" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU21" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="45"/>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A22" s="28">
+        <v>1.0532999999999999</v>
+      </c>
+      <c r="B22" s="28">
+        <v>116.92149999999999</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
+        <f>'esdm+ruptl_2030'!G22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <f>'esdm+ruptl_2030'!H22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <f>'esdm+ruptl_2030'!I22</f>
+        <v>155</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="18">
+        <f>solar_iesr!$B$5/4*1000*0.01</f>
+        <v>2715</v>
+      </c>
+      <c r="L22" s="57">
+        <v>0</v>
+      </c>
+      <c r="M22" s="54">
+        <v>0</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R22" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S22" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T22" s="18">
+        <v>1</v>
+      </c>
+      <c r="U22" s="19">
+        <v>1</v>
+      </c>
+      <c r="V22" s="20">
+        <v>1</v>
+      </c>
+      <c r="W22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="15" t="e">
+        <f>#REF!*Q22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" si="4"/>
+        <v>100.75</v>
+      </c>
+      <c r="AB22" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="18">
+        <f t="shared" si="4"/>
+        <v>2715</v>
+      </c>
+      <c r="AD22" s="19" t="e">
+        <f>#REF!*U22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE22" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI22" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL22" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM22" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ22" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR22" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS22" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT22" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU22" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV22" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="45"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
+        <v>3.2987666670000002</v>
+      </c>
+      <c r="B23" s="28">
+        <v>116.9458333</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="12">
+        <f>'esdm+ruptl_2030'!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <f>'esdm+ruptl_2030'!F23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
+        <f>40+40</f>
+        <v>80</v>
+      </c>
+      <c r="H23" s="15">
+        <f>'esdm+ruptl_2030'!H23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <f>'esdm+ruptl_2030'!I23</f>
+        <v>90.24</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <f>solar_iesr!$B$6*1000/2*0.01</f>
+        <v>665</v>
+      </c>
+      <c r="L23" s="57">
+        <v>0</v>
+      </c>
+      <c r="M23" s="54">
+        <v>0</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R23" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S23" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T23" s="18">
+        <v>1</v>
+      </c>
+      <c r="U23" s="19">
+        <v>1</v>
+      </c>
+      <c r="V23" s="20">
+        <v>1</v>
+      </c>
+      <c r="W23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Z23" s="15" t="e">
+        <f>#REF!*Q23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA23" s="16">
+        <f t="shared" si="4"/>
+        <v>58.655999999999999</v>
+      </c>
+      <c r="AB23" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="18">
+        <f t="shared" si="4"/>
+        <v>665</v>
+      </c>
+      <c r="AD23" s="19" t="e">
+        <f>#REF!*U23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE23" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH23" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI23" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL23" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM23" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ23" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR23" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS23" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT23" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU23" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV23" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="45"/>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A24" s="28">
+        <v>3.2987666670000002</v>
+      </c>
+      <c r="B24" s="28">
+        <v>116.9458333</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="12">
+        <f>'esdm+ruptl_2030'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <f>'esdm+ruptl_2030'!F24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <f>'esdm+ruptl_2030'!H24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <f>'esdm+ruptl_2030'!I24</f>
+        <v>300</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="18">
+        <f>solar_iesr!$B$6*1000/2*0.01</f>
+        <v>665</v>
+      </c>
+      <c r="L24" s="57">
+        <v>0</v>
+      </c>
+      <c r="M24" s="54">
+        <v>0</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="R24" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S24" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T24" s="18">
+        <v>1</v>
+      </c>
+      <c r="U24" s="19">
+        <v>1</v>
+      </c>
+      <c r="V24" s="20">
+        <v>1</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="15" t="e">
+        <f>#REF!*Q24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA24" s="16">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="AB24" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="18">
+        <f t="shared" si="4"/>
+        <v>665</v>
+      </c>
+      <c r="AD24" s="19" t="e">
+        <f>#REF!*U24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE24" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH24" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI24" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AL24" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AM24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="19">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AQ24" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR24" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="AS24" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="AT24" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AU24" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="AV24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="20">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="45"/>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="C25" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="27">
+        <f>SUM(E25:M25)</f>
+        <v>72287.44</v>
+      </c>
+      <c r="E25" s="25">
+        <f>SUM(E3:E24)</f>
+        <v>4620.2000000000007</v>
+      </c>
+      <c r="F25" s="25">
+        <f t="shared" ref="F25:M25" si="7">SUM(F3:F24)</f>
+        <v>614</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="7"/>
+        <v>860</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="I25" s="25">
+        <f t="shared" si="7"/>
+        <v>2513.2399999999998</v>
+      </c>
+      <c r="J25" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="25">
+        <f t="shared" si="7"/>
+        <v>29500</v>
+      </c>
+      <c r="L25" s="25">
+        <f t="shared" si="7"/>
+        <v>2470</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" si="7"/>
+        <v>31670</v>
+      </c>
+      <c r="W25" s="29">
+        <f>SUM(W3:W24)</f>
+        <v>1386.0600000000002</v>
+      </c>
+      <c r="X25" s="29">
+        <f t="shared" ref="X25:AF25" si="8">SUM(X3:X24)</f>
+        <v>288.58</v>
+      </c>
+      <c r="Y25" s="29">
+        <f t="shared" si="8"/>
+        <v>473</v>
+      </c>
+      <c r="Z25" s="29" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA25" s="29">
+        <f t="shared" si="8"/>
+        <v>1633.6060000000002</v>
+      </c>
+      <c r="AB25" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="29">
+        <f t="shared" si="8"/>
+        <v>29500</v>
+      </c>
+      <c r="AD25" s="29" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE25" s="29">
+        <f t="shared" si="8"/>
+        <v>31670</v>
+      </c>
+      <c r="AF25" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="25">
+        <f>E25*8760</f>
+        <v>40472952.000000007</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" ref="F26:J26" si="9">F25*8760</f>
+        <v>5378640</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="9"/>
+        <v>7533600</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="9"/>
+        <v>350400</v>
+      </c>
+      <c r="I26" s="25">
+        <f t="shared" si="9"/>
+        <v>22015982.399999999</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="25">
+        <f t="shared" ref="AF26" si="10">AF25*8760</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62">
+        <f>E26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>1.1187518334912891</v>
+      </c>
+      <c r="F27" s="62">
+        <f>F26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>0.14867616678144915</v>
+      </c>
+      <c r="G27" s="62">
+        <f>G26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>0.20824349093167147</v>
+      </c>
+      <c r="H27" s="62">
+        <f>H26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>9.6857437642637895E-3</v>
+      </c>
+      <c r="I27" s="62">
+        <f>I26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>0.60856496645245817</v>
+      </c>
+      <c r="J27" s="62">
+        <f>J26*0.9/[3]calliope_2050!$S$8763</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="25">
+        <f>AF26*0.9/[3]calliope_2030!$S$8763</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D28" s="36" t="e">
+        <f>SUM(W25:AE25)+AF5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="44">
+        <v>227.99</v>
+      </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="V28" s="29" t="e">
+        <f>SUM(W28:AF28)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W28" s="38" t="e">
+        <f>W25/$D$28*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X28" s="38" t="e">
+        <f t="shared" ref="X28:AF28" si="11">X25/$D$28*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y28" s="38" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z28" s="38" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA28" s="38" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AB28" s="38" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AC28" s="38" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AD28" s="38" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE28" s="38" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF28" s="38" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="22"/>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D29" s="37">
+        <f>SUMPRODUCT(E3:M24,AG3:AO24)</f>
+        <v>66508.887199999983</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25" t="e">
+        <f>J28/J25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="V29" t="s">
+        <v>69</v>
+      </c>
+      <c r="W29" s="39">
+        <v>0.52</v>
+      </c>
+      <c r="X29" s="39">
+        <v>68.58</v>
+      </c>
+      <c r="Y29" s="39">
+        <v>16.3</v>
+      </c>
+      <c r="Z29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="39">
+        <v>1.04</v>
+      </c>
+      <c r="AB29" s="39">
+        <v>6.73</v>
+      </c>
+      <c r="AC29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="39">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="39">
+        <v>6.82</v>
+      </c>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="40"/>
+      <c r="AO29" s="40"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="40"/>
+      <c r="AR29" s="40"/>
+      <c r="AS29" s="40"/>
+      <c r="AT29" s="40"/>
+      <c r="AU29" s="40"/>
+      <c r="AV29" s="40"/>
+      <c r="AW29" s="40"/>
+      <c r="AX29" s="40"/>
+      <c r="AY29" s="40"/>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="D30" s="37"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25">
+        <f>J28-J25</f>
+        <v>227.99</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="T30" t="s">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s">
+        <v>76</v>
+      </c>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="40"/>
+      <c r="AI30" s="40"/>
+      <c r="AJ30" s="40"/>
+      <c r="AK30" s="40"/>
+      <c r="AL30" s="40"/>
+      <c r="AM30" s="40"/>
+      <c r="AN30" s="40"/>
+      <c r="AO30" s="40"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="40"/>
+      <c r="AR30" s="40"/>
+      <c r="AS30" s="40"/>
+      <c r="AT30" s="40"/>
+      <c r="AU30" s="40"/>
+      <c r="AV30" s="40"/>
+      <c r="AW30" s="40"/>
+      <c r="AX30" s="40"/>
+      <c r="AY30" s="40"/>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="C31" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="48">
+        <f>SUM(E31:K31)+AF31</f>
+        <v>12677.8</v>
+      </c>
+      <c r="E31" s="25">
+        <f>SUM(E3:E9)</f>
+        <v>1831.1999999999998</v>
+      </c>
+      <c r="F31" s="25">
+        <f t="shared" ref="F31:M31" si="12">SUM(F3:F9)</f>
+        <v>350</v>
+      </c>
+      <c r="G31" s="25">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="H31" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="25">
+        <f t="shared" si="12"/>
+        <v>456.60000000000008</v>
+      </c>
+      <c r="J31" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="25">
+        <f t="shared" si="12"/>
+        <v>9740</v>
+      </c>
+      <c r="L31" s="25">
+        <f t="shared" si="12"/>
+        <v>1010</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="29">
+        <f>SUM(E31:M31)</f>
+        <v>13687.8</v>
+      </c>
+      <c r="O31" s="29">
+        <f>N31*19.55%</f>
+        <v>2675.9648999999999</v>
+      </c>
+      <c r="S31" t="e">
+        <f>(V31+90)/[2]calliope_2!$D$11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T31">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="U31" s="29" t="e">
+        <f>V31-[2]calliope_2!$L$2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V31" s="41" t="e">
+        <f>SUM(W3:AE9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W31" s="25">
+        <f t="shared" ref="W31:AF31" si="13">SUM(W3:W9)</f>
+        <v>549.36</v>
+      </c>
+      <c r="X31" s="25">
+        <f t="shared" si="13"/>
+        <v>164.5</v>
+      </c>
+      <c r="Y31" s="25">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="Z31" s="25" t="e">
+        <f t="shared" si="13"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA31" s="25">
+        <f t="shared" si="13"/>
+        <v>296.79000000000008</v>
+      </c>
+      <c r="AB31" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="25">
+        <f t="shared" si="13"/>
+        <v>9740</v>
+      </c>
+      <c r="AD31" s="25" t="e">
+        <f t="shared" si="13"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE31" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="40"/>
+      <c r="AN31" s="40"/>
+      <c r="AO31" s="40"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="40"/>
+      <c r="AT31" s="40"/>
+      <c r="AU31" s="40"/>
+      <c r="AV31" s="40"/>
+      <c r="AW31" s="40"/>
+      <c r="AX31" s="40"/>
+      <c r="AY31" s="40"/>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="C32" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="48">
+        <f>SUM(E32:K32)+AF32</f>
+        <v>11479</v>
+      </c>
+      <c r="E32" s="25">
+        <f>SUM(E10:E17)</f>
+        <v>2789</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" ref="F32:M32" si="14">SUM(F10:F17)</f>
+        <v>250</v>
+      </c>
+      <c r="G32" s="25">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="H32" s="25">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="I32" s="25">
+        <f t="shared" si="14"/>
+        <v>430</v>
+      </c>
+      <c r="J32" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="25">
+        <f t="shared" si="14"/>
+        <v>7570</v>
+      </c>
+      <c r="L32" s="25">
+        <f t="shared" si="14"/>
+        <v>1460</v>
+      </c>
+      <c r="M32" s="25">
+        <f t="shared" si="14"/>
+        <v>31670</v>
+      </c>
+      <c r="N32" s="29">
+        <f>SUM(E32:M32)</f>
+        <v>44609</v>
+      </c>
+      <c r="O32" s="29">
+        <f>N32*14.02%</f>
+        <v>6254.1817999999994</v>
+      </c>
+      <c r="S32" t="e">
+        <f>SUM(V32:V33)/SUM([2]calliope_2!$E$11:$F$11)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T32">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="U32" s="29" t="e">
+        <f>V32-(SUM([2]calliope_2!$M$2:$N$2))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V32" s="41" t="e">
+        <f>SUMPRODUCT(W10:AE17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W32" s="25">
+        <f t="shared" ref="W32:AF32" si="15">SUM(W10:W17)</f>
+        <v>836.7</v>
+      </c>
+      <c r="X32" s="25">
+        <f t="shared" si="15"/>
+        <v>117.5</v>
+      </c>
+      <c r="Y32" s="25">
+        <f t="shared" si="15"/>
+        <v>220</v>
+      </c>
+      <c r="Z32" s="25" t="e">
+        <f t="shared" si="15"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA32" s="25">
+        <f t="shared" si="15"/>
+        <v>279.5</v>
+      </c>
+      <c r="AB32" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="25">
+        <f t="shared" si="15"/>
+        <v>7570</v>
+      </c>
+      <c r="AD32" s="25" t="e">
+        <f t="shared" si="15"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE32" s="25">
+        <f t="shared" si="15"/>
+        <v>31670</v>
+      </c>
+      <c r="AF32" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="40"/>
+      <c r="AN32" s="40"/>
+      <c r="AO32" s="40"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="40"/>
+      <c r="AT32" s="40"/>
+      <c r="AU32" s="40"/>
+      <c r="AV32" s="40"/>
+      <c r="AW32" s="40"/>
+      <c r="AX32" s="40"/>
+      <c r="AY32" s="40"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="C33" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="48">
+        <f>SUM(E33:K33)+AF33</f>
+        <v>13990.64</v>
+      </c>
+      <c r="E33" s="25">
+        <f>SUM(E18:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" ref="F33:M33" si="16">SUM(F18:F24)</f>
+        <v>14</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="16"/>
+        <v>160</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" si="16"/>
+        <v>1626.64</v>
+      </c>
+      <c r="J33" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" si="16"/>
+        <v>12190</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="29">
+        <f>SUM(E33:M33)</f>
+        <v>13990.64</v>
+      </c>
+      <c r="O33" s="29">
+        <f>N33*31.62%</f>
+        <v>4423.8403680000001</v>
+      </c>
+      <c r="T33">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="U33" s="29" t="e">
+        <f>V33-SUM([2]calliope_2!$O$2:$P$2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V33" s="41" t="e">
+        <f>SUMPRODUCT(W18:AE24)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W33" s="25">
+        <f t="shared" ref="W33:AF33" si="17">SUM(W18:W24)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="25">
+        <f t="shared" si="17"/>
+        <v>6.58</v>
+      </c>
+      <c r="Y33" s="25">
+        <f t="shared" si="17"/>
+        <v>88</v>
+      </c>
+      <c r="Z33" s="25" t="e">
+        <f t="shared" si="17"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA33" s="25">
+        <f t="shared" si="17"/>
+        <v>1057.316</v>
+      </c>
+      <c r="AB33" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="25">
+        <f t="shared" si="17"/>
+        <v>12190</v>
+      </c>
+      <c r="AD33" s="25" t="e">
+        <f t="shared" si="17"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE33" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="40"/>
+      <c r="AU33" s="40"/>
+      <c r="AV33" s="40"/>
+      <c r="AW33" s="40"/>
+      <c r="AX33" s="40"/>
+      <c r="AY33" s="40"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="29">
+        <f>SUM(N31:N33)</f>
+        <v>72287.44</v>
+      </c>
+      <c r="O34" s="29">
+        <f>SUM(O31:O33)</f>
+        <v>13353.987067999999</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="AE35" s="39">
+        <v>6.82</v>
+      </c>
+      <c r="AF35" s="39"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:AE1"/>
+    <mergeCell ref="AG1:AO1"/>
+    <mergeCell ref="AP1:AX1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F375D3-2D87-4392-8A41-F68190FD633D}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18650,7 +23829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99548EE-4CF5-4429-8E63-A7A2563C0966}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D7"/>

--- a/database/calliope_generators.xlsx
+++ b/database/calliope_generators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_energy_transition\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D370A1-10F8-4F6B-92A5-260562CA1AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED53980-0B1F-460A-910F-C51C48658865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{15FFB4DA-647B-47A8-A954-D576C3956A52}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -3637,7 +3637,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3745,8 +3745,8 @@
         <v>849</v>
       </c>
       <c r="H3" s="34">
-        <f>0.01*60</f>
-        <v>0.6</v>
+        <f>0.04*60</f>
+        <v>2.4</v>
       </c>
       <c r="I3" s="34">
         <v>0.8</v>
@@ -9325,7 +9325,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14200,11 +14200,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BA61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="AZ16" sqref="AZ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19098,11 +19098,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3A25C5-56EB-4173-9671-DD148E735217}">
   <dimension ref="A1:BA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
